--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4624" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B27DF36-5650-449D-896A-52AA1D2D5D36}"/>
+  <xr:revisionPtr revIDLastSave="4674" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A434E98-17E4-4F50-A1FA-7839AE225198}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="2019" sheetId="26" r:id="rId8"/>
     <sheet name="2020" sheetId="27" r:id="rId9"/>
     <sheet name="2021" sheetId="28" r:id="rId10"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId11"/>
-    <sheet name="YTD Wins-Losses" sheetId="29" r:id="rId12"/>
-    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId13"/>
+    <sheet name="2022" sheetId="34" r:id="rId11"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId12"/>
+    <sheet name="YTD Wins-Losses" sheetId="35" r:id="rId13"/>
+    <sheet name="Winning Percentile Range" sheetId="36" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="550">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1680,6 +1681,21 @@
   </si>
   <si>
     <t>INDIAN WELLS MASTERS</t>
+  </si>
+  <si>
+    <t>MELBOURNE SUMMER SET</t>
+  </si>
+  <si>
+    <t>Veronika Kudermetova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-4 3-6 6-3</t>
+  </si>
+  <si>
+    <t>Maryna Zanevska (BELGIUM)</t>
+  </si>
+  <si>
+    <t>María Camila Osorio Serrano (COLOMBIA)</t>
   </si>
 </sst>
 </file>
@@ -1896,16 +1912,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Naomi Osaka (JAPAN):</a:t>
+              <a:t>Naomi</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> </a:t>
+              <a:t> Osaka (JAPAN): YTD Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>YTD Wins-Losses</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1964,19 +1977,17 @@
               <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2012</c:v>
                 </c:pt>
@@ -2007,15 +2018,18 @@
                 <c:pt idx="9">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$11</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -2046,12 +2060,15 @@
                 <c:pt idx="9">
                   <c:v>17</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-504D-4730-B114-27D8826A1B7C}"/>
+              <c16:uniqueId val="{00000000-A103-474C-9FC2-8046BBB293E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2074,19 +2091,17 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2012</c:v>
                 </c:pt>
@@ -2117,15 +2132,18 @@
                 <c:pt idx="9">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$11</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -2156,12 +2174,15 @@
                 <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-504D-4730-B114-27D8826A1B7C}"/>
+              <c16:uniqueId val="{00000001-A103-474C-9FC2-8046BBB293E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2175,11 +2196,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2136410704"/>
-        <c:axId val="2136411952"/>
+        <c:axId val="619143487"/>
+        <c:axId val="619138079"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2136410704"/>
+        <c:axId val="619143487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,7 +2298,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136411952"/>
+        <c:crossAx val="619138079"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2285,7 +2306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136411952"/>
+        <c:axId val="619138079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,7 +2412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136410704"/>
+        <c:crossAx val="619143487"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2501,11 +2522,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Naomi</a:t>
+              <a:t>Naomi Osaka</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Osaka (JAPAN): Winning Percentile Range</a:t>
+              <a:t> (JAPAN): Winning Percentile Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -2595,16 +2616,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2012</c:v>
                 </c:pt>
@@ -2635,15 +2655,18 @@
                 <c:pt idx="9">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$11</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2674,13 +2697,16 @@
                 <c:pt idx="9">
                   <c:v>0.6470588235294118</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-84D1-4DDC-9D83-6F0DB9573F91}"/>
+              <c16:uniqueId val="{00000000-4D31-4B3F-BDE3-F6BEF098359E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2694,16 +2720,71 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1791583487"/>
-        <c:axId val="1791582655"/>
+        <c:axId val="623634831"/>
+        <c:axId val="623631503"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1791583487"/>
+        <c:axId val="623634831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>YEAR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2741,7 +2822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1791582655"/>
+        <c:crossAx val="623631503"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2749,7 +2830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1791582655"/>
+        <c:axId val="623631503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,6 +2850,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>PERCENTAGE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2800,7 +2936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1791583487"/>
+        <c:crossAx val="623634831"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2844,7 +2980,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3459,7 +3595,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3567,11 +3703,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3582,11 +3713,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3618,9 +3744,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3975,7 +4098,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B355F901-91F5-4B49-B4DE-572AE722A5F0}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8F783652-2437-4104-AC4B-B91CE7784D2C}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3987,7 +4110,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1F9E3112-49FF-4003-9C81-7E40EF3D4E06}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{19217ED7-D348-4912-8EF1-9C9315DBB27E}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4001,14 +4124,14 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:pos x="0" y="9525"/>
+    <xdr:ext cx="8582025" cy="5829300"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB996D84-987A-4668-B654-E2F4838314E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE101FD-40E3-4969-865A-9164B12EBE08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4041,7 +4164,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6463CED0-142B-43AF-A2DC-7B02A08B7738}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9B630F-C6D5-414B-BA93-D4CB5B70009B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4655,7 +4778,7 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -5129,14 +5252,137 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5469962-E3C4-4FAE-B8E5-B7F62854BADF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:F13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5354,7 +5600,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:F11" si="1">(D10-E10)/D10</f>
+        <f t="shared" ref="F10:F12" si="1">(D10-E10)/D10</f>
         <v>0.8125</v>
       </c>
     </row>
@@ -5380,57 +5626,78 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="7">
-        <f>SUM(B2:B11)</f>
-        <v>150</v>
-      </c>
-      <c r="C12" s="7">
-        <f>SUM(C2:C11)</f>
-        <v>7</v>
-      </c>
-      <c r="D12" s="7">
-        <f>SUM(D2:D11)</f>
-        <v>250</v>
-      </c>
-      <c r="E12" s="7">
-        <f>SUM(E2:E11)</f>
-        <v>139</v>
-      </c>
-      <c r="F12" s="8">
-        <f>(D12-E12)/D12</f>
-        <v>0.44400000000000001</v>
+      <c r="A12">
+        <v>2022</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>500</v>
+        <v>54</v>
       </c>
       <c r="B13" s="7">
-        <f>AVERAGE(B2:B11)</f>
-        <v>15</v>
+        <f>SUM(B2:B12)</f>
+        <v>151</v>
       </c>
       <c r="C13" s="7">
-        <f t="shared" ref="C13:E13" si="2">AVERAGE(C2:C11)</f>
-        <v>0.7</v>
+        <f>SUM(C2:C12)</f>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f>SUM(D2:D12)</f>
+        <v>253</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="2"/>
-        <v>13.9</v>
+        <f>SUM(E2:E12)</f>
+        <v>139</v>
       </c>
       <c r="F13" s="8">
         <f>(D13-E13)/D13</f>
-        <v>0.44400000000000001</v>
+        <v>0.45059288537549408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B14" s="7">
+        <f>AVERAGE(B2:B12)</f>
+        <v>13.727272727272727</v>
+      </c>
+      <c r="C14" s="7">
+        <f>AVERAGE(C2:C12)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="D14" s="7">
+        <f>AVERAGE(D2:D12)</f>
+        <v>23</v>
+      </c>
+      <c r="E14" s="7">
+        <f>AVERAGE(E2:E12)</f>
+        <v>12.636363636363637</v>
+      </c>
+      <c r="F14" s="8">
+        <f>(D14-E14)/D14</f>
+        <v>0.45059288537549408</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F11">
+  <conditionalFormatting sqref="F2:F12">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -10407,7 +10674,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4674" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A434E98-17E4-4F50-A1FA-7839AE225198}"/>
+  <xr:revisionPtr revIDLastSave="4692" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B876EDE-1148-4024-BB98-133305E6F44A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="552">
   <si>
     <t>Semifinal</t>
   </si>
@@ -297,9 +297,6 @@
     <t>Kiki Bertens (NETHERLANDS)</t>
   </si>
   <si>
-    <t>Daria Gavrilova (AUSTRALIA)</t>
-  </si>
-  <si>
     <t>Alizé Cornet (FRANCE)</t>
   </si>
   <si>
@@ -1696,6 +1693,15 @@
   </si>
   <si>
     <t>María Camila Osorio Serrano (COLOMBIA)</t>
+  </si>
+  <si>
+    <t>Amanda Anisimova (USA)</t>
+  </si>
+  <si>
+    <t>Dasha Saville (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>4-6 6-3 7-6(10-5)</t>
   </si>
 </sst>
 </file>
@@ -2061,7 +2067,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2175,7 +2181,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2698,7 +2704,7 @@
                   <c:v>0.6470588235294118</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4113,7 +4119,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{19217ED7-D348-4912-8EF1-9C9315DBB27E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4124,8 +4130,8 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="9525"/>
-    <xdr:ext cx="8582025" cy="5829300"/>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4525,7 +4531,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -4534,7 +4540,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>20</v>
@@ -4545,7 +4551,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -4554,7 +4560,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -4568,7 +4574,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>20</v>
@@ -4579,7 +4585,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -4588,7 +4594,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
@@ -4602,7 +4608,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>20</v>
@@ -4613,7 +4619,7 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -4622,13 +4628,13 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
         <v>212</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>213</v>
       </c>
       <c r="G10" s="10"/>
     </row>
@@ -4637,19 +4643,19 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G11" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -4658,7 +4664,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
@@ -4672,7 +4678,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -4687,13 +4693,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
         <v>113</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4701,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>20</v>
@@ -4712,7 +4718,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -4721,7 +4727,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
@@ -4735,18 +4741,18 @@
         <v>3</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -4755,13 +4761,13 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
         <v>219</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4814,7 +4820,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>19</v>
@@ -4823,7 +4829,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
@@ -4837,13 +4843,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4851,13 +4857,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4865,13 +4871,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4885,7 +4891,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
@@ -4899,7 +4905,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
@@ -4913,7 +4919,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
@@ -4927,13 +4933,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4941,7 +4947,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
@@ -4955,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
@@ -4969,7 +4975,7 @@
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
@@ -4989,7 +4995,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
@@ -5003,13 +5009,13 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
+        <v>489</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
         <v>490</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5017,7 +5023,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
@@ -5031,7 +5037,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>20</v>
@@ -5042,7 +5048,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -5051,13 +5057,13 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5065,18 +5071,18 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -5085,13 +5091,13 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5105,13 +5111,13 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
+        <v>492</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
         <v>493</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5119,18 +5125,18 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
@@ -5139,7 +5145,7 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>21</v>
@@ -5153,7 +5159,7 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>20</v>
@@ -5164,7 +5170,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -5173,13 +5179,13 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5187,13 +5193,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
+        <v>500</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
         <v>501</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5207,13 +5213,13 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5221,13 +5227,13 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5235,13 +5241,13 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
+        <v>541</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
         <v>542</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" t="s">
-        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -5256,20 +5262,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5294,7 +5300,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>19</v>
@@ -5303,13 +5309,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5317,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
@@ -5331,13 +5337,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5345,13 +5351,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5365,7 +5371,41 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
+        <v>548</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>549</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -5382,7 +5422,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5397,22 +5437,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5630,20 +5670,20 @@
         <v>2022</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5652,7 +5692,7 @@
       </c>
       <c r="B13" s="7">
         <f>SUM(B2:B12)</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" s="7">
         <f>SUM(C2:C12)</f>
@@ -5660,24 +5700,24 @@
       </c>
       <c r="D13" s="7">
         <f>SUM(D2:D12)</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E13" s="7">
         <f>SUM(E2:E12)</f>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F13" s="8">
         <f>(D13-E13)/D13</f>
-        <v>0.45059288537549408</v>
+        <v>0.45098039215686275</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B14" s="7">
         <f>AVERAGE(B2:B12)</f>
-        <v>13.727272727272727</v>
+        <v>13.818181818181818</v>
       </c>
       <c r="C14" s="7">
         <f>AVERAGE(C2:C12)</f>
@@ -5685,15 +5725,15 @@
       </c>
       <c r="D14" s="7">
         <f>AVERAGE(D2:D12)</f>
-        <v>23</v>
+        <v>23.181818181818183</v>
       </c>
       <c r="E14" s="7">
         <f>AVERAGE(E2:E12)</f>
-        <v>12.636363636363637</v>
+        <v>12.727272727272727</v>
       </c>
       <c r="F14" s="8">
         <f>(D14-E14)/D14</f>
-        <v>0.45059288537549408</v>
+        <v>0.45098039215686281</v>
       </c>
     </row>
   </sheetData>
@@ -5754,7 +5794,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -5763,7 +5803,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>20</v>
@@ -5774,7 +5814,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -5783,13 +5823,13 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5797,13 +5837,13 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5811,7 +5851,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
@@ -5822,7 +5862,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -5831,13 +5871,13 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5845,13 +5885,13 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5859,7 +5899,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
@@ -5873,7 +5913,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>20</v>
@@ -5885,7 +5925,7 @@
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -5894,13 +5934,13 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5908,18 +5948,18 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -5928,7 +5968,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
@@ -5942,13 +5982,13 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5956,18 +5996,18 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -5976,18 +6016,18 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
+        <v>235</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
         <v>236</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -5996,13 +6036,13 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -6010,7 +6050,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
@@ -6024,7 +6064,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>21</v>
@@ -6038,13 +6078,13 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6052,13 +6092,13 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6066,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
@@ -6080,7 +6120,7 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>20</v>
@@ -6091,7 +6131,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -6100,7 +6140,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>20</v>
@@ -6111,7 +6151,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
@@ -6120,13 +6160,13 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6134,21 +6174,21 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
@@ -6162,7 +6202,7 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
@@ -6176,7 +6216,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>20</v>
@@ -6187,7 +6227,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -6196,7 +6236,7 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>20</v>
@@ -6207,7 +6247,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -6216,7 +6256,7 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>20</v>
@@ -6227,7 +6267,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -6236,7 +6276,7 @@
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>21</v>
@@ -6250,7 +6290,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>21</v>
@@ -6261,10 +6301,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
@@ -6278,13 +6318,13 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
         <v>256</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6292,7 +6332,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>20</v>
@@ -6303,7 +6343,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
@@ -6312,13 +6352,13 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6326,18 +6366,18 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
@@ -6346,18 +6386,18 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -6366,7 +6406,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>21</v>
@@ -6380,7 +6420,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
@@ -6394,7 +6434,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>20</v>
@@ -6453,7 +6493,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -6462,7 +6502,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
@@ -6476,7 +6516,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>20</v>
@@ -6487,7 +6527,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -6496,13 +6536,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6510,7 +6550,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
@@ -6521,7 +6561,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -6530,7 +6570,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
@@ -6544,7 +6584,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
@@ -6555,16 +6595,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6572,18 +6612,18 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>272</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -6592,7 +6632,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>20</v>
@@ -6603,7 +6643,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -6612,13 +6652,13 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6626,13 +6666,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6640,7 +6680,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
@@ -6654,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
@@ -6668,18 +6708,18 @@
         <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -6688,7 +6728,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>20</v>
@@ -6699,7 +6739,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -6708,18 +6748,18 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -6728,7 +6768,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>20</v>
@@ -6739,7 +6779,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
@@ -6748,7 +6788,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
@@ -6762,13 +6802,13 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
+        <v>282</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
         <v>283</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6776,7 +6816,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>20</v>
@@ -6787,7 +6827,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -6796,18 +6836,18 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
+        <v>284</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
         <v>285</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -6816,13 +6856,13 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
+        <v>287</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
         <v>288</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6830,13 +6870,13 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6844,13 +6884,13 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6858,7 +6898,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>20</v>
@@ -6869,7 +6909,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
@@ -6878,7 +6918,7 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>20</v>
@@ -6889,7 +6929,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -6898,13 +6938,13 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -6923,7 +6963,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B43" t="s">
         <v>19</v>
@@ -6932,18 +6972,18 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
+        <v>294</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
         <v>295</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -6952,7 +6992,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>20</v>
@@ -7029,7 +7069,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -7038,13 +7078,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7052,7 +7092,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
@@ -7066,7 +7106,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>20</v>
@@ -7077,7 +7117,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -7086,13 +7126,13 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>301</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7106,7 +7146,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7114,18 +7154,18 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -7134,7 +7174,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>20</v>
@@ -7145,7 +7185,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -7154,13 +7194,13 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7168,27 +7208,27 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7196,13 +7236,13 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
         <v>307</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7210,7 +7250,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>20</v>
@@ -7221,7 +7261,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -7230,7 +7270,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
@@ -7244,18 +7284,18 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -7264,7 +7304,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>20</v>
@@ -7275,7 +7315,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -7284,13 +7324,13 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -7298,13 +7338,13 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7312,7 +7352,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>21</v>
@@ -7326,13 +7366,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -7340,18 +7380,18 @@
         <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -7360,7 +7400,7 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
@@ -7374,7 +7414,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>21</v>
@@ -7388,18 +7428,18 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
@@ -7408,7 +7448,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>21</v>
@@ -7422,13 +7462,13 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7436,13 +7476,13 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -7450,13 +7490,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -7464,13 +7504,13 @@
         <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7484,18 +7524,18 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
+        <v>328</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
         <v>329</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
@@ -7504,18 +7544,18 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
+        <v>330</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
         <v>331</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s">
         <v>19</v>
@@ -7524,18 +7564,18 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
+        <v>332</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
         <v>333</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -7544,7 +7584,7 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
@@ -7558,7 +7598,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>20</v>
@@ -7578,13 +7618,13 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
+        <v>336</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" t="s">
         <v>337</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7592,7 +7632,7 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>20</v>
@@ -7603,7 +7643,7 @@
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
@@ -7612,7 +7652,7 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>21</v>
@@ -7626,7 +7666,7 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>21</v>
@@ -7637,16 +7677,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D53" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7654,18 +7694,18 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
@@ -7680,12 +7720,12 @@
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
@@ -7694,13 +7734,13 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -7708,13 +7748,13 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -7722,13 +7762,13 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -7736,13 +7776,13 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -7750,18 +7790,18 @@
         <v>48</v>
       </c>
       <c r="D62" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F62" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
@@ -7770,13 +7810,13 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
@@ -7784,7 +7824,7 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>21</v>
@@ -7798,7 +7838,7 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>21</v>
@@ -7812,13 +7852,13 @@
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -7835,8 +7875,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7880,7 +7920,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
@@ -7894,7 +7934,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
@@ -7905,21 +7945,21 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>354</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -7928,13 +7968,13 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7942,21 +7982,21 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
@@ -7970,13 +8010,13 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7984,13 +8024,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8004,7 +8044,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
@@ -8018,21 +8058,21 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
+        <v>361</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
         <v>362</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -8046,7 +8086,7 @@
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
@@ -8085,7 +8125,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -8094,18 +8134,18 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -8128,13 +8168,13 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
+        <v>365</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
         <v>366</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8153,7 +8193,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -8162,13 +8202,13 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8196,13 +8236,13 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8210,7 +8250,7 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
@@ -8224,18 +8264,18 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -8244,7 +8284,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
@@ -8258,13 +8298,13 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8272,18 +8312,18 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -8292,7 +8332,7 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>20</v>
@@ -8303,7 +8343,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -8312,13 +8352,13 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -8326,13 +8366,13 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -8346,7 +8386,7 @@
         <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>21</v>
@@ -8360,7 +8400,7 @@
         <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>21</v>
@@ -8380,12 +8420,12 @@
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
@@ -8394,13 +8434,13 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -8408,18 +8448,18 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
@@ -8428,18 +8468,18 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
+        <v>379</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
         <v>380</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -8448,18 +8488,18 @@
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s">
         <v>34</v>
@@ -8468,7 +8508,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>21</v>
@@ -8482,7 +8522,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>21</v>
@@ -8496,7 +8536,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>20</v>
@@ -8507,7 +8547,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
@@ -8530,7 +8570,7 @@
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>550</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>20</v>
@@ -8541,7 +8581,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
@@ -8550,7 +8590,7 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>20</v>
@@ -8570,13 +8610,13 @@
         <v>28</v>
       </c>
       <c r="D61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -8584,13 +8624,13 @@
         <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -8598,18 +8638,18 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
@@ -8618,7 +8658,7 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>21</v>
@@ -8632,7 +8672,7 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>20</v>
@@ -8643,7 +8683,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B68" t="s">
         <v>19</v>
@@ -8652,7 +8692,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>21</v>
@@ -8680,13 +8720,13 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -8700,7 +8740,7 @@
         <v>21</v>
       </c>
       <c r="F71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -8708,7 +8748,7 @@
         <v>48</v>
       </c>
       <c r="D72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>20</v>
@@ -8719,7 +8759,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
@@ -8728,7 +8768,7 @@
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>20</v>
@@ -8739,7 +8779,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
@@ -8748,7 +8788,7 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>21</v>
@@ -8768,7 +8808,7 @@
         <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -8776,13 +8816,13 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -8835,7 +8875,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>19</v>
@@ -8844,7 +8884,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
@@ -8866,7 +8906,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8876,13 +8916,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8904,13 +8944,13 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8918,7 +8958,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>20</v>
@@ -8929,7 +8969,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -8938,7 +8978,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
@@ -8952,7 +8992,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>20</v>
@@ -8963,7 +9003,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -8972,7 +9012,7 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
@@ -8986,7 +9026,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
@@ -9000,7 +9040,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>20</v>
@@ -9020,7 +9060,7 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
@@ -9040,12 +9080,12 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -9054,13 +9094,13 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9068,7 +9108,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
@@ -9082,7 +9122,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>20</v>
@@ -9093,7 +9133,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -9102,13 +9142,13 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9116,27 +9156,27 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9144,18 +9184,18 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -9175,7 +9215,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
@@ -9184,7 +9224,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>20</v>
@@ -9204,7 +9244,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>20</v>
@@ -9215,7 +9255,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -9224,7 +9264,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>20</v>
@@ -9235,7 +9275,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
@@ -9244,13 +9284,13 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -9258,7 +9298,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>20</v>
@@ -9269,7 +9309,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
@@ -9278,13 +9318,13 @@
         <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -9292,13 +9332,13 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -9312,13 +9352,13 @@
         <v>28</v>
       </c>
       <c r="D42" t="s">
+        <v>410</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" t="s">
         <v>411</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -9332,7 +9372,7 @@
         <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -9351,7 +9391,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
@@ -9360,7 +9400,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>20</v>
@@ -9371,7 +9411,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
@@ -9380,7 +9420,7 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>21</v>
@@ -9394,13 +9434,13 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -9408,13 +9448,13 @@
         <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -9422,7 +9462,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>21</v>
@@ -9442,7 +9482,7 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -9470,13 +9510,13 @@
         <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -9490,12 +9530,12 @@
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
@@ -9504,7 +9544,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>20</v>
@@ -9515,7 +9555,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
@@ -9535,7 +9575,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
         <v>19</v>
@@ -9544,18 +9584,18 @@
         <v>29</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
@@ -9575,7 +9615,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -9584,7 +9624,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>21</v>
@@ -9604,7 +9644,7 @@
         <v>21</v>
       </c>
       <c r="F67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9612,7 +9652,7 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>20</v>
@@ -9671,7 +9711,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>19</v>
@@ -9680,7 +9720,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>20</v>
@@ -9703,13 +9743,13 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9717,13 +9757,13 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9731,7 +9771,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
@@ -9756,7 +9796,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -9765,7 +9805,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
@@ -9779,7 +9819,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
@@ -9793,7 +9833,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
@@ -9807,18 +9847,18 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -9841,13 +9881,13 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9866,7 +9906,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -9889,7 +9929,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
@@ -9903,7 +9943,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
@@ -9917,13 +9957,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -9959,7 +9999,7 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>21</v>
@@ -9979,7 +10019,7 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>21</v>
@@ -10004,7 +10044,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -10013,7 +10053,7 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
@@ -10033,7 +10073,7 @@
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -10047,12 +10087,12 @@
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -10061,18 +10101,18 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
@@ -10106,7 +10146,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -10115,7 +10155,7 @@
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>21</v>
@@ -10143,18 +10183,18 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
@@ -10163,13 +10203,13 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
+        <v>432</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" t="s">
         <v>433</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10177,7 +10217,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>21</v>
@@ -10191,13 +10231,13 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -10205,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>20</v>
@@ -10216,7 +10256,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
         <v>39</v>
@@ -10225,7 +10265,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>21</v>
@@ -10239,13 +10279,13 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
+        <v>435</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
         <v>436</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -10259,13 +10299,13 @@
         <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -10273,7 +10313,7 @@
         <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>21</v>
@@ -10298,7 +10338,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
@@ -10307,13 +10347,13 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -10321,13 +10361,13 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
+        <v>440</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
         <v>441</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -10341,13 +10381,13 @@
         <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -10361,13 +10401,13 @@
         <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -10395,7 +10435,7 @@
         <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>21</v>
@@ -10409,7 +10449,7 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>21</v>
@@ -10423,13 +10463,13 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -10437,7 +10477,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>21</v>
@@ -10451,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>21</v>
@@ -10465,7 +10505,7 @@
         <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>21</v>
@@ -10476,7 +10516,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B69" t="s">
         <v>19</v>
@@ -10538,7 +10578,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
@@ -10561,7 +10601,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>21</v>
@@ -10589,13 +10629,13 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -10603,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>20</v>
@@ -10614,13 +10654,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B80" t="s">
         <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D80" t="s">
         <v>82</v>
@@ -10629,12 +10669,12 @@
         <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D81" t="s">
         <v>67</v>
@@ -10643,12 +10683,12 @@
         <v>20</v>
       </c>
       <c r="F81" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D82" t="s">
         <v>70</v>
@@ -10657,7 +10697,7 @@
         <v>20</v>
       </c>
       <c r="F82" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -10674,7 +10714,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -10719,7 +10759,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
@@ -10735,13 +10775,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -10751,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>20</v>
@@ -10777,7 +10817,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
@@ -10793,7 +10833,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
@@ -10809,13 +10849,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -10825,13 +10865,13 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -10847,7 +10887,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -10863,7 +10903,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -10879,7 +10919,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -10890,7 +10930,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -10910,7 +10950,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -10933,7 +10973,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
@@ -10947,7 +10987,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>20</v>
@@ -10967,13 +11007,13 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
+        <v>451</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
         <v>452</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -10981,18 +11021,18 @@
         <v>4</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -11001,7 +11041,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
@@ -11015,13 +11055,13 @@
         <v>2</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -11029,18 +11069,18 @@
         <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -11055,7 +11095,7 @@
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -11063,13 +11103,13 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -11077,7 +11117,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
@@ -11091,18 +11131,18 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -11125,7 +11165,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>21</v>
@@ -11142,10 +11182,10 @@
         <v>82</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -11159,13 +11199,13 @@
         <v>28</v>
       </c>
       <c r="D36" t="s">
+        <v>459</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
         <v>460</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -11179,7 +11219,7 @@
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -11187,7 +11227,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>20</v>
@@ -11198,7 +11238,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
@@ -11207,13 +11247,13 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -11221,7 +11261,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>20</v>
@@ -11241,18 +11281,18 @@
         <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -11261,13 +11301,13 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -11275,13 +11315,13 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
+        <v>464</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
         <v>465</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -11289,7 +11329,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>20</v>
@@ -11300,7 +11340,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
@@ -11309,13 +11349,13 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -11323,13 +11363,13 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -11337,13 +11377,13 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -11357,21 +11397,21 @@
         <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D54" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>21</v>
@@ -11385,7 +11425,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>21</v>
@@ -11399,7 +11439,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>20</v>
@@ -11410,7 +11450,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
@@ -11419,7 +11459,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>21</v>
@@ -11433,7 +11473,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>21</v>
@@ -11447,13 +11487,13 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -11461,7 +11501,7 @@
         <v>48</v>
       </c>
       <c r="D61" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>21</v>
@@ -11472,7 +11512,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
@@ -11481,13 +11521,13 @@
         <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -11495,7 +11535,7 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>21</v>
@@ -11509,7 +11549,7 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>21</v>
@@ -11523,13 +11563,13 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -11537,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>21</v>
@@ -11551,24 +11591,24 @@
         <v>48</v>
       </c>
       <c r="D68" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D70" t="s">
         <v>58</v>
@@ -11577,7 +11617,7 @@
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -11593,7 +11633,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -11638,13 +11678,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11654,13 +11694,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -11676,7 +11716,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11692,7 +11732,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11714,7 +11754,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
@@ -11728,7 +11768,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
@@ -11742,7 +11782,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
@@ -11753,13 +11793,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>20</v>
@@ -11770,7 +11810,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>19</v>
@@ -11779,13 +11819,13 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -11793,7 +11833,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -11807,13 +11847,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -11821,13 +11861,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -11838,10 +11878,10 @@
         <v>56</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -11855,13 +11895,13 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11883,13 +11923,13 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11897,7 +11937,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
@@ -11911,7 +11951,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
@@ -11925,13 +11965,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -11945,7 +11985,7 @@
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4692" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B876EDE-1148-4024-BB98-133305E6F44A}"/>
+  <xr:revisionPtr revIDLastSave="4750" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEF2D4C0-B7D4-4571-A57B-48C3F6F48BBF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="553">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1692,9 +1692,6 @@
     <t>Maryna Zanevska (BELGIUM)</t>
   </si>
   <si>
-    <t>María Camila Osorio Serrano (COLOMBIA)</t>
-  </si>
-  <si>
     <t>Amanda Anisimova (USA)</t>
   </si>
   <si>
@@ -1702,6 +1699,12 @@
   </si>
   <si>
     <t>4-6 6-3 7-6(10-5)</t>
+  </si>
+  <si>
+    <t>Camila Osorio (COLOMBIA)</t>
+  </si>
+  <si>
+    <t>Astra Sharma (AUSTRALIA)</t>
   </si>
 </sst>
 </file>
@@ -2067,7 +2070,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,7 +2184,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2704,7 +2707,7 @@
                   <c:v>0.6470588235294118</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.8</c:v>
+                  <c:v>0.72727272727272729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4119,7 +4122,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{19217ED7-D348-4912-8EF1-9C9315DBB27E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4784,8 +4787,8 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5262,10 +5265,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" activeCellId="4" sqref="A2 A7 A11 A14 A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5273,7 +5276,7 @@
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5371,7 +5374,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
@@ -5399,13 +5402,159 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>551</v>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>543</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>545</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>552</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>464</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5421,8 +5570,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5670,20 +5819,20 @@
         <v>2022</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5692,7 +5841,7 @@
       </c>
       <c r="B13" s="7">
         <f>SUM(B2:B12)</f>
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C13" s="7">
         <f>SUM(C2:C12)</f>
@@ -5700,15 +5849,15 @@
       </c>
       <c r="D13" s="7">
         <f>SUM(D2:D12)</f>
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E13" s="7">
         <f>SUM(E2:E12)</f>
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F13" s="8">
         <f>(D13-E13)/D13</f>
-        <v>0.45098039215686275</v>
+        <v>0.45593869731800768</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5717,7 +5866,7 @@
       </c>
       <c r="B14" s="7">
         <f>AVERAGE(B2:B12)</f>
-        <v>13.818181818181818</v>
+        <v>14.090909090909092</v>
       </c>
       <c r="C14" s="7">
         <f>AVERAGE(C2:C12)</f>
@@ -5725,15 +5874,15 @@
       </c>
       <c r="D14" s="7">
         <f>AVERAGE(D2:D12)</f>
-        <v>23.181818181818183</v>
+        <v>23.727272727272727</v>
       </c>
       <c r="E14" s="7">
         <f>AVERAGE(E2:E12)</f>
-        <v>12.727272727272727</v>
+        <v>12.909090909090908</v>
       </c>
       <c r="F14" s="8">
         <f>(D14-E14)/D14</f>
-        <v>0.45098039215686281</v>
+        <v>0.45593869731800768</v>
       </c>
     </row>
   </sheetData>
@@ -7034,7 +7183,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A52" sqref="A1:XFD1048576"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8570,7 +8719,7 @@
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>20</v>
@@ -8839,7 +8988,7 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -9675,7 +9824,7 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -10714,8 +10863,8 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11633,7 +11782,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4750" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEF2D4C0-B7D4-4571-A57B-48C3F6F48BBF}"/>
+  <xr:revisionPtr revIDLastSave="4757" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC675250-D6B5-4D88-923D-306D58F1EFBB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="554">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1705,6 +1705,9 @@
   </si>
   <si>
     <t>Astra Sharma (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Anatasia Potapova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -2070,7 +2073,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2707,7 +2710,7 @@
                   <c:v>0.6470588235294118</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72727272727272729</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5265,10 +5268,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" activeCellId="4" sqref="A2 A7 A11 A14 A22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" activeCellId="5" sqref="E2:E4 E7:E8 E11 E14:E15 E17:E19 E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5556,6 +5559,26 @@
       <c r="B22" t="s">
         <v>34</v>
       </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>553</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>410</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5571,7 +5594,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5825,14 +5848,14 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>0.72727272727272729</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5849,7 +5872,7 @@
       </c>
       <c r="D13" s="7">
         <f>SUM(D2:D12)</f>
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E13" s="7">
         <f>SUM(E2:E12)</f>
@@ -5857,7 +5880,7 @@
       </c>
       <c r="F13" s="8">
         <f>(D13-E13)/D13</f>
-        <v>0.45593869731800768</v>
+        <v>0.4580152671755725</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5874,7 +5897,7 @@
       </c>
       <c r="D14" s="7">
         <f>AVERAGE(D2:D12)</f>
-        <v>23.727272727272727</v>
+        <v>23.818181818181817</v>
       </c>
       <c r="E14" s="7">
         <f>AVERAGE(E2:E12)</f>
@@ -5882,7 +5905,7 @@
       </c>
       <c r="F14" s="8">
         <f>(D14-E14)/D14</f>
-        <v>0.45593869731800768</v>
+        <v>0.4580152671755725</v>
       </c>
     </row>
   </sheetData>
@@ -11783,7 +11806,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4757" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC675250-D6B5-4D88-923D-306D58F1EFBB}"/>
+  <xr:revisionPtr revIDLastSave="4760" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1410DE58-639F-4AF8-8913-E90B1A45C539}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="554">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2187,7 +2187,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2710,7 +2710,7 @@
                   <c:v>0.6470588235294118</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.75</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5271,7 +5271,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" activeCellId="5" sqref="E2:E4 E7:E8 E11 E14:E15 E17:E19 E22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5579,6 +5579,12 @@
       <c r="D23" t="s">
         <v>410</v>
       </c>
+      <c r="E23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5594,7 +5600,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5851,11 +5857,11 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5876,11 +5882,11 @@
       </c>
       <c r="E13" s="7">
         <f>SUM(E2:E12)</f>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F13" s="8">
         <f>(D13-E13)/D13</f>
-        <v>0.4580152671755725</v>
+        <v>0.45419847328244273</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5901,11 +5907,11 @@
       </c>
       <c r="E14" s="7">
         <f>AVERAGE(E2:E12)</f>
-        <v>12.909090909090908</v>
+        <v>13</v>
       </c>
       <c r="F14" s="8">
         <f>(D14-E14)/D14</f>
-        <v>0.4580152671755725</v>
+        <v>0.45419847328244273</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4760" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1410DE58-639F-4AF8-8913-E90B1A45C539}"/>
+  <xr:revisionPtr revIDLastSave="4767" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22F90712-F248-4A07-81A8-0D20A626B6ED}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="554">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2187,7 +2187,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2710,7 +2710,7 @@
                   <c:v>0.6470588235294118</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.58333333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5268,10 +5268,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" activeCellId="4" sqref="E9 E12 E20 E23 E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5586,6 +5586,26 @@
         <v>23</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>548</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -5600,7 +5620,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5857,11 +5877,11 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5882,11 +5902,11 @@
       </c>
       <c r="E13" s="7">
         <f>SUM(E2:E12)</f>
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F13" s="8">
         <f>(D13-E13)/D13</f>
-        <v>0.45419847328244273</v>
+        <v>0.45038167938931295</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5907,11 +5927,11 @@
       </c>
       <c r="E14" s="7">
         <f>AVERAGE(E2:E12)</f>
-        <v>13</v>
+        <v>13.090909090909092</v>
       </c>
       <c r="F14" s="8">
         <f>(D14-E14)/D14</f>
-        <v>0.45419847328244273</v>
+        <v>0.45038167938931289</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4767" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22F90712-F248-4A07-81A8-0D20A626B6ED}"/>
+  <xr:revisionPtr revIDLastSave="4818" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{562649D9-912B-4745-B95E-5E77CA5C53BC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="561">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1708,6 +1708,27 @@
   </si>
   <si>
     <t>Anatasia Potapova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>SILICON VALLEY CLASSIC</t>
+  </si>
+  <si>
+    <t>Qinwen Zheng (CHINA)</t>
+  </si>
+  <si>
+    <t>CANADIAN OPEN</t>
+  </si>
+  <si>
+    <t>7-6(4) 3-0 RETIRED</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-3</t>
+  </si>
+  <si>
+    <t>JAPAN OPEN</t>
+  </si>
+  <si>
+    <t>1-0 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -1796,17 +1817,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -2073,7 +2092,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2187,7 +2206,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2710,7 +2729,7 @@
                   <c:v>0.6470588235294118</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.35714285714285715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4642,7 +4661,7 @@
       <c r="F10" t="s">
         <v>212</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -4657,7 +4676,7 @@
       <c r="F11" t="s">
         <v>147</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4692,7 +4711,7 @@
       <c r="F14" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
@@ -4746,13 +4765,13 @@
       <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" t="s">
         <v>216</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4791,7 +4810,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4825,10 +4844,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>484</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
@@ -5268,10 +5287,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" activeCellId="4" sqref="E9 E12 E20 E23 E25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E36" activeCellId="7" sqref="E2:E4 E7:E8 E11 E14:E15 E17:E19 E22 E27 E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5281,7 +5300,7 @@
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5305,10 +5324,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>544</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
@@ -5604,6 +5623,134 @@
       </c>
       <c r="F25" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>554</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>555</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>470</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>556</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>505</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>559</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>549</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>304</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F37" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -5620,7 +5767,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5868,70 +6015,70 @@
         <v>2022</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>0.58333333333333337</v>
+        <v>0.35714285714285715</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <f>SUM(B2:B12)</f>
-        <v>155</v>
-      </c>
-      <c r="C13" s="7">
+        <v>161</v>
+      </c>
+      <c r="C13" s="6">
         <f>SUM(C2:C12)</f>
         <v>7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f>SUM(D2:D12)</f>
-        <v>262</v>
-      </c>
-      <c r="E13" s="7">
+        <v>264</v>
+      </c>
+      <c r="E13" s="6">
         <f>SUM(E2:E12)</f>
-        <v>144</v>
-      </c>
-      <c r="F13" s="8">
+        <v>148</v>
+      </c>
+      <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.45038167938931295</v>
+        <v>0.43939393939393939</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <f>AVERAGE(B2:B12)</f>
-        <v>14.090909090909092</v>
-      </c>
-      <c r="C14" s="7">
+        <v>14.636363636363637</v>
+      </c>
+      <c r="C14" s="6">
         <f>AVERAGE(C2:C12)</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f>AVERAGE(D2:D12)</f>
-        <v>23.818181818181817</v>
-      </c>
-      <c r="E14" s="7">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6">
         <f>AVERAGE(E2:E12)</f>
-        <v>13.090909090909092</v>
-      </c>
-      <c r="F14" s="8">
+        <v>13.454545454545455</v>
+      </c>
+      <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.45038167938931289</v>
+        <v>0.43939393939393939</v>
       </c>
     </row>
   </sheetData>
@@ -9072,22 +9219,22 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>394</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>145</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9097,13 +9244,13 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>490</v>
       </c>
     </row>
@@ -9113,13 +9260,13 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>162</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>395</v>
       </c>
     </row>
@@ -9186,7 +9333,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
@@ -9234,7 +9381,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="6" t="s">
+      <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
@@ -9302,7 +9449,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
+      <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
@@ -9378,7 +9525,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="6" t="s">
+      <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
@@ -9401,13 +9548,13 @@
       <c r="C28" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" t="s">
         <v>77</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9418,16 +9565,16 @@
       <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" t="s">
         <v>406</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -9438,7 +9585,7 @@
       <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
@@ -9458,7 +9605,7 @@
       <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
@@ -9478,7 +9625,7 @@
       <c r="B36" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
@@ -9526,7 +9673,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="6" t="s">
+      <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
@@ -9560,7 +9707,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="6" t="s">
+      <c r="C43" t="s">
         <v>29</v>
       </c>
       <c r="D43" t="s">
@@ -9594,7 +9741,7 @@
       <c r="B46" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" t="s">
         <v>4</v>
       </c>
       <c r="D46" t="s">
@@ -9642,7 +9789,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="6" t="s">
+      <c r="C50" t="s">
         <v>29</v>
       </c>
       <c r="D50" t="s">
@@ -9704,7 +9851,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="6" t="s">
+      <c r="C55" t="s">
         <v>29</v>
       </c>
       <c r="D55" t="s">
@@ -9778,16 +9925,16 @@
       <c r="B62" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" t="s">
         <v>94</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" t="s">
         <v>421</v>
       </c>
     </row>
@@ -9798,7 +9945,7 @@
       <c r="B64" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" t="s">
         <v>29</v>
       </c>
       <c r="D64" t="s">
@@ -9908,22 +10055,22 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>197</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -10947,13 +11094,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
@@ -10962,14 +11109,14 @@
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -10978,31 +11125,29 @@
       <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>128</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
-      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -11011,55 +11156,55 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>449</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>450</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>186</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="s">
@@ -11068,14 +11213,14 @@
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
@@ -11084,14 +11229,14 @@
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" t="s">
@@ -11100,14 +11245,14 @@
       <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="6" t="s">
+      <c r="C12" t="s">
         <v>48</v>
       </c>
       <c r="D12" t="s">
@@ -11116,15 +11261,13 @@
       <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
-      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -11133,7 +11276,7 @@
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
@@ -11153,7 +11296,7 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16" t="s">
@@ -11167,7 +11310,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
@@ -11181,7 +11324,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
+      <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="D18" t="s">
@@ -11218,7 +11361,7 @@
       <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" t="s">
         <v>186</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -11235,44 +11378,44 @@
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" t="s">
         <v>186</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="6" t="s">
+      <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>194</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="6" t="s">
+      <c r="C25" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" t="s">
         <v>134</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" t="s">
         <v>490</v>
       </c>
     </row>
@@ -11382,7 +11525,7 @@
       <c r="E34" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" t="s">
         <v>490</v>
       </c>
     </row>
@@ -11866,10 +12009,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
@@ -11881,14 +12024,12 @@
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
@@ -11897,13 +12038,11 @@
       <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -11913,13 +12052,11 @@
       <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11929,7 +12066,7 @@
       <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" t="s">
         <v>477</v>
       </c>
     </row>
@@ -11945,7 +12082,7 @@
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
@@ -11957,7 +12094,7 @@
       <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11993,7 +12130,7 @@
       <c r="A11" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
@@ -12010,7 +12147,7 @@
       <c r="A13" t="s">
         <v>505</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
@@ -12027,7 +12164,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="6" t="s">
+      <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
@@ -12131,7 +12268,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="6" t="s">
+      <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="D22" t="s">

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4818" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{562649D9-912B-4745-B95E-5E77CA5C53BC}"/>
+  <xr:revisionPtr revIDLastSave="4821" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E849B0BE-BC8B-4239-B487-479A7627B252}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="2021" sheetId="28" r:id="rId10"/>
     <sheet name="2022" sheetId="34" r:id="rId11"/>
     <sheet name="YTD Stats" sheetId="1" r:id="rId12"/>
-    <sheet name="YTD Wins-Losses" sheetId="35" r:id="rId13"/>
+    <sheet name="Wins-Losses" sheetId="35" r:id="rId13"/>
     <sheet name="Winning Percentile Range" sheetId="36" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1947,7 +1947,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Osaka (JAPAN): YTD Wins-Losses</a:t>
+              <a:t> Osaka (JAPAN): Wins-Losses</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -4218,6 +4218,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5289,8 +5293,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E36" activeCellId="7" sqref="E2:E4 E7:E8 E11 E14:E15 E17:E19 E22 E27 E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5766,7 +5770,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4821" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E849B0BE-BC8B-4239-B487-479A7627B252}"/>
+  <xr:revisionPtr revIDLastSave="4825" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A34599B-0983-4465-B9C7-39E1DFEAE4F2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="2020" sheetId="27" r:id="rId9"/>
     <sheet name="2021" sheetId="28" r:id="rId10"/>
     <sheet name="2022" sheetId="34" r:id="rId11"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId12"/>
+    <sheet name="Stats" sheetId="1" r:id="rId12"/>
     <sheet name="Wins-Losses" sheetId="35" r:id="rId13"/>
     <sheet name="Winning Percentile Range" sheetId="36" r:id="rId14"/>
   </sheets>
@@ -1994,7 +1994,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2015,7 +2015,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
+              <c:f>Stats!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2057,7 +2057,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$12</c:f>
+              <c:f>Stats!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2108,7 +2108,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2129,7 +2129,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
+              <c:f>Stats!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2171,7 +2171,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$12</c:f>
+              <c:f>Stats!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2603,7 +2603,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2652,7 +2652,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
+              <c:f>Stats!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2694,7 +2694,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$12</c:f>
+              <c:f>Stats!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4144,7 +4144,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{19217ED7-D348-4912-8EF1-9C9315DBB27E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4156,7 +4156,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4189,7 +4189,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4216,10 +4216,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4525,20 +4521,20 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4558,7 +4554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>497</v>
       </c>
@@ -4578,7 +4574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -4598,7 +4594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -4612,7 +4608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>511</v>
       </c>
@@ -4632,7 +4628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -4646,7 +4642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>512</v>
       </c>
@@ -4667,7 +4663,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4682,7 +4678,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>513</v>
       </c>
@@ -4702,7 +4698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -4717,7 +4713,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -4731,7 +4727,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -4745,7 +4741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>514</v>
       </c>
@@ -4765,7 +4761,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4779,7 +4775,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>515</v>
       </c>
@@ -4814,20 +4810,20 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4847,7 +4843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -4867,7 +4863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4881,7 +4877,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -4895,7 +4891,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -4909,7 +4905,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -4929,7 +4925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -4943,7 +4939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -4957,7 +4953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -4971,7 +4967,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -4985,7 +4981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -4999,7 +4995,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -5013,7 +5009,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5033,7 +5029,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5047,7 +5043,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5061,7 +5057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5075,7 +5071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -5095,7 +5091,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5109,7 +5105,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -5129,7 +5125,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5149,7 +5145,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -5163,7 +5159,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>491</v>
       </c>
@@ -5183,7 +5179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -5197,7 +5193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>505</v>
       </c>
@@ -5217,7 +5213,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -5231,7 +5227,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5251,7 +5247,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>29</v>
       </c>
@@ -5265,7 +5261,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -5293,21 +5289,21 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5327,7 +5323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>544</v>
       </c>
@@ -5347,7 +5343,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5361,7 +5357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5375,7 +5371,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5389,7 +5385,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5409,7 +5405,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5423,7 +5419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5437,7 +5433,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>543</v>
       </c>
@@ -5457,7 +5453,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5471,7 +5467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -5491,7 +5487,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -5505,7 +5501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5519,7 +5515,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5533,7 +5529,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5547,7 +5543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5561,7 +5557,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>48</v>
       </c>
@@ -5575,7 +5571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -5595,7 +5591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5609,7 +5605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5629,7 +5625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>554</v>
       </c>
@@ -5649,7 +5645,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5663,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>556</v>
       </c>
@@ -5683,7 +5679,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>505</v>
       </c>
@@ -5703,7 +5699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5723,7 +5719,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>559</v>
       </c>
@@ -5743,7 +5739,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5774,17 +5770,17 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -5804,7 +5800,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -5825,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -5846,7 +5842,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -5867,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -5888,7 +5884,7 @@
         <v>0.41935483870967744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -5909,7 +5905,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -5930,7 +5926,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -5951,7 +5947,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -5972,7 +5968,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -5993,7 +5989,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -6014,7 +6010,7 @@
         <v>0.6470588235294118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -6035,7 +6031,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -6060,7 +6056,7 @@
         <v>0.43939393939393939</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>499</v>
       </c>
@@ -6108,20 +6104,20 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6141,7 +6137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>516</v>
       </c>
@@ -6161,7 +6157,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -6181,7 +6177,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -6195,7 +6191,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -6209,7 +6205,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>517</v>
       </c>
@@ -6229,7 +6225,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6243,7 +6239,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6257,7 +6253,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6271,8 +6267,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>518</v>
       </c>
@@ -6292,7 +6288,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -6306,7 +6302,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>511</v>
       </c>
@@ -6326,7 +6322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -6340,7 +6336,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -6354,7 +6350,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>519</v>
       </c>
@@ -6374,7 +6370,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>520</v>
       </c>
@@ -6394,7 +6390,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -6408,7 +6404,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -6422,7 +6418,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -6436,7 +6432,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -6450,7 +6446,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -6464,7 +6460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -6478,7 +6474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>521</v>
       </c>
@@ -6498,7 +6494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -6518,7 +6514,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -6532,7 +6528,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>123</v>
       </c>
@@ -6546,7 +6542,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -6560,7 +6556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -6574,7 +6570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>522</v>
       </c>
@@ -6594,7 +6590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -6614,7 +6610,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>523</v>
       </c>
@@ -6634,7 +6630,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>6</v>
       </c>
@@ -6648,7 +6644,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>123</v>
       </c>
@@ -6662,7 +6658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -6676,7 +6672,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -6690,7 +6686,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>524</v>
       </c>
@@ -6710,7 +6706,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -6724,7 +6720,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>525</v>
       </c>
@@ -6744,7 +6740,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>527</v>
       </c>
@@ -6764,7 +6760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -6778,7 +6774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -6807,20 +6803,20 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6840,7 +6836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>528</v>
       </c>
@@ -6860,7 +6856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -6874,7 +6870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>529</v>
       </c>
@@ -6894,7 +6890,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -6908,7 +6904,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -6928,7 +6924,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6942,7 +6938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>123</v>
       </c>
@@ -6956,7 +6952,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -6970,7 +6966,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -6990,7 +6986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>530</v>
       </c>
@@ -7010,7 +7006,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7024,7 +7020,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7038,7 +7034,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7052,7 +7048,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>48</v>
       </c>
@@ -7066,7 +7062,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>531</v>
       </c>
@@ -7086,7 +7082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -7106,7 +7102,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>533</v>
       </c>
@@ -7126,7 +7122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>534</v>
       </c>
@@ -7146,7 +7142,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -7160,7 +7156,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -7174,7 +7170,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>520</v>
       </c>
@@ -7194,7 +7190,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -7214,7 +7210,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>6</v>
       </c>
@@ -7228,7 +7224,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7242,7 +7238,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7256,7 +7252,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -7276,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -7296,7 +7292,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -7310,7 +7306,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>535</v>
       </c>
@@ -7330,7 +7326,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>524</v>
       </c>
@@ -7352,20 +7348,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="D27:D29 F25 F27:F29 D31 F31 C25:D25">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C34">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:D38 F38">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29 F25 F27:F29 D31 F31 C25:D25">
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40 F40:F41">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -7383,20 +7379,20 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7416,7 +7412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>509</v>
       </c>
@@ -7436,7 +7432,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7450,7 +7446,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7464,7 +7460,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>510</v>
       </c>
@@ -7484,7 +7480,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -7498,7 +7494,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -7512,7 +7508,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -7532,7 +7528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>536</v>
       </c>
@@ -7552,7 +7548,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -7566,7 +7562,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -7580,7 +7576,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -7594,7 +7590,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7608,7 +7604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -7628,7 +7624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -7642,7 +7638,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -7662,7 +7658,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -7682,7 +7678,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -7696,7 +7692,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -7710,7 +7706,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -7724,7 +7720,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>48</v>
       </c>
@@ -7738,7 +7734,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>537</v>
       </c>
@@ -7758,7 +7754,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -7772,7 +7768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -7786,7 +7782,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>538</v>
       </c>
@@ -7806,7 +7802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7820,7 +7816,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -7834,7 +7830,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -7848,7 +7844,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>48</v>
       </c>
@@ -7862,7 +7858,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -7882,7 +7878,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>507</v>
       </c>
@@ -7902,7 +7898,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>286</v>
       </c>
@@ -7922,7 +7918,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -7942,7 +7938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -7956,7 +7952,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -7976,7 +7972,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -7990,7 +7986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>292</v>
       </c>
@@ -8010,7 +8006,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -8024,7 +8020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>123</v>
       </c>
@@ -8038,7 +8034,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8052,7 +8048,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -8072,7 +8068,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>342</v>
       </c>
@@ -8092,7 +8088,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8106,7 +8102,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8120,7 +8116,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -8134,7 +8130,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>48</v>
       </c>
@@ -8148,7 +8144,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>539</v>
       </c>
@@ -8168,7 +8164,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -8182,7 +8178,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -8196,7 +8192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8225,20 +8221,20 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -8258,7 +8254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -8278,7 +8274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8292,7 +8288,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>123</v>
       </c>
@@ -8306,7 +8302,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -8326,7 +8322,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -8340,7 +8336,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>123</v>
       </c>
@@ -8354,7 +8350,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -8368,7 +8364,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -8382,7 +8378,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -8402,7 +8398,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -8416,7 +8412,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -8430,7 +8426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>28</v>
       </c>
@@ -8444,7 +8440,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -8458,7 +8454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -8472,7 +8468,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>363</v>
       </c>
@@ -8492,7 +8488,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -8512,7 +8508,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -8526,7 +8522,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -8540,7 +8536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>543</v>
       </c>
@@ -8560,7 +8556,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -8574,7 +8570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -8594,7 +8590,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -8608,7 +8604,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -8622,7 +8618,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -8642,7 +8638,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -8656,7 +8652,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -8670,7 +8666,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>371</v>
       </c>
@@ -8690,7 +8686,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>177</v>
       </c>
@@ -8710,7 +8706,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>6</v>
       </c>
@@ -8724,7 +8720,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -8744,7 +8740,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -8758,7 +8754,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -8772,7 +8768,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -8792,7 +8788,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -8806,7 +8802,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -8826,7 +8822,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>506</v>
       </c>
@@ -8846,7 +8842,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>382</v>
       </c>
@@ -8866,7 +8862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -8880,7 +8876,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -8894,7 +8890,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>505</v>
       </c>
@@ -8914,7 +8910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>6</v>
       </c>
@@ -8928,7 +8924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>386</v>
       </c>
@@ -8948,7 +8944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -8968,7 +8964,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -8982,7 +8978,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -8996,7 +8992,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>292</v>
       </c>
@@ -9016,7 +9012,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9030,7 +9026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -9050,7 +9046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9064,7 +9060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9078,7 +9074,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9092,7 +9088,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -9106,7 +9102,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -9126,7 +9122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>392</v>
       </c>
@@ -9146,7 +9142,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -9160,7 +9156,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -9189,20 +9185,20 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -9222,7 +9218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>394</v>
       </c>
@@ -9242,7 +9238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -9258,7 +9254,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -9274,7 +9270,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9282,7 +9278,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -9302,7 +9298,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -9316,7 +9312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -9336,7 +9332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9350,7 +9346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>543</v>
       </c>
@@ -9370,7 +9366,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -9384,7 +9380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -9398,7 +9394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -9418,7 +9414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9432,7 +9428,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -9452,7 +9448,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9466,7 +9462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9480,7 +9476,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -9500,7 +9496,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -9514,7 +9510,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>123</v>
       </c>
@@ -9528,7 +9524,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -9542,7 +9538,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -9562,7 +9558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -9582,7 +9578,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -9602,7 +9598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -9622,7 +9618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -9642,7 +9638,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -9656,7 +9652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -9676,7 +9672,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -9690,7 +9686,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -9710,7 +9706,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -9724,7 +9720,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -9738,7 +9734,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -9758,7 +9754,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>506</v>
       </c>
@@ -9778,7 +9774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -9792,7 +9788,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -9806,7 +9802,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -9820,7 +9816,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -9834,7 +9830,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -9854,7 +9850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>29</v>
       </c>
@@ -9868,7 +9864,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -9882,7 +9878,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -9902,7 +9898,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -9922,7 +9918,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -9942,7 +9938,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -9962,7 +9958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>422</v>
       </c>
@@ -9982,7 +9978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -9996,7 +9992,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -10025,20 +10021,20 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -10058,7 +10054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -10078,10 +10074,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -10101,7 +10097,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -10115,7 +10111,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -10129,7 +10125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -10143,7 +10139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>425</v>
       </c>
@@ -10163,7 +10159,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -10177,7 +10173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -10191,7 +10187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -10205,7 +10201,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -10225,7 +10221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10239,7 +10235,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -10253,7 +10249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>543</v>
       </c>
@@ -10273,7 +10269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -10287,7 +10283,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -10301,7 +10297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -10315,7 +10311,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -10329,7 +10325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -10343,7 +10339,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -10357,7 +10353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10377,7 +10373,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -10391,7 +10387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -10411,7 +10407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -10425,7 +10421,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -10439,7 +10435,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -10459,7 +10455,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -10479,7 +10475,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -10493,7 +10489,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -10513,7 +10509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>29</v>
       </c>
@@ -10527,7 +10523,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -10541,7 +10537,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -10561,7 +10557,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -10575,7 +10571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -10589,7 +10585,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -10603,7 +10599,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -10623,7 +10619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -10637,7 +10633,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -10657,7 +10653,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -10671,7 +10667,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -10685,7 +10681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>438</v>
       </c>
@@ -10705,7 +10701,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -10719,7 +10715,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -10739,7 +10735,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -10759,7 +10755,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -10779,7 +10775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -10793,7 +10789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -10807,7 +10803,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -10821,7 +10817,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -10835,7 +10831,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -10849,7 +10845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -10863,7 +10859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -10883,7 +10879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -10897,7 +10893,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -10911,7 +10907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -10925,7 +10921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -10945,7 +10941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -10959,7 +10955,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -10973,7 +10969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -10987,7 +10983,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -11001,7 +10997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>198</v>
       </c>
@@ -11021,7 +11017,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -11035,7 +11031,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>170</v>
       </c>
@@ -11064,20 +11060,20 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -11097,7 +11093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -11117,7 +11113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -11133,7 +11129,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -11149,11 +11145,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -11173,7 +11169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -11189,7 +11185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
@@ -11205,7 +11201,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
@@ -11221,7 +11217,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
@@ -11237,7 +11233,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
@@ -11253,7 +11249,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
@@ -11269,11 +11265,11 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -11293,7 +11289,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -11313,7 +11309,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11327,7 +11323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -11341,7 +11337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -11361,7 +11357,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -11375,7 +11371,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>371</v>
       </c>
@@ -11395,7 +11391,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -11409,7 +11405,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -11423,7 +11419,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -11443,7 +11439,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -11457,7 +11453,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -11471,7 +11467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -11485,7 +11481,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -11505,7 +11501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -11519,7 +11515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -11533,7 +11529,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -11553,7 +11549,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -11567,7 +11563,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -11581,7 +11577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -11601,7 +11597,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -11615,7 +11611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -11635,7 +11631,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>506</v>
       </c>
@@ -11655,7 +11651,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -11669,7 +11665,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -11683,7 +11679,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>505</v>
       </c>
@@ -11703,7 +11699,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -11717,7 +11713,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -11731,7 +11727,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -11751,7 +11747,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>195</v>
       </c>
@@ -11765,7 +11761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -11779,7 +11775,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -11793,7 +11789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -11813,7 +11809,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -11827,7 +11823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -11841,7 +11837,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>48</v>
       </c>
@@ -11855,7 +11851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -11875,7 +11871,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -11889,7 +11885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -11903,7 +11899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -11917,7 +11913,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -11931,7 +11927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>48</v>
       </c>
@@ -11945,7 +11941,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>198</v>
       </c>
@@ -11979,20 +11975,20 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -12012,7 +12008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -12032,7 +12028,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12046,7 +12042,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12060,7 +12056,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12074,7 +12070,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12082,7 +12078,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -12102,7 +12098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -12116,7 +12112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -12130,7 +12126,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -12147,7 +12143,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>505</v>
       </c>
@@ -12167,7 +12163,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12181,7 +12177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12195,7 +12191,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -12209,7 +12205,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>48</v>
       </c>
@@ -12223,7 +12219,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -12243,7 +12239,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -12257,7 +12253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12271,7 +12267,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -12285,7 +12281,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -12299,7 +12295,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -12313,7 +12309,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>48</v>
       </c>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4825" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A34599B-0983-4465-B9C7-39E1DFEAE4F2}"/>
+  <xr:revisionPtr revIDLastSave="4826" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{777C2C10-EAEA-4A52-B3C2-43DB65E62FF6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -4132,7 +4132,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8F783652-2437-4104-AC4B-B91CE7784D2C}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4189,7 +4189,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4216,6 +4216,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4520,21 +4524,21 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4554,7 +4558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>497</v>
       </c>
@@ -4574,7 +4578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -4594,7 +4598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -4608,7 +4612,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>511</v>
       </c>
@@ -4628,7 +4632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -4642,7 +4646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>512</v>
       </c>
@@ -4663,7 +4667,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4678,7 +4682,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>513</v>
       </c>
@@ -4698,7 +4702,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -4713,7 +4717,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -4727,7 +4731,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -4741,7 +4745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>514</v>
       </c>
@@ -4761,7 +4765,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4775,7 +4779,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>515</v>
       </c>
@@ -4809,21 +4813,21 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4843,7 +4847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -4863,7 +4867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4877,7 +4881,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -4891,7 +4895,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -4905,7 +4909,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -4925,7 +4929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -4939,7 +4943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -4953,7 +4957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -4967,7 +4971,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -4981,7 +4985,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -4995,7 +4999,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -5009,7 +5013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5029,7 +5033,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5043,7 +5047,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5057,7 +5061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5071,7 +5075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -5091,7 +5095,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5105,7 +5109,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -5125,7 +5129,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5145,7 +5149,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -5159,7 +5163,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>491</v>
       </c>
@@ -5179,7 +5183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -5193,7 +5197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>505</v>
       </c>
@@ -5213,7 +5217,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -5227,7 +5231,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5247,7 +5251,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>29</v>
       </c>
@@ -5261,7 +5265,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -5289,21 +5293,21 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5323,7 +5327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>544</v>
       </c>
@@ -5343,7 +5347,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5357,7 +5361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5371,7 +5375,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5385,7 +5389,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5405,7 +5409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5419,7 +5423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5433,7 +5437,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>543</v>
       </c>
@@ -5453,7 +5457,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5467,7 +5471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -5487,7 +5491,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -5501,7 +5505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5515,7 +5519,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5529,7 +5533,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5543,7 +5547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5557,7 +5561,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>48</v>
       </c>
@@ -5571,7 +5575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -5591,7 +5595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5605,7 +5609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5625,7 +5629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>554</v>
       </c>
@@ -5645,7 +5649,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5659,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>556</v>
       </c>
@@ -5679,7 +5683,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>505</v>
       </c>
@@ -5699,7 +5703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5719,7 +5723,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>559</v>
       </c>
@@ -5739,7 +5743,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5766,21 +5770,21 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -5800,7 +5804,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -5821,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -5842,7 +5846,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -5863,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -5884,7 +5888,7 @@
         <v>0.41935483870967744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -5905,7 +5909,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -5926,7 +5930,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -5947,7 +5951,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -5968,7 +5972,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -5989,7 +5993,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -6010,7 +6014,7 @@
         <v>0.6470588235294118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -6031,7 +6035,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -6056,7 +6060,7 @@
         <v>0.43939393939393939</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>499</v>
       </c>
@@ -6103,21 +6107,21 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6137,7 +6141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>516</v>
       </c>
@@ -6157,7 +6161,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -6177,7 +6181,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -6191,7 +6195,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -6205,7 +6209,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>517</v>
       </c>
@@ -6225,7 +6229,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6239,7 +6243,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6253,7 +6257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6267,8 +6271,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>518</v>
       </c>
@@ -6288,7 +6292,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -6302,7 +6306,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>511</v>
       </c>
@@ -6322,7 +6326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -6336,7 +6340,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -6350,7 +6354,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>519</v>
       </c>
@@ -6370,7 +6374,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>520</v>
       </c>
@@ -6390,7 +6394,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -6404,7 +6408,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -6418,7 +6422,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -6432,7 +6436,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -6446,7 +6450,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -6460,7 +6464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -6474,7 +6478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>521</v>
       </c>
@@ -6494,7 +6498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -6514,7 +6518,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -6528,7 +6532,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>123</v>
       </c>
@@ -6542,7 +6546,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -6556,7 +6560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -6570,7 +6574,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>522</v>
       </c>
@@ -6590,7 +6594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -6610,7 +6614,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>523</v>
       </c>
@@ -6630,7 +6634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>6</v>
       </c>
@@ -6644,7 +6648,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>123</v>
       </c>
@@ -6658,7 +6662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -6672,7 +6676,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -6686,7 +6690,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>524</v>
       </c>
@@ -6706,7 +6710,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -6720,7 +6724,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>525</v>
       </c>
@@ -6740,7 +6744,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>527</v>
       </c>
@@ -6760,7 +6764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -6774,7 +6778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -6802,21 +6806,21 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6836,7 +6840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>528</v>
       </c>
@@ -6856,7 +6860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -6870,7 +6874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>529</v>
       </c>
@@ -6890,7 +6894,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -6904,7 +6908,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -6924,7 +6928,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6938,7 +6942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>123</v>
       </c>
@@ -6952,7 +6956,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -6966,7 +6970,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -6986,7 +6990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>530</v>
       </c>
@@ -7006,7 +7010,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7020,7 +7024,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7034,7 +7038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7048,7 +7052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>48</v>
       </c>
@@ -7062,7 +7066,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>531</v>
       </c>
@@ -7082,7 +7086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -7102,7 +7106,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>533</v>
       </c>
@@ -7122,7 +7126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>534</v>
       </c>
@@ -7142,7 +7146,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -7156,7 +7160,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -7170,7 +7174,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>520</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -7210,7 +7214,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>6</v>
       </c>
@@ -7224,7 +7228,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7238,7 +7242,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7252,7 +7256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -7272,7 +7276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -7292,7 +7296,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -7306,7 +7310,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>535</v>
       </c>
@@ -7326,7 +7330,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>524</v>
       </c>
@@ -7378,21 +7382,21 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7412,7 +7416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>509</v>
       </c>
@@ -7432,7 +7436,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7446,7 +7450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7460,7 +7464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>510</v>
       </c>
@@ -7480,7 +7484,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -7494,7 +7498,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -7508,7 +7512,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -7528,7 +7532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>536</v>
       </c>
@@ -7548,7 +7552,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -7562,7 +7566,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -7576,7 +7580,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -7590,7 +7594,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7604,7 +7608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -7624,7 +7628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -7638,7 +7642,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -7658,7 +7662,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -7678,7 +7682,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -7692,7 +7696,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -7706,7 +7710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -7720,7 +7724,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>48</v>
       </c>
@@ -7734,7 +7738,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>537</v>
       </c>
@@ -7754,7 +7758,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -7768,7 +7772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -7782,7 +7786,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>538</v>
       </c>
@@ -7802,7 +7806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7816,7 +7820,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -7830,7 +7834,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -7844,7 +7848,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>48</v>
       </c>
@@ -7858,7 +7862,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -7878,7 +7882,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>507</v>
       </c>
@@ -7898,7 +7902,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>286</v>
       </c>
@@ -7918,7 +7922,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -7938,7 +7942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -7952,7 +7956,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -7972,7 +7976,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -7986,7 +7990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>292</v>
       </c>
@@ -8006,7 +8010,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -8020,7 +8024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>123</v>
       </c>
@@ -8034,7 +8038,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8048,7 +8052,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -8068,7 +8072,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>342</v>
       </c>
@@ -8088,7 +8092,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8102,7 +8106,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8116,7 +8120,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -8130,7 +8134,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>48</v>
       </c>
@@ -8144,7 +8148,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>539</v>
       </c>
@@ -8164,7 +8168,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -8178,7 +8182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -8192,7 +8196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8220,21 +8224,21 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -8254,7 +8258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -8274,7 +8278,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8288,7 +8292,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>123</v>
       </c>
@@ -8302,7 +8306,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -8322,7 +8326,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -8336,7 +8340,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>123</v>
       </c>
@@ -8350,7 +8354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -8364,7 +8368,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -8378,7 +8382,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -8398,7 +8402,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -8412,7 +8416,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -8426,7 +8430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>28</v>
       </c>
@@ -8440,7 +8444,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -8454,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -8468,7 +8472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>363</v>
       </c>
@@ -8488,7 +8492,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -8508,7 +8512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -8522,7 +8526,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -8536,7 +8540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>543</v>
       </c>
@@ -8556,7 +8560,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -8570,7 +8574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -8590,7 +8594,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -8604,7 +8608,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -8618,7 +8622,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -8638,7 +8642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -8652,7 +8656,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -8666,7 +8670,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>371</v>
       </c>
@@ -8686,7 +8690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>177</v>
       </c>
@@ -8706,7 +8710,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>6</v>
       </c>
@@ -8720,7 +8724,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -8740,7 +8744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -8754,7 +8758,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -8768,7 +8772,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -8788,7 +8792,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -8802,7 +8806,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -8822,7 +8826,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>506</v>
       </c>
@@ -8842,7 +8846,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>382</v>
       </c>
@@ -8862,7 +8866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -8876,7 +8880,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -8890,7 +8894,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>505</v>
       </c>
@@ -8910,7 +8914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>6</v>
       </c>
@@ -8924,7 +8928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>386</v>
       </c>
@@ -8944,7 +8948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -8964,7 +8968,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -8978,7 +8982,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -8992,7 +8996,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>292</v>
       </c>
@@ -9012,7 +9016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9026,7 +9030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -9046,7 +9050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9060,7 +9064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9074,7 +9078,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9088,7 +9092,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -9102,7 +9106,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -9122,7 +9126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>392</v>
       </c>
@@ -9142,7 +9146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -9156,7 +9160,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -9184,21 +9188,21 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -9218,7 +9222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>394</v>
       </c>
@@ -9238,7 +9242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -9254,7 +9258,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -9270,7 +9274,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9278,7 +9282,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -9298,7 +9302,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -9312,7 +9316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -9332,7 +9336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9346,7 +9350,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>543</v>
       </c>
@@ -9366,7 +9370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -9380,7 +9384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -9394,7 +9398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -9414,7 +9418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9428,7 +9432,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -9448,7 +9452,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9462,7 +9466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9476,7 +9480,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -9496,7 +9500,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -9510,7 +9514,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>123</v>
       </c>
@@ -9524,7 +9528,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -9538,7 +9542,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -9558,7 +9562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -9578,7 +9582,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -9598,7 +9602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -9618,7 +9622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -9638,7 +9642,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -9652,7 +9656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -9672,7 +9676,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -9686,7 +9690,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -9706,7 +9710,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -9720,7 +9724,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -9734,7 +9738,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -9754,7 +9758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>506</v>
       </c>
@@ -9774,7 +9778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -9788,7 +9792,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -9802,7 +9806,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -9816,7 +9820,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -9830,7 +9834,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -9850,7 +9854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>29</v>
       </c>
@@ -9864,7 +9868,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -9878,7 +9882,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -9898,7 +9902,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -9918,7 +9922,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -9938,7 +9942,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -9958,7 +9962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>422</v>
       </c>
@@ -9978,7 +9982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -9992,7 +9996,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -10020,21 +10024,21 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -10054,7 +10058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -10074,10 +10078,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -10097,7 +10101,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -10111,7 +10115,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -10125,7 +10129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -10139,7 +10143,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>425</v>
       </c>
@@ -10159,7 +10163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -10173,7 +10177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -10187,7 +10191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -10201,7 +10205,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -10221,7 +10225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10235,7 +10239,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -10249,7 +10253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>543</v>
       </c>
@@ -10269,7 +10273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -10283,7 +10287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -10297,7 +10301,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -10311,7 +10315,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -10325,7 +10329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -10339,7 +10343,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -10353,7 +10357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10373,7 +10377,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -10387,7 +10391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -10407,7 +10411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -10421,7 +10425,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -10435,7 +10439,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -10455,7 +10459,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -10475,7 +10479,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -10489,7 +10493,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -10509,7 +10513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>29</v>
       </c>
@@ -10523,7 +10527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -10537,7 +10541,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -10557,7 +10561,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -10571,7 +10575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -10585,7 +10589,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -10599,7 +10603,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -10619,7 +10623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -10633,7 +10637,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -10653,7 +10657,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -10667,7 +10671,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -10681,7 +10685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>438</v>
       </c>
@@ -10701,7 +10705,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -10715,7 +10719,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -10735,7 +10739,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -10755,7 +10759,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -10775,7 +10779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -10789,7 +10793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -10803,7 +10807,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -10817,7 +10821,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -10831,7 +10835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -10845,7 +10849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -10859,7 +10863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -10879,7 +10883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -10893,7 +10897,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -10907,7 +10911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -10921,7 +10925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -10941,7 +10945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -10955,7 +10959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -10969,7 +10973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -10983,7 +10987,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -10997,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>198</v>
       </c>
@@ -11017,7 +11021,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -11031,7 +11035,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>170</v>
       </c>
@@ -11059,21 +11063,21 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -11093,7 +11097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -11113,7 +11117,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -11129,7 +11133,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -11145,11 +11149,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -11169,7 +11173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -11185,7 +11189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
@@ -11201,7 +11205,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
@@ -11217,7 +11221,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
@@ -11233,7 +11237,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
@@ -11249,7 +11253,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
@@ -11265,11 +11269,11 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -11289,7 +11293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -11309,7 +11313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11323,7 +11327,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -11337,7 +11341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -11357,7 +11361,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -11371,7 +11375,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>371</v>
       </c>
@@ -11391,7 +11395,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -11405,7 +11409,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -11419,7 +11423,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -11439,7 +11443,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -11453,7 +11457,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -11467,7 +11471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -11481,7 +11485,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -11501,7 +11505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -11515,7 +11519,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -11529,7 +11533,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -11549,7 +11553,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -11563,7 +11567,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -11577,7 +11581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -11597,7 +11601,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -11611,7 +11615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -11631,7 +11635,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>506</v>
       </c>
@@ -11651,7 +11655,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -11665,7 +11669,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -11679,7 +11683,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>505</v>
       </c>
@@ -11699,7 +11703,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -11713,7 +11717,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -11727,7 +11731,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -11747,7 +11751,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>195</v>
       </c>
@@ -11761,7 +11765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -11775,7 +11779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -11789,7 +11793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -11809,7 +11813,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -11823,7 +11827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -11837,7 +11841,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>48</v>
       </c>
@@ -11851,7 +11855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -11871,7 +11875,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -11885,7 +11889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -11899,7 +11903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -11913,7 +11917,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -11927,7 +11931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>48</v>
       </c>
@@ -11941,7 +11945,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>198</v>
       </c>
@@ -11974,21 +11978,21 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -12008,7 +12012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -12028,7 +12032,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12042,7 +12046,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12056,7 +12060,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12070,7 +12074,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12078,7 +12082,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -12098,7 +12102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -12112,7 +12116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -12126,7 +12130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -12143,7 +12147,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>505</v>
       </c>
@@ -12163,7 +12167,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12177,7 +12181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12191,7 +12195,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -12205,7 +12209,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>48</v>
       </c>
@@ -12219,7 +12223,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -12239,7 +12243,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -12253,7 +12257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12267,7 +12271,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -12281,7 +12285,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -12295,7 +12299,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -12309,7 +12313,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>48</v>
       </c>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4826" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{777C2C10-EAEA-4A52-B3C2-43DB65E62FF6}"/>
+  <xr:revisionPtr revIDLastSave="4827" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{329E81D8-D509-4D86-92F8-B2B80972EC71}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -4525,20 +4525,20 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>497</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>511</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>512</v>
       </c>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>513</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>514</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>515</v>
       </c>
@@ -4814,20 +4814,20 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>491</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>505</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>29</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -5294,20 +5294,20 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>544</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>543</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>48</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>554</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>556</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>505</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>559</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5771,20 +5771,20 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>0.41935483870967744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>0.6470588235294118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>0.43939393939393939</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>499</v>
       </c>
@@ -6108,20 +6108,20 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>516</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>517</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6271,8 +6271,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>518</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>511</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>519</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>520</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>521</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>123</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>522</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>523</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>6</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>123</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>524</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>525</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>527</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -6807,20 +6807,20 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>528</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>529</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>123</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>530</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>48</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>531</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>533</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>534</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>520</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>6</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>535</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>524</v>
       </c>
@@ -7383,20 +7383,20 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>509</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>510</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>536</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>48</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>537</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>538</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>48</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>507</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>286</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>292</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>123</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>342</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>48</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>539</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8225,20 +8225,20 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>123</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>123</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>28</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>363</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>543</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>371</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>177</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>6</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>506</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>382</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>505</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>6</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>386</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>292</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>392</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -9189,20 +9189,20 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>394</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -9258,7 +9258,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -9274,7 +9274,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9282,7 +9282,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>543</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>123</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>506</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>29</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>422</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -10025,20 +10025,20 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -10078,10 +10078,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>425</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>543</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>29</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>438</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>198</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>170</v>
       </c>
@@ -11064,20 +11064,20 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -11133,7 +11133,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -11149,11 +11149,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -11189,7 +11189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
@@ -11205,7 +11205,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
@@ -11221,7 +11221,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
@@ -11237,7 +11237,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
@@ -11253,7 +11253,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
@@ -11269,11 +11269,11 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>371</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>506</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>505</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>195</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>48</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>48</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>198</v>
       </c>
@@ -11979,20 +11979,20 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12082,7 +12082,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>505</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>48</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>48</v>
       </c>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -4525,7 +4525,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4814,7 +4814,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5294,7 +5294,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5771,7 +5771,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6108,7 +6108,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6807,7 +6807,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7383,7 +7383,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8225,7 +8225,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9189,7 +9189,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10025,7 +10025,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11064,7 +11064,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11979,7 +11979,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4827" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{329E81D8-D509-4D86-92F8-B2B80972EC71}"/>
+  <xr:revisionPtr revIDLastSave="4829" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD60B23A-39F8-46BD-AA83-AC65F9B184E6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -4218,10 +4218,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4829" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD60B23A-39F8-46BD-AA83-AC65F9B184E6}"/>
+  <xr:revisionPtr revIDLastSave="4830" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{675D1577-4A87-4A25-B0F8-F233A0434066}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -4218,6 +4218,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4524,17 +4528,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4554,7 +4558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>497</v>
       </c>
@@ -4574,7 +4578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -4594,7 +4598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -4608,7 +4612,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>511</v>
       </c>
@@ -4628,7 +4632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -4642,7 +4646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>512</v>
       </c>
@@ -4663,7 +4667,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4678,7 +4682,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>513</v>
       </c>
@@ -4698,7 +4702,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -4713,7 +4717,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -4727,7 +4731,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -4741,7 +4745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>514</v>
       </c>
@@ -4761,7 +4765,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4775,7 +4779,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>515</v>
       </c>
@@ -4813,17 +4817,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4843,7 +4847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -4863,7 +4867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4877,7 +4881,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -4891,7 +4895,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -4905,7 +4909,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -4925,7 +4929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -4939,7 +4943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -4953,7 +4957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -4967,7 +4971,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -4981,7 +4985,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -4995,7 +4999,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -5009,7 +5013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5029,7 +5033,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5043,7 +5047,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5057,7 +5061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5071,7 +5075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -5091,7 +5095,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5105,7 +5109,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -5125,7 +5129,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5145,7 +5149,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -5159,7 +5163,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>491</v>
       </c>
@@ -5179,7 +5183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -5193,7 +5197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>505</v>
       </c>
@@ -5213,7 +5217,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -5227,7 +5231,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5247,7 +5251,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>29</v>
       </c>
@@ -5261,7 +5265,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -5293,17 +5297,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5323,7 +5327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>544</v>
       </c>
@@ -5343,7 +5347,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5357,7 +5361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5371,7 +5375,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5385,7 +5389,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5405,7 +5409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5419,7 +5423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5433,7 +5437,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>543</v>
       </c>
@@ -5453,7 +5457,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5467,7 +5471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -5487,7 +5491,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -5501,7 +5505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5515,7 +5519,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5529,7 +5533,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5543,7 +5547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5557,7 +5561,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>48</v>
       </c>
@@ -5571,7 +5575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -5591,7 +5595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5605,7 +5609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5625,7 +5629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>554</v>
       </c>
@@ -5645,7 +5649,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5659,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>556</v>
       </c>
@@ -5679,7 +5683,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>505</v>
       </c>
@@ -5699,7 +5703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5719,7 +5723,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>559</v>
       </c>
@@ -5739,7 +5743,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5770,17 +5774,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -5800,7 +5804,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -5821,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -5842,7 +5846,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -5863,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -5884,7 +5888,7 @@
         <v>0.41935483870967744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -5905,7 +5909,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -5926,7 +5930,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -5947,7 +5951,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -5968,7 +5972,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -5989,7 +5993,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -6010,7 +6014,7 @@
         <v>0.6470588235294118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -6031,7 +6035,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -6056,7 +6060,7 @@
         <v>0.43939393939393939</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>499</v>
       </c>
@@ -6107,17 +6111,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6137,7 +6141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>516</v>
       </c>
@@ -6157,7 +6161,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -6177,7 +6181,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -6191,7 +6195,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -6205,7 +6209,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>517</v>
       </c>
@@ -6225,7 +6229,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6239,7 +6243,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6253,7 +6257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6267,8 +6271,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>518</v>
       </c>
@@ -6288,7 +6292,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -6302,7 +6306,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>511</v>
       </c>
@@ -6322,7 +6326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -6336,7 +6340,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -6350,7 +6354,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>519</v>
       </c>
@@ -6370,7 +6374,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>520</v>
       </c>
@@ -6390,7 +6394,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -6404,7 +6408,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -6418,7 +6422,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -6432,7 +6436,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -6446,7 +6450,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -6460,7 +6464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -6474,7 +6478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>521</v>
       </c>
@@ -6494,7 +6498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -6514,7 +6518,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -6528,7 +6532,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>123</v>
       </c>
@@ -6542,7 +6546,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -6556,7 +6560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -6570,7 +6574,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>522</v>
       </c>
@@ -6590,7 +6594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -6610,7 +6614,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>523</v>
       </c>
@@ -6630,7 +6634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>6</v>
       </c>
@@ -6644,7 +6648,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>123</v>
       </c>
@@ -6658,7 +6662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -6672,7 +6676,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -6686,7 +6690,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>524</v>
       </c>
@@ -6706,7 +6710,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -6720,7 +6724,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>525</v>
       </c>
@@ -6740,7 +6744,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>527</v>
       </c>
@@ -6760,7 +6764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -6774,7 +6778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -6806,17 +6810,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6836,7 +6840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>528</v>
       </c>
@@ -6856,7 +6860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -6870,7 +6874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>529</v>
       </c>
@@ -6890,7 +6894,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -6904,7 +6908,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -6924,7 +6928,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6938,7 +6942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>123</v>
       </c>
@@ -6952,7 +6956,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -6966,7 +6970,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -6986,7 +6990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>530</v>
       </c>
@@ -7006,7 +7010,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7020,7 +7024,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7034,7 +7038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7048,7 +7052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>48</v>
       </c>
@@ -7062,7 +7066,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>531</v>
       </c>
@@ -7082,7 +7086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -7102,7 +7106,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>533</v>
       </c>
@@ -7122,7 +7126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>534</v>
       </c>
@@ -7142,7 +7146,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -7156,7 +7160,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -7170,7 +7174,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>520</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -7210,7 +7214,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>6</v>
       </c>
@@ -7224,7 +7228,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7238,7 +7242,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7252,7 +7256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -7272,7 +7276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -7292,7 +7296,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -7306,7 +7310,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>535</v>
       </c>
@@ -7326,7 +7330,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>524</v>
       </c>
@@ -7382,17 +7386,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7412,7 +7416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>509</v>
       </c>
@@ -7432,7 +7436,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7446,7 +7450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7460,7 +7464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>510</v>
       </c>
@@ -7480,7 +7484,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -7494,7 +7498,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -7508,7 +7512,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -7528,7 +7532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>536</v>
       </c>
@@ -7548,7 +7552,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -7562,7 +7566,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -7576,7 +7580,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -7590,7 +7594,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7604,7 +7608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -7624,7 +7628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -7638,7 +7642,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -7658,7 +7662,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -7678,7 +7682,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -7692,7 +7696,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -7706,7 +7710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -7720,7 +7724,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>48</v>
       </c>
@@ -7734,7 +7738,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>537</v>
       </c>
@@ -7754,7 +7758,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -7768,7 +7772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -7782,7 +7786,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>538</v>
       </c>
@@ -7802,7 +7806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7816,7 +7820,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -7830,7 +7834,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -7844,7 +7848,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>48</v>
       </c>
@@ -7858,7 +7862,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -7878,7 +7882,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>507</v>
       </c>
@@ -7898,7 +7902,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>286</v>
       </c>
@@ -7918,7 +7922,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -7938,7 +7942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -7952,7 +7956,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -7972,7 +7976,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -7986,7 +7990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>292</v>
       </c>
@@ -8006,7 +8010,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -8020,7 +8024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>123</v>
       </c>
@@ -8034,7 +8038,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8048,7 +8052,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -8068,7 +8072,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>342</v>
       </c>
@@ -8088,7 +8092,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8102,7 +8106,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8116,7 +8120,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -8130,7 +8134,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>48</v>
       </c>
@@ -8144,7 +8148,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>539</v>
       </c>
@@ -8164,7 +8168,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -8178,7 +8182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -8192,7 +8196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8224,17 +8228,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -8254,7 +8258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -8274,7 +8278,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8288,7 +8292,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>123</v>
       </c>
@@ -8302,7 +8306,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -8322,7 +8326,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -8336,7 +8340,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>123</v>
       </c>
@@ -8350,7 +8354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -8364,7 +8368,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -8378,7 +8382,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -8398,7 +8402,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -8412,7 +8416,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -8426,7 +8430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>28</v>
       </c>
@@ -8440,7 +8444,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -8454,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -8468,7 +8472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>363</v>
       </c>
@@ -8488,7 +8492,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -8508,7 +8512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -8522,7 +8526,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -8536,7 +8540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>543</v>
       </c>
@@ -8556,7 +8560,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -8570,7 +8574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -8590,7 +8594,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -8604,7 +8608,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -8618,7 +8622,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -8638,7 +8642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -8652,7 +8656,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -8666,7 +8670,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>371</v>
       </c>
@@ -8686,7 +8690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>177</v>
       </c>
@@ -8706,7 +8710,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>6</v>
       </c>
@@ -8720,7 +8724,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -8740,7 +8744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -8754,7 +8758,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -8768,7 +8772,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -8788,7 +8792,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -8802,7 +8806,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -8822,7 +8826,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>506</v>
       </c>
@@ -8842,7 +8846,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>382</v>
       </c>
@@ -8862,7 +8866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -8876,7 +8880,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -8890,7 +8894,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>505</v>
       </c>
@@ -8910,7 +8914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>6</v>
       </c>
@@ -8924,7 +8928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>386</v>
       </c>
@@ -8944,7 +8948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -8964,7 +8968,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -8978,7 +8982,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -8992,7 +8996,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>292</v>
       </c>
@@ -9012,7 +9016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9026,7 +9030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -9046,7 +9050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9060,7 +9064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9074,7 +9078,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9088,7 +9092,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -9102,7 +9106,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -9122,7 +9126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>392</v>
       </c>
@@ -9142,7 +9146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -9156,7 +9160,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -9188,17 +9192,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -9218,7 +9222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>394</v>
       </c>
@@ -9238,7 +9242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -9254,7 +9258,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -9270,7 +9274,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9278,7 +9282,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -9298,7 +9302,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -9312,7 +9316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -9332,7 +9336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9346,7 +9350,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>543</v>
       </c>
@@ -9366,7 +9370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -9380,7 +9384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -9394,7 +9398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -9414,7 +9418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9428,7 +9432,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -9448,7 +9452,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9462,7 +9466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9476,7 +9480,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -9496,7 +9500,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -9510,7 +9514,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>123</v>
       </c>
@@ -9524,7 +9528,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -9538,7 +9542,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -9558,7 +9562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -9578,7 +9582,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -9598,7 +9602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -9618,7 +9622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -9638,7 +9642,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -9652,7 +9656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -9672,7 +9676,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -9686,7 +9690,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -9706,7 +9710,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -9720,7 +9724,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -9734,7 +9738,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -9754,7 +9758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>506</v>
       </c>
@@ -9774,7 +9778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -9788,7 +9792,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -9802,7 +9806,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -9816,7 +9820,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -9830,7 +9834,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -9850,7 +9854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>29</v>
       </c>
@@ -9864,7 +9868,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -9878,7 +9882,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -9898,7 +9902,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -9918,7 +9922,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -9938,7 +9942,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -9958,7 +9962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>422</v>
       </c>
@@ -9978,7 +9982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -9992,7 +9996,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -10024,17 +10028,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -10054,7 +10058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -10074,10 +10078,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -10097,7 +10101,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -10111,7 +10115,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -10125,7 +10129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -10139,7 +10143,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>425</v>
       </c>
@@ -10159,7 +10163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -10173,7 +10177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -10187,7 +10191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -10201,7 +10205,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -10221,7 +10225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10235,7 +10239,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -10249,7 +10253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>543</v>
       </c>
@@ -10269,7 +10273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -10283,7 +10287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -10297,7 +10301,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -10311,7 +10315,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -10325,7 +10329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -10339,7 +10343,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -10353,7 +10357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10373,7 +10377,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -10387,7 +10391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -10407,7 +10411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -10421,7 +10425,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -10435,7 +10439,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -10455,7 +10459,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -10475,7 +10479,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -10489,7 +10493,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -10509,7 +10513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>29</v>
       </c>
@@ -10523,7 +10527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -10537,7 +10541,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -10557,7 +10561,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -10571,7 +10575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -10585,7 +10589,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -10599,7 +10603,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -10619,7 +10623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -10633,7 +10637,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -10653,7 +10657,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -10667,7 +10671,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -10681,7 +10685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>438</v>
       </c>
@@ -10701,7 +10705,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -10715,7 +10719,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -10735,7 +10739,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -10755,7 +10759,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -10775,7 +10779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -10789,7 +10793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -10803,7 +10807,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -10817,7 +10821,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -10831,7 +10835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -10845,7 +10849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -10859,7 +10863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -10879,7 +10883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -10893,7 +10897,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -10907,7 +10911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -10921,7 +10925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -10941,7 +10945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -10955,7 +10959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -10969,7 +10973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -10983,7 +10987,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -10997,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>198</v>
       </c>
@@ -11017,7 +11021,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -11031,7 +11035,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>170</v>
       </c>
@@ -11063,17 +11067,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -11093,7 +11097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -11113,7 +11117,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -11129,7 +11133,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -11145,11 +11149,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -11169,7 +11173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -11185,7 +11189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
@@ -11201,7 +11205,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
@@ -11217,7 +11221,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
@@ -11233,7 +11237,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
@@ -11249,7 +11253,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
@@ -11265,11 +11269,11 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -11289,7 +11293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -11309,7 +11313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11323,7 +11327,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -11337,7 +11341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -11357,7 +11361,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -11371,7 +11375,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>371</v>
       </c>
@@ -11391,7 +11395,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -11405,7 +11409,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -11419,7 +11423,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -11439,7 +11443,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -11453,7 +11457,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -11467,7 +11471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -11481,7 +11485,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -11501,7 +11505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -11515,7 +11519,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -11529,7 +11533,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -11549,7 +11553,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -11563,7 +11567,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -11577,7 +11581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -11597,7 +11601,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -11611,7 +11615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -11631,7 +11635,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>506</v>
       </c>
@@ -11651,7 +11655,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -11665,7 +11669,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -11679,7 +11683,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>505</v>
       </c>
@@ -11699,7 +11703,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -11713,7 +11717,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -11727,7 +11731,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -11747,7 +11751,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>195</v>
       </c>
@@ -11761,7 +11765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -11775,7 +11779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -11789,7 +11793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -11809,7 +11813,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -11823,7 +11827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -11837,7 +11841,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>48</v>
       </c>
@@ -11851,7 +11855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -11871,7 +11875,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -11885,7 +11889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -11899,7 +11903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -11913,7 +11917,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -11927,7 +11931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>48</v>
       </c>
@@ -11941,7 +11945,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>198</v>
       </c>
@@ -11978,17 +11982,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -12008,7 +12012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -12028,7 +12032,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12042,7 +12046,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12056,7 +12060,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12070,7 +12074,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12078,7 +12082,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -12098,7 +12102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -12112,7 +12116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -12126,7 +12130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -12143,7 +12147,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>505</v>
       </c>
@@ -12163,7 +12167,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12177,7 +12181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12191,7 +12195,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -12205,7 +12209,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>48</v>
       </c>
@@ -12219,7 +12223,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -12239,7 +12243,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -12253,7 +12257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12267,7 +12271,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -12281,7 +12285,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -12295,7 +12299,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -12309,7 +12313,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>48</v>
       </c>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4830" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{675D1577-4A87-4A25-B0F8-F233A0434066}"/>
+  <xr:revisionPtr revIDLastSave="4893" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C306253-E511-44F9-954D-1EABB30AF427}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -24,9 +24,11 @@
     <sheet name="2020" sheetId="27" r:id="rId9"/>
     <sheet name="2021" sheetId="28" r:id="rId10"/>
     <sheet name="2022" sheetId="34" r:id="rId11"/>
-    <sheet name="Stats" sheetId="1" r:id="rId12"/>
-    <sheet name="Wins-Losses" sheetId="35" r:id="rId13"/>
-    <sheet name="Winning Percentile Range" sheetId="36" r:id="rId14"/>
+    <sheet name="2023" sheetId="37" r:id="rId12"/>
+    <sheet name="2024" sheetId="38" r:id="rId13"/>
+    <sheet name="Stats" sheetId="1" r:id="rId14"/>
+    <sheet name="Wins-Losses" sheetId="39" r:id="rId15"/>
+    <sheet name="Winning Percentile Range" sheetId="40" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="565">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1729,6 +1731,18 @@
   </si>
   <si>
     <t>1-0 RETIRED</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>Tamara Korpatsch (GERMANY)</t>
+  </si>
+  <si>
+    <t>6-3 7-6(9)</t>
+  </si>
+  <si>
+    <t>3-6 7-6(4) 6-4</t>
   </si>
 </sst>
 </file>
@@ -2015,10 +2029,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$12</c:f>
+              <c:f>Stats!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2012</c:v>
                 </c:pt>
@@ -2052,15 +2066,21 @@
                 <c:pt idx="10">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$12</c:f>
+              <c:f>Stats!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -2094,12 +2114,18 @@
                 <c:pt idx="10">
                   <c:v>14</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A103-474C-9FC2-8046BBB293E7}"/>
+              <c16:uniqueId val="{00000000-1FDB-43DB-B7DC-918007C0CA75}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2129,10 +2155,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$12</c:f>
+              <c:f>Stats!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2012</c:v>
                 </c:pt>
@@ -2166,15 +2192,21 @@
                 <c:pt idx="10">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$12</c:f>
+              <c:f>Stats!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -2208,12 +2240,18 @@
                 <c:pt idx="10">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A103-474C-9FC2-8046BBB293E7}"/>
+              <c16:uniqueId val="{00000001-1FDB-43DB-B7DC-918007C0CA75}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2227,11 +2265,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="619143487"/>
-        <c:axId val="619138079"/>
+        <c:axId val="1204614880"/>
+        <c:axId val="1201611040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="619143487"/>
+        <c:axId val="1204614880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,7 +2367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619138079"/>
+        <c:crossAx val="1201611040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2337,7 +2375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="619138079"/>
+        <c:axId val="1201611040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2378,7 +2416,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>NUMBER OF MATCHES</a:t>
+                  <a:t>NUMBER OF MTACHES</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2443,7 +2481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619143487"/>
+        <c:crossAx val="1204614880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2652,10 +2690,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$12</c:f>
+              <c:f>Stats!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2012</c:v>
                 </c:pt>
@@ -2689,15 +2727,21 @@
                 <c:pt idx="10">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$12</c:f>
+              <c:f>Stats!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2731,13 +2775,19 @@
                 <c:pt idx="10">
                   <c:v>0.35714285714285715</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D31-4B3F-BDE3-F6BEF098359E}"/>
+              <c16:uniqueId val="{00000000-6545-4BF9-A7F8-BAA883295C70}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2751,11 +2801,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="623634831"/>
-        <c:axId val="623631503"/>
+        <c:axId val="1452957904"/>
+        <c:axId val="1452072592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="623634831"/>
+        <c:axId val="1452957904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2853,7 +2903,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623631503"/>
+        <c:crossAx val="1452072592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2861,7 +2911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="623631503"/>
+        <c:axId val="1452072592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2967,7 +3017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623634831"/>
+        <c:crossAx val="1452957904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3011,7 +3061,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4129,10 +4179,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8F783652-2437-4104-AC4B-B91CE7784D2C}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CC5EC2A5-C1B7-4965-B1C3-FBC85B4B1F66}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4141,10 +4191,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{19217ED7-D348-4912-8EF1-9C9315DBB27E}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{57996D64-BB28-4136-B316-CB8295B00E23}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4156,13 +4206,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8572500" cy="5827568"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE101FD-40E3-4969-865A-9164B12EBE08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9DE4EB6-B98E-2417-E0D6-1612885AA2B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4189,13 +4239,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8572500" cy="5827568"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9B630F-C6D5-414B-BA93-D4CB5B70009B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE123E3F-4766-1D7E-886F-D7DEC8B36D52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4216,10 +4266,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4524,21 +4570,21 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4558,7 +4604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>497</v>
       </c>
@@ -4578,7 +4624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -4598,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -4612,7 +4658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>511</v>
       </c>
@@ -4632,7 +4678,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -4646,7 +4692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>512</v>
       </c>
@@ -4667,7 +4713,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4682,7 +4728,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>513</v>
       </c>
@@ -4702,7 +4748,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -4717,7 +4763,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -4731,7 +4777,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -4745,7 +4791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>514</v>
       </c>
@@ -4765,7 +4811,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4779,7 +4825,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>515</v>
       </c>
@@ -4813,21 +4859,21 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4847,7 +4893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -4867,7 +4913,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4881,7 +4927,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -4895,7 +4941,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -4909,7 +4955,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -4929,7 +4975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -4943,7 +4989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -4957,7 +5003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -4971,7 +5017,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -4985,7 +5031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -4999,7 +5045,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -5013,7 +5059,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5033,7 +5079,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5047,7 +5093,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5061,7 +5107,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5075,7 +5121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -5095,7 +5141,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5109,7 +5155,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -5129,7 +5175,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5149,7 +5195,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -5163,7 +5209,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>491</v>
       </c>
@@ -5183,7 +5229,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -5197,7 +5243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>505</v>
       </c>
@@ -5217,7 +5263,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -5231,7 +5277,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5251,7 +5297,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>29</v>
       </c>
@@ -5265,7 +5311,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -5293,21 +5339,21 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5327,7 +5373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>544</v>
       </c>
@@ -5347,7 +5393,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5361,7 +5407,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5375,7 +5421,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5389,7 +5435,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5409,7 +5455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5423,7 +5469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5437,7 +5483,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>543</v>
       </c>
@@ -5457,7 +5503,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5471,7 +5517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -5491,7 +5537,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -5505,7 +5551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5519,7 +5565,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5533,7 +5579,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5547,7 +5593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5561,7 +5607,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>48</v>
       </c>
@@ -5575,7 +5621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -5595,7 +5641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5609,7 +5655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5629,7 +5675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>554</v>
       </c>
@@ -5649,7 +5695,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5663,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>556</v>
       </c>
@@ -5683,7 +5729,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>505</v>
       </c>
@@ -5703,7 +5749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5723,7 +5769,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>559</v>
       </c>
@@ -5743,7 +5789,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5764,27 +5810,175 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF2121D-0254-4007-B33C-6E79437737E9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07A83ED-1F5A-4A48-B128-2B6C566DB2B1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -5804,7 +5998,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -5825,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -5846,7 +6040,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -5867,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -5888,7 +6082,7 @@
         <v>0.41935483870967744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -5909,7 +6103,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -5930,7 +6124,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -5951,7 +6145,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -5972,7 +6166,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -5989,11 +6183,11 @@
         <v>3</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:F12" si="1">(D10-E10)/D10</f>
+        <f t="shared" ref="F10:F14" si="1">(D10-E10)/D10</f>
         <v>0.8125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -6014,7 +6208,7 @@
         <v>0.6470588235294118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -6035,58 +6229,100 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2023</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2024</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="6">
-        <f>SUM(B2:B12)</f>
-        <v>161</v>
-      </c>
-      <c r="C13" s="6">
-        <f>SUM(C2:C12)</f>
+      <c r="B15" s="6">
+        <f>SUM(B2:B14)</f>
+        <v>162</v>
+      </c>
+      <c r="C15" s="6">
+        <f>SUM(C2:C14)</f>
         <v>7</v>
       </c>
-      <c r="D13" s="6">
-        <f>SUM(D2:D12)</f>
-        <v>264</v>
-      </c>
-      <c r="E13" s="6">
-        <f>SUM(E2:E12)</f>
-        <v>148</v>
-      </c>
-      <c r="F13" s="7">
-        <f>(D13-E13)/D13</f>
-        <v>0.43939393939393939</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="D15" s="6">
+        <f>SUM(D2:D14)</f>
+        <v>265</v>
+      </c>
+      <c r="E15" s="6">
+        <f>SUM(E2:E14)</f>
+        <v>149</v>
+      </c>
+      <c r="F15" s="7">
+        <f>(D15-E15)/D15</f>
+        <v>0.43773584905660379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B14" s="6">
-        <f>AVERAGE(B2:B12)</f>
-        <v>14.636363636363637</v>
-      </c>
-      <c r="C14" s="6">
-        <f>AVERAGE(C2:C12)</f>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="D14" s="6">
-        <f>AVERAGE(D2:D12)</f>
-        <v>24</v>
-      </c>
-      <c r="E14" s="6">
-        <f>AVERAGE(E2:E12)</f>
-        <v>13.454545454545455</v>
-      </c>
-      <c r="F14" s="7">
-        <f>(D14-E14)/D14</f>
-        <v>0.43939393939393939</v>
+      <c r="B16" s="6">
+        <f>AVERAGE(B2:B14)</f>
+        <v>12.461538461538462</v>
+      </c>
+      <c r="C16" s="6">
+        <f>AVERAGE(C2:C14)</f>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="D16" s="6">
+        <f>AVERAGE(D2:D14)</f>
+        <v>20.384615384615383</v>
+      </c>
+      <c r="E16" s="6">
+        <f>AVERAGE(E2:E14)</f>
+        <v>11.461538461538462</v>
+      </c>
+      <c r="F16" s="7">
+        <f>(D16-E16)/D16</f>
+        <v>0.43773584905660373</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F12">
+  <conditionalFormatting sqref="F2:F14">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -6107,21 +6343,21 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6141,7 +6377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>516</v>
       </c>
@@ -6161,7 +6397,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -6181,7 +6417,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -6195,7 +6431,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -6209,7 +6445,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>517</v>
       </c>
@@ -6229,7 +6465,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6243,7 +6479,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6257,7 +6493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6271,8 +6507,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>518</v>
       </c>
@@ -6292,7 +6528,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -6306,7 +6542,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>511</v>
       </c>
@@ -6326,7 +6562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -6340,7 +6576,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -6354,7 +6590,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>519</v>
       </c>
@@ -6374,7 +6610,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>520</v>
       </c>
@@ -6394,7 +6630,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -6408,7 +6644,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -6422,7 +6658,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -6436,7 +6672,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -6450,7 +6686,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -6464,7 +6700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -6478,7 +6714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>521</v>
       </c>
@@ -6498,7 +6734,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -6518,7 +6754,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -6532,7 +6768,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>123</v>
       </c>
@@ -6546,7 +6782,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -6560,7 +6796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -6574,7 +6810,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>522</v>
       </c>
@@ -6594,7 +6830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -6614,7 +6850,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>523</v>
       </c>
@@ -6634,7 +6870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>6</v>
       </c>
@@ -6648,7 +6884,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>123</v>
       </c>
@@ -6662,7 +6898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -6676,7 +6912,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -6690,7 +6926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>524</v>
       </c>
@@ -6710,7 +6946,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -6724,7 +6960,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>525</v>
       </c>
@@ -6744,7 +6980,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>527</v>
       </c>
@@ -6764,7 +7000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -6778,7 +7014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -6806,21 +7042,21 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6840,7 +7076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>528</v>
       </c>
@@ -6860,7 +7096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -6874,7 +7110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>529</v>
       </c>
@@ -6894,7 +7130,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -6908,7 +7144,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -6928,7 +7164,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6942,7 +7178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>123</v>
       </c>
@@ -6956,7 +7192,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -6970,7 +7206,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -6990,7 +7226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>530</v>
       </c>
@@ -7010,7 +7246,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7024,7 +7260,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7038,7 +7274,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7052,7 +7288,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>48</v>
       </c>
@@ -7066,7 +7302,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>531</v>
       </c>
@@ -7086,7 +7322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -7106,7 +7342,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>533</v>
       </c>
@@ -7126,7 +7362,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>534</v>
       </c>
@@ -7146,7 +7382,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -7160,7 +7396,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -7174,7 +7410,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>520</v>
       </c>
@@ -7194,7 +7430,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -7214,7 +7450,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>6</v>
       </c>
@@ -7228,7 +7464,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7242,7 +7478,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7256,7 +7492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -7276,7 +7512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -7296,7 +7532,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -7310,7 +7546,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>535</v>
       </c>
@@ -7330,7 +7566,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>524</v>
       </c>
@@ -7382,21 +7618,21 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7416,7 +7652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>509</v>
       </c>
@@ -7436,7 +7672,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7450,7 +7686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7464,7 +7700,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>510</v>
       </c>
@@ -7484,7 +7720,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -7498,7 +7734,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -7512,7 +7748,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -7532,7 +7768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>536</v>
       </c>
@@ -7552,7 +7788,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -7566,7 +7802,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -7580,7 +7816,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -7594,7 +7830,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7608,7 +7844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -7628,7 +7864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -7642,7 +7878,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -7662,7 +7898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -7682,7 +7918,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -7696,7 +7932,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -7710,7 +7946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -7724,7 +7960,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>48</v>
       </c>
@@ -7738,7 +7974,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>537</v>
       </c>
@@ -7758,7 +7994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -7772,7 +8008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -7786,7 +8022,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>538</v>
       </c>
@@ -7806,7 +8042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -7820,7 +8056,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -7834,7 +8070,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -7848,7 +8084,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>48</v>
       </c>
@@ -7862,7 +8098,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -7882,7 +8118,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>507</v>
       </c>
@@ -7902,7 +8138,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>286</v>
       </c>
@@ -7922,7 +8158,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -7942,7 +8178,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -7956,7 +8192,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -7976,7 +8212,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -7990,7 +8226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>292</v>
       </c>
@@ -8010,7 +8246,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -8024,7 +8260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>123</v>
       </c>
@@ -8038,7 +8274,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8052,7 +8288,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -8072,7 +8308,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>342</v>
       </c>
@@ -8092,7 +8328,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8106,7 +8342,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8120,7 +8356,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -8134,7 +8370,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>48</v>
       </c>
@@ -8148,7 +8384,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>539</v>
       </c>
@@ -8168,7 +8404,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -8182,7 +8418,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -8196,7 +8432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8224,21 +8460,21 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -8258,7 +8494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -8278,7 +8514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8292,7 +8528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>123</v>
       </c>
@@ -8306,7 +8542,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -8326,7 +8562,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -8340,7 +8576,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>123</v>
       </c>
@@ -8354,7 +8590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -8368,7 +8604,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -8382,7 +8618,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -8402,7 +8638,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -8416,7 +8652,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -8430,7 +8666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>28</v>
       </c>
@@ -8444,7 +8680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -8458,7 +8694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -8472,7 +8708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>363</v>
       </c>
@@ -8492,7 +8728,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -8512,7 +8748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -8526,7 +8762,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -8540,7 +8776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>543</v>
       </c>
@@ -8560,7 +8796,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -8574,7 +8810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -8594,7 +8830,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -8608,7 +8844,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -8622,7 +8858,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -8642,7 +8878,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -8656,7 +8892,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -8670,7 +8906,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>371</v>
       </c>
@@ -8690,7 +8926,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>177</v>
       </c>
@@ -8710,7 +8946,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>6</v>
       </c>
@@ -8724,7 +8960,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -8744,7 +8980,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -8758,7 +8994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -8772,7 +9008,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -8792,7 +9028,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -8806,7 +9042,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -8826,7 +9062,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>506</v>
       </c>
@@ -8846,7 +9082,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>382</v>
       </c>
@@ -8866,7 +9102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -8880,7 +9116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -8894,7 +9130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>505</v>
       </c>
@@ -8914,7 +9150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>6</v>
       </c>
@@ -8928,7 +9164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>386</v>
       </c>
@@ -8948,7 +9184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -8968,7 +9204,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -8982,7 +9218,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -8996,7 +9232,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>292</v>
       </c>
@@ -9016,7 +9252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9030,7 +9266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -9050,7 +9286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9064,7 +9300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9078,7 +9314,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9092,7 +9328,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -9106,7 +9342,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -9126,7 +9362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>392</v>
       </c>
@@ -9146,7 +9382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -9160,7 +9396,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -9188,21 +9424,21 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -9222,7 +9458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>394</v>
       </c>
@@ -9242,7 +9478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -9258,7 +9494,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -9274,7 +9510,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9282,7 +9518,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -9302,7 +9538,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -9316,7 +9552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -9336,7 +9572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9350,7 +9586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>543</v>
       </c>
@@ -9370,7 +9606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -9384,7 +9620,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -9398,7 +9634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -9418,7 +9654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9432,7 +9668,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -9452,7 +9688,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9466,7 +9702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9480,7 +9716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -9500,7 +9736,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -9514,7 +9750,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>123</v>
       </c>
@@ -9528,7 +9764,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -9542,7 +9778,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -9562,7 +9798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -9582,7 +9818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -9602,7 +9838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -9622,7 +9858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -9642,7 +9878,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -9656,7 +9892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -9676,7 +9912,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -9690,7 +9926,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -9710,7 +9946,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -9724,7 +9960,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -9738,7 +9974,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -9758,7 +9994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>506</v>
       </c>
@@ -9778,7 +10014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -9792,7 +10028,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -9806,7 +10042,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -9820,7 +10056,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -9834,7 +10070,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -9854,7 +10090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>29</v>
       </c>
@@ -9868,7 +10104,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -9882,7 +10118,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -9902,7 +10138,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -9922,7 +10158,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -9942,7 +10178,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -9962,7 +10198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>422</v>
       </c>
@@ -9982,7 +10218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -9996,7 +10232,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -10024,21 +10260,21 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -10058,7 +10294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -10078,10 +10314,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -10101,7 +10337,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -10115,7 +10351,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -10129,7 +10365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -10143,7 +10379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>425</v>
       </c>
@@ -10163,7 +10399,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -10177,7 +10413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -10191,7 +10427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -10205,7 +10441,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -10225,7 +10461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10239,7 +10475,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -10253,7 +10489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>543</v>
       </c>
@@ -10273,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -10287,7 +10523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -10301,7 +10537,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -10315,7 +10551,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -10329,7 +10565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -10343,7 +10579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -10357,7 +10593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10377,7 +10613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -10391,7 +10627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -10411,7 +10647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -10425,7 +10661,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -10439,7 +10675,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -10459,7 +10695,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -10479,7 +10715,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -10493,7 +10729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -10513,7 +10749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>29</v>
       </c>
@@ -10527,7 +10763,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -10541,7 +10777,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -10561,7 +10797,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -10575,7 +10811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -10589,7 +10825,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -10603,7 +10839,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -10623,7 +10859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -10637,7 +10873,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -10657,7 +10893,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -10671,7 +10907,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -10685,7 +10921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>438</v>
       </c>
@@ -10705,7 +10941,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -10719,7 +10955,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -10739,7 +10975,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -10759,7 +10995,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -10779,7 +11015,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -10793,7 +11029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -10807,7 +11043,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -10821,7 +11057,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -10835,7 +11071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -10849,7 +11085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -10863,7 +11099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -10883,7 +11119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -10897,7 +11133,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -10911,7 +11147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -10925,7 +11161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -10945,7 +11181,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -10959,7 +11195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -10973,7 +11209,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -10987,7 +11223,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -11001,7 +11237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>198</v>
       </c>
@@ -11021,7 +11257,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -11035,7 +11271,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>170</v>
       </c>
@@ -11063,21 +11299,21 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -11097,7 +11333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -11117,7 +11353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -11133,7 +11369,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -11149,11 +11385,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -11173,7 +11409,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -11189,7 +11425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
@@ -11205,7 +11441,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
@@ -11221,7 +11457,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
@@ -11237,7 +11473,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
@@ -11253,7 +11489,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
@@ -11269,11 +11505,11 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -11293,7 +11529,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -11313,7 +11549,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11327,7 +11563,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -11341,7 +11577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -11361,7 +11597,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -11375,7 +11611,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>371</v>
       </c>
@@ -11395,7 +11631,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -11409,7 +11645,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -11423,7 +11659,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -11443,7 +11679,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -11457,7 +11693,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -11471,7 +11707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -11485,7 +11721,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -11505,7 +11741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -11519,7 +11755,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -11533,7 +11769,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -11553,7 +11789,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -11567,7 +11803,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -11581,7 +11817,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -11601,7 +11837,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -11615,7 +11851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -11635,7 +11871,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>506</v>
       </c>
@@ -11655,7 +11891,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -11669,7 +11905,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -11683,7 +11919,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>505</v>
       </c>
@@ -11703,7 +11939,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -11717,7 +11953,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -11731,7 +11967,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -11751,7 +11987,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>195</v>
       </c>
@@ -11765,7 +12001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -11779,7 +12015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -11793,7 +12029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -11813,7 +12049,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -11827,7 +12063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -11841,7 +12077,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>48</v>
       </c>
@@ -11855,7 +12091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -11875,7 +12111,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -11889,7 +12125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -11903,7 +12139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -11917,7 +12153,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -11931,7 +12167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>48</v>
       </c>
@@ -11945,7 +12181,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>198</v>
       </c>
@@ -11978,21 +12214,21 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -12012,7 +12248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -12032,7 +12268,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12046,7 +12282,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12060,7 +12296,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12074,7 +12310,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12082,7 +12318,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -12102,7 +12338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -12116,7 +12352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -12130,7 +12366,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -12147,7 +12383,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>505</v>
       </c>
@@ -12167,7 +12403,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12181,7 +12417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12195,7 +12431,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -12209,7 +12445,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>48</v>
       </c>
@@ -12223,7 +12459,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -12243,7 +12479,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -12257,7 +12493,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12271,7 +12507,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -12285,7 +12521,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -12299,7 +12535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -12313,7 +12549,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>48</v>
       </c>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4893" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C306253-E511-44F9-954D-1EABB30AF427}"/>
+  <xr:revisionPtr revIDLastSave="4894" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9980D4F0-0383-4D62-BC48-5964930F6B33}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -4182,7 +4182,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CC5EC2A5-C1B7-4965-B1C3-FBC85B4B1F66}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4194,7 +4194,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{57996D64-BB28-4136-B316-CB8295B00E23}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4266,6 +4266,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4570,13 +4574,13 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
@@ -4859,13 +4863,13 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
@@ -5339,13 +5343,13 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
@@ -5816,8 +5820,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5883,8 +5887,8 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5970,7 +5974,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -6343,13 +6347,13 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
@@ -7042,13 +7046,13 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
@@ -7618,13 +7622,13 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
@@ -8460,13 +8464,13 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
@@ -9424,13 +9428,13 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
@@ -10260,13 +10264,13 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
@@ -11299,13 +11303,13 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
@@ -12214,13 +12218,13 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4894" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9980D4F0-0383-4D62-BC48-5964930F6B33}"/>
+  <xr:revisionPtr revIDLastSave="4895" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E026574-0259-432E-A350-C78361405556}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -4268,10 +4268,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4575,20 +4571,20 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4608,7 +4604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>497</v>
       </c>
@@ -4628,7 +4624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -4648,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -4662,7 +4658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>511</v>
       </c>
@@ -4682,7 +4678,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -4696,7 +4692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>512</v>
       </c>
@@ -4717,7 +4713,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4732,7 +4728,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>513</v>
       </c>
@@ -4752,7 +4748,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -4767,7 +4763,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -4781,7 +4777,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -4795,7 +4791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>514</v>
       </c>
@@ -4815,7 +4811,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4829,7 +4825,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>515</v>
       </c>
@@ -4864,20 +4860,20 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4897,7 +4893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -4917,7 +4913,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4931,7 +4927,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -4945,7 +4941,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -4959,7 +4955,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -4979,7 +4975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -4993,7 +4989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5007,7 +5003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5021,7 +5017,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -5035,7 +5031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -5049,7 +5045,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -5063,7 +5059,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5083,7 +5079,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5097,7 +5093,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5111,7 +5107,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5125,7 +5121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -5145,7 +5141,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5159,7 +5155,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -5179,7 +5175,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5199,7 +5195,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -5213,7 +5209,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>491</v>
       </c>
@@ -5233,7 +5229,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -5247,7 +5243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>505</v>
       </c>
@@ -5267,7 +5263,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -5281,7 +5277,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5301,7 +5297,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>29</v>
       </c>
@@ -5315,7 +5311,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -5344,20 +5340,20 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5377,7 +5373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>544</v>
       </c>
@@ -5397,7 +5393,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5411,7 +5407,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5425,7 +5421,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5439,7 +5435,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5459,7 +5455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5473,7 +5469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5487,7 +5483,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>543</v>
       </c>
@@ -5507,7 +5503,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5521,7 +5517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -5541,7 +5537,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -5555,7 +5551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5569,7 +5565,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5583,7 +5579,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5597,7 +5593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5611,7 +5607,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>48</v>
       </c>
@@ -5625,7 +5621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -5645,7 +5641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5659,7 +5655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5679,7 +5675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>554</v>
       </c>
@@ -5699,7 +5695,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5713,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>556</v>
       </c>
@@ -5733,7 +5729,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>505</v>
       </c>
@@ -5753,7 +5749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5773,7 +5769,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>559</v>
       </c>
@@ -5793,7 +5789,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5821,20 +5817,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5854,7 +5850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>561</v>
       </c>
@@ -5888,20 +5884,20 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5921,7 +5917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -5941,7 +5937,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -5969,20 +5965,20 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -6002,7 +5998,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -6023,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -6044,7 +6040,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -6065,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -6086,7 +6082,7 @@
         <v>0.41935483870967744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -6107,7 +6103,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -6128,7 +6124,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -6149,7 +6145,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -6170,7 +6166,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -6191,7 +6187,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -6212,7 +6208,7 @@
         <v>0.6470588235294118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -6233,7 +6229,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2023</v>
       </c>
@@ -6254,7 +6250,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2024</v>
       </c>
@@ -6275,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
@@ -6300,7 +6296,7 @@
         <v>0.43773584905660379</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>499</v>
       </c>
@@ -6348,20 +6344,20 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6381,7 +6377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>516</v>
       </c>
@@ -6401,7 +6397,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -6421,7 +6417,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -6435,7 +6431,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -6449,7 +6445,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>517</v>
       </c>
@@ -6469,7 +6465,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6483,7 +6479,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6497,7 +6493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6511,8 +6507,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>518</v>
       </c>
@@ -6532,7 +6528,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -6546,7 +6542,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>511</v>
       </c>
@@ -6566,7 +6562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -6580,7 +6576,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -6594,7 +6590,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>519</v>
       </c>
@@ -6614,7 +6610,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>520</v>
       </c>
@@ -6634,7 +6630,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -6648,7 +6644,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -6662,7 +6658,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -6676,7 +6672,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -6690,7 +6686,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -6704,7 +6700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -6718,7 +6714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>521</v>
       </c>
@@ -6738,7 +6734,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -6758,7 +6754,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -6772,7 +6768,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>123</v>
       </c>
@@ -6786,7 +6782,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -6800,7 +6796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -6814,7 +6810,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>522</v>
       </c>
@@ -6834,7 +6830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -6854,7 +6850,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>523</v>
       </c>
@@ -6874,7 +6870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>6</v>
       </c>
@@ -6888,7 +6884,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>123</v>
       </c>
@@ -6902,7 +6898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -6916,7 +6912,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -6930,7 +6926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>524</v>
       </c>
@@ -6950,7 +6946,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -6964,7 +6960,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>525</v>
       </c>
@@ -6984,7 +6980,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>527</v>
       </c>
@@ -7004,7 +7000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -7018,7 +7014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -7047,20 +7043,20 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7080,7 +7076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>528</v>
       </c>
@@ -7100,7 +7096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -7114,7 +7110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>529</v>
       </c>
@@ -7134,7 +7130,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -7148,7 +7144,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -7168,7 +7164,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -7182,7 +7178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>123</v>
       </c>
@@ -7196,7 +7192,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -7210,7 +7206,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -7230,7 +7226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>530</v>
       </c>
@@ -7250,7 +7246,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7264,7 +7260,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7278,7 +7274,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7292,7 +7288,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>48</v>
       </c>
@@ -7306,7 +7302,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>531</v>
       </c>
@@ -7326,7 +7322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -7346,7 +7342,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>533</v>
       </c>
@@ -7366,7 +7362,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>534</v>
       </c>
@@ -7386,7 +7382,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -7400,7 +7396,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -7414,7 +7410,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>520</v>
       </c>
@@ -7434,7 +7430,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -7454,7 +7450,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>6</v>
       </c>
@@ -7468,7 +7464,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7482,7 +7478,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7496,7 +7492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -7516,7 +7512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -7536,7 +7532,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -7550,7 +7546,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>535</v>
       </c>
@@ -7570,7 +7566,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>524</v>
       </c>
@@ -7623,20 +7619,20 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7656,7 +7652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>509</v>
       </c>
@@ -7676,7 +7672,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7690,7 +7686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7704,7 +7700,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>510</v>
       </c>
@@ -7724,7 +7720,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -7738,7 +7734,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -7752,7 +7748,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -7772,7 +7768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>536</v>
       </c>
@@ -7792,7 +7788,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -7806,7 +7802,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -7820,7 +7816,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -7834,7 +7830,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7848,7 +7844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -7868,7 +7864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -7882,7 +7878,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -7902,7 +7898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -7922,7 +7918,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -7936,7 +7932,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -7950,7 +7946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -7964,7 +7960,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>48</v>
       </c>
@@ -7978,7 +7974,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>537</v>
       </c>
@@ -7998,7 +7994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -8012,7 +8008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -8026,7 +8022,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>538</v>
       </c>
@@ -8046,7 +8042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -8060,7 +8056,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -8074,7 +8070,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8088,7 +8084,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>48</v>
       </c>
@@ -8102,7 +8098,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -8122,7 +8118,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>507</v>
       </c>
@@ -8142,7 +8138,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>286</v>
       </c>
@@ -8162,7 +8158,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -8182,7 +8178,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -8196,7 +8192,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -8216,7 +8212,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -8230,7 +8226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>292</v>
       </c>
@@ -8250,7 +8246,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -8264,7 +8260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>123</v>
       </c>
@@ -8278,7 +8274,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8292,7 +8288,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -8312,7 +8308,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>342</v>
       </c>
@@ -8332,7 +8328,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8346,7 +8342,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8360,7 +8356,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -8374,7 +8370,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>48</v>
       </c>
@@ -8388,7 +8384,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>539</v>
       </c>
@@ -8408,7 +8404,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -8422,7 +8418,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -8436,7 +8432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8465,20 +8461,20 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -8498,7 +8494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -8518,7 +8514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8532,7 +8528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>123</v>
       </c>
@@ -8546,7 +8542,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -8566,7 +8562,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -8580,7 +8576,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>123</v>
       </c>
@@ -8594,7 +8590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -8608,7 +8604,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -8622,7 +8618,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -8642,7 +8638,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -8656,7 +8652,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -8670,7 +8666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>28</v>
       </c>
@@ -8684,7 +8680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -8698,7 +8694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -8712,7 +8708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>363</v>
       </c>
@@ -8732,7 +8728,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -8752,7 +8748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -8766,7 +8762,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -8780,7 +8776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>543</v>
       </c>
@@ -8800,7 +8796,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -8814,7 +8810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -8834,7 +8830,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -8848,7 +8844,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -8862,7 +8858,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -8882,7 +8878,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -8896,7 +8892,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -8910,7 +8906,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>371</v>
       </c>
@@ -8930,7 +8926,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>177</v>
       </c>
@@ -8950,7 +8946,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>6</v>
       </c>
@@ -8964,7 +8960,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -8984,7 +8980,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -8998,7 +8994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -9012,7 +9008,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -9032,7 +9028,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -9046,7 +9042,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -9066,7 +9062,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>506</v>
       </c>
@@ -9086,7 +9082,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>382</v>
       </c>
@@ -9106,7 +9102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -9120,7 +9116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -9134,7 +9130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>505</v>
       </c>
@@ -9154,7 +9150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>6</v>
       </c>
@@ -9168,7 +9164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>386</v>
       </c>
@@ -9188,7 +9184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -9208,7 +9204,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -9222,7 +9218,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -9236,7 +9232,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>292</v>
       </c>
@@ -9256,7 +9252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9270,7 +9266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -9290,7 +9286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9304,7 +9300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9318,7 +9314,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9332,7 +9328,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -9346,7 +9342,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -9366,7 +9362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>392</v>
       </c>
@@ -9386,7 +9382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -9400,7 +9396,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -9429,20 +9425,20 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -9462,7 +9458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>394</v>
       </c>
@@ -9482,7 +9478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -9498,7 +9494,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -9514,7 +9510,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9522,7 +9518,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -9542,7 +9538,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -9556,7 +9552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -9576,7 +9572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9590,7 +9586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>543</v>
       </c>
@@ -9610,7 +9606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -9624,7 +9620,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -9638,7 +9634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -9658,7 +9654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9672,7 +9668,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -9692,7 +9688,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9706,7 +9702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9720,7 +9716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -9740,7 +9736,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -9754,7 +9750,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>123</v>
       </c>
@@ -9768,7 +9764,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -9782,7 +9778,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -9802,7 +9798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -9822,7 +9818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -9842,7 +9838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -9862,7 +9858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -9882,7 +9878,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -9896,7 +9892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -9916,7 +9912,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -9930,7 +9926,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -9950,7 +9946,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -9964,7 +9960,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -9978,7 +9974,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -9998,7 +9994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>506</v>
       </c>
@@ -10018,7 +10014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -10032,7 +10028,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -10046,7 +10042,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -10060,7 +10056,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -10074,7 +10070,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -10094,7 +10090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>29</v>
       </c>
@@ -10108,7 +10104,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -10122,7 +10118,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -10142,7 +10138,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -10162,7 +10158,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -10182,7 +10178,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -10202,7 +10198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>422</v>
       </c>
@@ -10222,7 +10218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -10236,7 +10232,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -10265,20 +10261,20 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -10298,7 +10294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -10318,10 +10314,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -10341,7 +10337,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -10355,7 +10351,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -10369,7 +10365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -10383,7 +10379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>425</v>
       </c>
@@ -10403,7 +10399,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -10417,7 +10413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -10431,7 +10427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -10445,7 +10441,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -10465,7 +10461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10479,7 +10475,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -10493,7 +10489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>543</v>
       </c>
@@ -10513,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -10527,7 +10523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -10541,7 +10537,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -10555,7 +10551,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -10569,7 +10565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -10583,7 +10579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -10597,7 +10593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10617,7 +10613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -10631,7 +10627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -10651,7 +10647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -10665,7 +10661,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -10679,7 +10675,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -10699,7 +10695,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -10719,7 +10715,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -10733,7 +10729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -10753,7 +10749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>29</v>
       </c>
@@ -10767,7 +10763,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -10781,7 +10777,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -10801,7 +10797,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -10815,7 +10811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -10829,7 +10825,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -10843,7 +10839,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -10863,7 +10859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -10877,7 +10873,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -10897,7 +10893,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -10911,7 +10907,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -10925,7 +10921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>438</v>
       </c>
@@ -10945,7 +10941,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -10959,7 +10955,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -10979,7 +10975,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -10999,7 +10995,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -11019,7 +11015,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -11033,7 +11029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -11047,7 +11043,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -11061,7 +11057,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -11075,7 +11071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -11089,7 +11085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -11103,7 +11099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -11123,7 +11119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -11137,7 +11133,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -11151,7 +11147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -11165,7 +11161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -11185,7 +11181,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -11199,7 +11195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -11213,7 +11209,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -11227,7 +11223,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -11241,7 +11237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>198</v>
       </c>
@@ -11261,7 +11257,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -11275,7 +11271,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>170</v>
       </c>
@@ -11304,20 +11300,20 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -11337,7 +11333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -11357,7 +11353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -11373,7 +11369,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -11389,11 +11385,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -11413,7 +11409,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -11429,7 +11425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
@@ -11445,7 +11441,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
@@ -11461,7 +11457,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
@@ -11477,7 +11473,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
@@ -11493,7 +11489,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
@@ -11509,11 +11505,11 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -11533,7 +11529,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -11553,7 +11549,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11567,7 +11563,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -11581,7 +11577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -11601,7 +11597,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -11615,7 +11611,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>371</v>
       </c>
@@ -11635,7 +11631,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -11649,7 +11645,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -11663,7 +11659,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -11683,7 +11679,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -11697,7 +11693,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -11711,7 +11707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -11725,7 +11721,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -11745,7 +11741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -11759,7 +11755,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -11773,7 +11769,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -11793,7 +11789,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -11807,7 +11803,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -11821,7 +11817,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -11841,7 +11837,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -11855,7 +11851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -11875,7 +11871,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>506</v>
       </c>
@@ -11895,7 +11891,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -11909,7 +11905,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -11923,7 +11919,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>505</v>
       </c>
@@ -11943,7 +11939,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -11957,7 +11953,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -11971,7 +11967,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -11991,7 +11987,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>195</v>
       </c>
@@ -12005,7 +12001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -12019,7 +12015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -12033,7 +12029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -12053,7 +12049,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -12067,7 +12063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -12081,7 +12077,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>48</v>
       </c>
@@ -12095,7 +12091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -12115,7 +12111,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -12129,7 +12125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -12143,7 +12139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -12157,7 +12153,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -12171,7 +12167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>48</v>
       </c>
@@ -12185,7 +12181,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>198</v>
       </c>
@@ -12219,20 +12215,20 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -12252,7 +12248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -12272,7 +12268,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12286,7 +12282,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12300,7 +12296,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12314,7 +12310,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12322,7 +12318,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -12342,7 +12338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -12356,7 +12352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -12370,7 +12366,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -12387,7 +12383,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>505</v>
       </c>
@@ -12407,7 +12403,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12421,7 +12417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12435,7 +12431,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -12449,7 +12445,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>48</v>
       </c>
@@ -12463,7 +12459,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -12483,7 +12479,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -12497,7 +12493,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12511,7 +12507,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -12525,7 +12521,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -12539,7 +12535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -12553,7 +12549,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>48</v>
       </c>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4895" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E026574-0259-432E-A350-C78361405556}"/>
+  <xr:revisionPtr revIDLastSave="4904" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C8B8BC2-3AF0-4639-84A1-B251E0E8EBCA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="565">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2244,7 +2244,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2779,7 +2779,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4182,7 +4182,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CC5EC2A5-C1B7-4965-B1C3-FBC85B4B1F66}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4194,7 +4194,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{57996D64-BB28-4136-B316-CB8295B00E23}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4268,10 +4268,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4309,7 +4313,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4415,7 +4419,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4557,7 +4561,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4570,7 +4574,7 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4859,7 +4863,7 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5339,8 +5343,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5816,7 +5820,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5881,17 +5885,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -5949,6 +5953,26 @@
       </c>
       <c r="F3" t="s">
         <v>564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5965,7 +5989,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6255,7 +6279,7 @@
         <v>2024</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -6264,11 +6288,11 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6277,7 +6301,7 @@
       </c>
       <c r="B15" s="6">
         <f>SUM(B2:B14)</f>
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C15" s="6">
         <f>SUM(C2:C14)</f>
@@ -6289,11 +6313,11 @@
       </c>
       <c r="E15" s="6">
         <f>SUM(E2:E14)</f>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F15" s="7">
         <f>(D15-E15)/D15</f>
-        <v>0.43773584905660379</v>
+        <v>0.43396226415094341</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6302,7 +6326,7 @@
       </c>
       <c r="B16" s="6">
         <f>AVERAGE(B2:B14)</f>
-        <v>12.461538461538462</v>
+        <v>12.538461538461538</v>
       </c>
       <c r="C16" s="6">
         <f>AVERAGE(C2:C14)</f>
@@ -6314,11 +6338,11 @@
       </c>
       <c r="E16" s="6">
         <f>AVERAGE(E2:E14)</f>
-        <v>11.461538461538462</v>
+        <v>11.538461538461538</v>
       </c>
       <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
-        <v>0.43773584905660373</v>
+        <v>0.43396226415094336</v>
       </c>
     </row>
   </sheetData>
@@ -6343,7 +6367,7 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7042,7 +7066,7 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7618,7 +7642,7 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8460,7 +8484,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9424,7 +9448,7 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10260,7 +10284,7 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11299,7 +11323,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12214,7 +12238,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4904" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C8B8BC2-3AF0-4639-84A1-B251E0E8EBCA}"/>
+  <xr:revisionPtr revIDLastSave="4912" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9015CA8-3D7E-49DC-95FE-28A964ECDABD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="19305" windowHeight="17130" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="566">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1743,6 +1743,9 @@
   </si>
   <si>
     <t>3-6 7-6(4) 6-4</t>
+  </si>
+  <si>
+    <t>ABU DHABI OPEN</t>
   </si>
 </sst>
 </file>
@@ -2244,7 +2247,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2779,7 +2782,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4273,9 +4276,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4313,7 +4316,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4419,7 +4422,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4561,7 +4564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5885,10 +5888,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5973,6 +5976,26 @@
       </c>
       <c r="F5" t="s">
         <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>565</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -6279,7 +6302,7 @@
         <v>2024</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -6288,11 +6311,11 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6301,7 +6324,7 @@
       </c>
       <c r="B15" s="6">
         <f>SUM(B2:B14)</f>
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" s="6">
         <f>SUM(C2:C14)</f>
@@ -6313,11 +6336,11 @@
       </c>
       <c r="E15" s="6">
         <f>SUM(E2:E14)</f>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F15" s="7">
         <f>(D15-E15)/D15</f>
-        <v>0.43396226415094341</v>
+        <v>0.43018867924528303</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6326,7 +6349,7 @@
       </c>
       <c r="B16" s="6">
         <f>AVERAGE(B2:B14)</f>
-        <v>12.538461538461538</v>
+        <v>12.615384615384615</v>
       </c>
       <c r="C16" s="6">
         <f>AVERAGE(C2:C14)</f>
@@ -6338,11 +6361,11 @@
       </c>
       <c r="E16" s="6">
         <f>AVERAGE(E2:E14)</f>
-        <v>11.538461538461538</v>
+        <v>11.615384615384615</v>
       </c>
       <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
-        <v>0.43396226415094336</v>
+        <v>0.43018867924528298</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4912" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9015CA8-3D7E-49DC-95FE-28A964ECDABD}"/>
+  <xr:revisionPtr revIDLastSave="4936" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B295F31-5891-4C73-B770-D68CC55C5F4A}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="19305" windowHeight="17130" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="6060" yWindow="3750" windowWidth="19305" windowHeight="17130" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="568">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1746,6 +1746,12 @@
   </si>
   <si>
     <t>ABU DHABI OPEN</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>7-6(6) 7-6(5)</t>
   </si>
 </sst>
 </file>
@@ -2121,7 +2127,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2247,7 +2253,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2782,7 +2788,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2</c:v>
+                  <c:v>-0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5347,7 +5353,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5888,10 +5894,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E9" activeCellId="1" sqref="E2 E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5996,6 +6002,68 @@
       </c>
       <c r="F7" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -6302,20 +6370,20 @@
         <v>2024</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>-0.33333333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6324,7 +6392,7 @@
       </c>
       <c r="B15" s="6">
         <f>SUM(B2:B14)</f>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" s="6">
         <f>SUM(C2:C14)</f>
@@ -6332,15 +6400,15 @@
       </c>
       <c r="D15" s="6">
         <f>SUM(D2:D14)</f>
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E2:E14)</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F15" s="7">
         <f>(D15-E15)/D15</f>
-        <v>0.43018867924528303</v>
+        <v>0.43071161048689138</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6349,7 +6417,7 @@
       </c>
       <c r="B16" s="6">
         <f>AVERAGE(B2:B14)</f>
-        <v>12.615384615384615</v>
+        <v>12.692307692307692</v>
       </c>
       <c r="C16" s="6">
         <f>AVERAGE(C2:C14)</f>
@@ -6357,15 +6425,15 @@
       </c>
       <c r="D16" s="6">
         <f>AVERAGE(D2:D14)</f>
-        <v>20.384615384615383</v>
+        <v>20.53846153846154</v>
       </c>
       <c r="E16" s="6">
         <f>AVERAGE(E2:E14)</f>
-        <v>11.615384615384615</v>
+        <v>11.692307692307692</v>
       </c>
       <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
-        <v>0.43018867924528298</v>
+        <v>0.43071161048689144</v>
       </c>
     </row>
   </sheetData>
@@ -7090,7 +7158,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4936" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B295F31-5891-4C73-B770-D68CC55C5F4A}"/>
+  <xr:revisionPtr revIDLastSave="4951" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1FD5A36-A69A-4A1D-B48F-701E8D662F85}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="3750" windowWidth="19305" windowHeight="17130" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="569">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1752,6 +1752,9 @@
   </si>
   <si>
     <t>7-6(6) 7-6(5)</t>
+  </si>
+  <si>
+    <t>Liudmila Samsonova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -2127,7 +2130,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2253,7 +2256,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2788,7 +2791,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.33333333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4282,9 +4285,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4322,7 +4325,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4428,7 +4431,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4570,7 +4573,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5894,10 +5897,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" activeCellId="1" sqref="E2 E9:E10"/>
+      <selection activeCell="E7" activeCellId="2" sqref="E3 E5 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6064,6 +6067,54 @@
       </c>
       <c r="F12" t="s">
         <v>567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>543</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>568</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -6370,20 +6421,20 @@
         <v>2024</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>-0.33333333333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6392,7 +6443,7 @@
       </c>
       <c r="B15" s="6">
         <f>SUM(B2:B14)</f>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="6">
         <f>SUM(C2:C14)</f>
@@ -6400,15 +6451,15 @@
       </c>
       <c r="D15" s="6">
         <f>SUM(D2:D14)</f>
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E2:E14)</f>
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F15" s="7">
         <f>(D15-E15)/D15</f>
-        <v>0.43071161048689138</v>
+        <v>0.43122676579925651</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6417,7 +6468,7 @@
       </c>
       <c r="B16" s="6">
         <f>AVERAGE(B2:B14)</f>
-        <v>12.692307692307692</v>
+        <v>12.76923076923077</v>
       </c>
       <c r="C16" s="6">
         <f>AVERAGE(C2:C14)</f>
@@ -6425,15 +6476,15 @@
       </c>
       <c r="D16" s="6">
         <f>AVERAGE(D2:D14)</f>
-        <v>20.53846153846154</v>
+        <v>20.692307692307693</v>
       </c>
       <c r="E16" s="6">
         <f>AVERAGE(E2:E14)</f>
-        <v>11.692307692307692</v>
+        <v>11.76923076923077</v>
       </c>
       <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
-        <v>0.43071161048689144</v>
+        <v>0.43122676579925651</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4951" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1FD5A36-A69A-4A1D-B48F-701E8D662F85}"/>
+  <xr:revisionPtr revIDLastSave="4965" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{534133B2-9AF9-42F1-ACE9-E4AC476D94BE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="571">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1755,6 +1755,12 @@
   </si>
   <si>
     <t>Liudmila Samsonova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Elisabetta Cocciaretto (ITALY)</t>
+  </si>
+  <si>
+    <t>7-6(4) 7-5</t>
   </si>
 </sst>
 </file>
@@ -2130,7 +2136,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2256,7 +2262,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2791,7 +2797,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4590,17 +4596,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4620,7 +4626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>497</v>
       </c>
@@ -4640,7 +4646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -4660,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -4674,7 +4680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>511</v>
       </c>
@@ -4694,7 +4700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -4708,7 +4714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>512</v>
       </c>
@@ -4729,7 +4735,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4744,7 +4750,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>513</v>
       </c>
@@ -4764,7 +4770,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -4779,7 +4785,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -4793,7 +4799,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -4807,7 +4813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>514</v>
       </c>
@@ -4827,7 +4833,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4841,7 +4847,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>515</v>
       </c>
@@ -4879,17 +4885,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4909,7 +4915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -4929,7 +4935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4943,7 +4949,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -4957,7 +4963,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -4971,7 +4977,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -4991,7 +4997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5005,7 +5011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5019,7 +5025,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5033,7 +5039,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -5047,7 +5053,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -5061,7 +5067,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -5075,7 +5081,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5095,7 +5101,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5109,7 +5115,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5123,7 +5129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5137,7 +5143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -5157,7 +5163,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5171,7 +5177,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -5191,7 +5197,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5211,7 +5217,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -5225,7 +5231,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>491</v>
       </c>
@@ -5245,7 +5251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -5259,7 +5265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>505</v>
       </c>
@@ -5279,7 +5285,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -5293,7 +5299,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5313,7 +5319,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>29</v>
       </c>
@@ -5327,7 +5333,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -5359,17 +5365,17 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5389,7 +5395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>544</v>
       </c>
@@ -5409,7 +5415,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5423,7 +5429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5437,7 +5443,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5451,7 +5457,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5471,7 +5477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5485,7 +5491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5499,7 +5505,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>543</v>
       </c>
@@ -5519,7 +5525,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5533,7 +5539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -5553,7 +5559,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -5567,7 +5573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5581,7 +5587,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5595,7 +5601,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5609,7 +5615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5623,7 +5629,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>48</v>
       </c>
@@ -5637,7 +5643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -5657,7 +5663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5671,7 +5677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5691,7 +5697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>554</v>
       </c>
@@ -5711,7 +5717,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5725,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>556</v>
       </c>
@@ -5745,7 +5751,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>505</v>
       </c>
@@ -5765,7 +5771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5785,7 +5791,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>559</v>
       </c>
@@ -5805,7 +5811,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5836,17 +5842,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5866,7 +5872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>561</v>
       </c>
@@ -5897,23 +5903,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" activeCellId="2" sqref="E3 E5 E7"/>
+      <selection activeCell="E18" activeCellId="3" sqref="E2 E9:E10 E14:E15 E18:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5933,7 +5939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -5953,7 +5959,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -5967,7 +5973,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -5987,7 +5993,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>565</v>
       </c>
@@ -6007,7 +6013,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>566</v>
       </c>
@@ -6027,7 +6033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6041,7 +6047,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6055,7 +6061,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6069,7 +6075,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>543</v>
       </c>
@@ -6089,7 +6095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -6103,7 +6109,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -6115,6 +6121,54 @@
       </c>
       <c r="F16" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>569</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -6134,17 +6188,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -6164,7 +6218,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -6185,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -6206,7 +6260,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -6227,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -6248,7 +6302,7 @@
         <v>0.41935483870967744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -6269,7 +6323,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -6290,7 +6344,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -6311,7 +6365,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -6332,7 +6386,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -6353,7 +6407,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -6374,7 +6428,7 @@
         <v>0.6470588235294118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -6395,7 +6449,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2023</v>
       </c>
@@ -6416,34 +6470,34 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2024</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="6">
         <f>SUM(B2:B14)</f>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="6">
         <f>SUM(C2:C14)</f>
@@ -6451,24 +6505,24 @@
       </c>
       <c r="D15" s="6">
         <f>SUM(D2:D14)</f>
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E2:E14)</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F15" s="7">
         <f>(D15-E15)/D15</f>
-        <v>0.43122676579925651</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.43173431734317341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>499</v>
       </c>
       <c r="B16" s="6">
         <f>AVERAGE(B2:B14)</f>
-        <v>12.76923076923077</v>
+        <v>12.846153846153847</v>
       </c>
       <c r="C16" s="6">
         <f>AVERAGE(C2:C14)</f>
@@ -6476,15 +6530,15 @@
       </c>
       <c r="D16" s="6">
         <f>AVERAGE(D2:D14)</f>
-        <v>20.692307692307693</v>
+        <v>20.846153846153847</v>
       </c>
       <c r="E16" s="6">
         <f>AVERAGE(E2:E14)</f>
-        <v>11.76923076923077</v>
+        <v>11.846153846153847</v>
       </c>
       <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
-        <v>0.43122676579925651</v>
+        <v>0.43173431734317341</v>
       </c>
     </row>
   </sheetData>
@@ -6513,17 +6567,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6543,7 +6597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>516</v>
       </c>
@@ -6563,7 +6617,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -6583,7 +6637,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -6597,7 +6651,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -6611,7 +6665,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>517</v>
       </c>
@@ -6631,7 +6685,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6645,7 +6699,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6659,7 +6713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6673,8 +6727,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>518</v>
       </c>
@@ -6694,7 +6748,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -6708,7 +6762,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>511</v>
       </c>
@@ -6728,7 +6782,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -6742,7 +6796,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -6756,7 +6810,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>519</v>
       </c>
@@ -6776,7 +6830,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>520</v>
       </c>
@@ -6796,7 +6850,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -6810,7 +6864,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -6824,7 +6878,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -6838,7 +6892,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -6852,7 +6906,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -6866,7 +6920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -6880,7 +6934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>521</v>
       </c>
@@ -6900,7 +6954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -6920,7 +6974,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -6934,7 +6988,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>123</v>
       </c>
@@ -6948,7 +7002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -6962,7 +7016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -6976,7 +7030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>522</v>
       </c>
@@ -6996,7 +7050,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -7016,7 +7070,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>523</v>
       </c>
@@ -7036,7 +7090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>6</v>
       </c>
@@ -7050,7 +7104,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>123</v>
       </c>
@@ -7064,7 +7118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -7078,7 +7132,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -7092,7 +7146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>524</v>
       </c>
@@ -7112,7 +7166,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -7126,7 +7180,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>525</v>
       </c>
@@ -7146,7 +7200,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>527</v>
       </c>
@@ -7166,7 +7220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -7180,7 +7234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -7212,17 +7266,17 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7242,7 +7296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>528</v>
       </c>
@@ -7262,7 +7316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -7276,7 +7330,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>529</v>
       </c>
@@ -7296,7 +7350,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -7310,7 +7364,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -7330,7 +7384,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -7344,7 +7398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>123</v>
       </c>
@@ -7358,7 +7412,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -7372,7 +7426,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -7392,7 +7446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>530</v>
       </c>
@@ -7412,7 +7466,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7426,7 +7480,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7440,7 +7494,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7454,7 +7508,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>48</v>
       </c>
@@ -7468,7 +7522,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>531</v>
       </c>
@@ -7488,7 +7542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -7508,7 +7562,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>533</v>
       </c>
@@ -7528,7 +7582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>534</v>
       </c>
@@ -7548,7 +7602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -7562,7 +7616,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -7576,7 +7630,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>520</v>
       </c>
@@ -7596,7 +7650,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -7616,7 +7670,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>6</v>
       </c>
@@ -7630,7 +7684,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7644,7 +7698,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7658,7 +7712,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -7678,7 +7732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -7698,7 +7752,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -7712,7 +7766,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>535</v>
       </c>
@@ -7732,7 +7786,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>524</v>
       </c>
@@ -7788,17 +7842,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7818,7 +7872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>509</v>
       </c>
@@ -7838,7 +7892,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7852,7 +7906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7866,7 +7920,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>510</v>
       </c>
@@ -7886,7 +7940,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -7900,7 +7954,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -7914,7 +7968,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -7934,7 +7988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>536</v>
       </c>
@@ -7954,7 +8008,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -7968,7 +8022,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -7982,7 +8036,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -7996,7 +8050,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -8010,7 +8064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -8030,7 +8084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -8044,7 +8098,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -8064,7 +8118,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -8084,7 +8138,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -8098,7 +8152,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -8112,7 +8166,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -8126,7 +8180,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>48</v>
       </c>
@@ -8140,7 +8194,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>537</v>
       </c>
@@ -8160,7 +8214,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -8174,7 +8228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -8188,7 +8242,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>538</v>
       </c>
@@ -8208,7 +8262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -8222,7 +8276,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -8236,7 +8290,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8250,7 +8304,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>48</v>
       </c>
@@ -8264,7 +8318,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -8284,7 +8338,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>507</v>
       </c>
@@ -8304,7 +8358,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>286</v>
       </c>
@@ -8324,7 +8378,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -8344,7 +8398,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -8358,7 +8412,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -8378,7 +8432,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -8392,7 +8446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>292</v>
       </c>
@@ -8412,7 +8466,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -8426,7 +8480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>123</v>
       </c>
@@ -8440,7 +8494,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8454,7 +8508,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -8474,7 +8528,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>342</v>
       </c>
@@ -8494,7 +8548,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8508,7 +8562,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8522,7 +8576,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -8536,7 +8590,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>48</v>
       </c>
@@ -8550,7 +8604,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>539</v>
       </c>
@@ -8570,7 +8624,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -8584,7 +8638,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -8598,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8630,17 +8684,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -8660,7 +8714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -8680,7 +8734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8694,7 +8748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>123</v>
       </c>
@@ -8708,7 +8762,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -8728,7 +8782,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -8742,7 +8796,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>123</v>
       </c>
@@ -8756,7 +8810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -8770,7 +8824,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -8784,7 +8838,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -8804,7 +8858,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -8818,7 +8872,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -8832,7 +8886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>28</v>
       </c>
@@ -8846,7 +8900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -8860,7 +8914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -8874,7 +8928,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>363</v>
       </c>
@@ -8894,7 +8948,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -8914,7 +8968,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -8928,7 +8982,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -8942,7 +8996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>543</v>
       </c>
@@ -8962,7 +9016,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -8976,7 +9030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -8996,7 +9050,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -9010,7 +9064,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -9024,7 +9078,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -9044,7 +9098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -9058,7 +9112,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -9072,7 +9126,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>371</v>
       </c>
@@ -9092,7 +9146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>177</v>
       </c>
@@ -9112,7 +9166,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>6</v>
       </c>
@@ -9126,7 +9180,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -9146,7 +9200,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -9160,7 +9214,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -9174,7 +9228,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -9194,7 +9248,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -9208,7 +9262,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -9228,7 +9282,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>506</v>
       </c>
@@ -9248,7 +9302,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>382</v>
       </c>
@@ -9268,7 +9322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -9282,7 +9336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -9296,7 +9350,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>505</v>
       </c>
@@ -9316,7 +9370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>6</v>
       </c>
@@ -9330,7 +9384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>386</v>
       </c>
@@ -9350,7 +9404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -9370,7 +9424,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -9384,7 +9438,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -9398,7 +9452,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>292</v>
       </c>
@@ -9418,7 +9472,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9432,7 +9486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -9452,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9466,7 +9520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9480,7 +9534,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9494,7 +9548,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -9508,7 +9562,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -9528,7 +9582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>392</v>
       </c>
@@ -9548,7 +9602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -9562,7 +9616,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -9594,17 +9648,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -9624,7 +9678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>394</v>
       </c>
@@ -9644,7 +9698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -9660,7 +9714,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -9676,7 +9730,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9684,7 +9738,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -9704,7 +9758,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -9718,7 +9772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -9738,7 +9792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9752,7 +9806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>543</v>
       </c>
@@ -9772,7 +9826,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -9786,7 +9840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -9800,7 +9854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -9820,7 +9874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9834,7 +9888,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -9854,7 +9908,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9868,7 +9922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9882,7 +9936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -9902,7 +9956,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -9916,7 +9970,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>123</v>
       </c>
@@ -9930,7 +9984,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -9944,7 +9998,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -9964,7 +10018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -9984,7 +10038,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -10004,7 +10058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -10024,7 +10078,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -10044,7 +10098,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -10058,7 +10112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -10078,7 +10132,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -10092,7 +10146,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -10112,7 +10166,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -10126,7 +10180,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -10140,7 +10194,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -10160,7 +10214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>506</v>
       </c>
@@ -10180,7 +10234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -10194,7 +10248,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -10208,7 +10262,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -10222,7 +10276,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -10236,7 +10290,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -10256,7 +10310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>29</v>
       </c>
@@ -10270,7 +10324,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -10284,7 +10338,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -10304,7 +10358,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -10324,7 +10378,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -10344,7 +10398,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -10364,7 +10418,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>422</v>
       </c>
@@ -10384,7 +10438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -10398,7 +10452,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -10430,17 +10484,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -10460,7 +10514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -10480,10 +10534,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -10503,7 +10557,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -10517,7 +10571,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -10531,7 +10585,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -10545,7 +10599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>425</v>
       </c>
@@ -10565,7 +10619,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -10579,7 +10633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -10593,7 +10647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -10607,7 +10661,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -10627,7 +10681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10641,7 +10695,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -10655,7 +10709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>543</v>
       </c>
@@ -10675,7 +10729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -10689,7 +10743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -10703,7 +10757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -10717,7 +10771,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -10731,7 +10785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -10745,7 +10799,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -10759,7 +10813,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10779,7 +10833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -10793,7 +10847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -10813,7 +10867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -10827,7 +10881,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -10841,7 +10895,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -10861,7 +10915,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -10881,7 +10935,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -10895,7 +10949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -10915,7 +10969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>29</v>
       </c>
@@ -10929,7 +10983,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -10943,7 +10997,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -10963,7 +11017,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -10977,7 +11031,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -10991,7 +11045,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -11005,7 +11059,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -11025,7 +11079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -11039,7 +11093,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -11059,7 +11113,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -11073,7 +11127,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -11087,7 +11141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>438</v>
       </c>
@@ -11107,7 +11161,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -11121,7 +11175,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -11141,7 +11195,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -11161,7 +11215,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -11181,7 +11235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -11195,7 +11249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -11209,7 +11263,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -11223,7 +11277,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -11237,7 +11291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -11251,7 +11305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -11265,7 +11319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -11285,7 +11339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -11299,7 +11353,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -11313,7 +11367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -11327,7 +11381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -11347,7 +11401,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -11361,7 +11415,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -11375,7 +11429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -11389,7 +11443,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -11403,7 +11457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>198</v>
       </c>
@@ -11423,7 +11477,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -11437,7 +11491,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>170</v>
       </c>
@@ -11469,17 +11523,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -11499,7 +11553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -11519,7 +11573,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -11535,7 +11589,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -11551,11 +11605,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -11575,7 +11629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -11591,7 +11645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
@@ -11607,7 +11661,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
@@ -11623,7 +11677,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
@@ -11639,7 +11693,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
@@ -11655,7 +11709,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
@@ -11671,11 +11725,11 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -11695,7 +11749,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -11715,7 +11769,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11729,7 +11783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -11743,7 +11797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -11763,7 +11817,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -11777,7 +11831,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>371</v>
       </c>
@@ -11797,7 +11851,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -11811,7 +11865,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -11825,7 +11879,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -11845,7 +11899,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -11859,7 +11913,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -11873,7 +11927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -11887,7 +11941,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -11907,7 +11961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -11921,7 +11975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -11935,7 +11989,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -11955,7 +12009,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -11969,7 +12023,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -11983,7 +12037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -12003,7 +12057,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -12017,7 +12071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -12037,7 +12091,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>506</v>
       </c>
@@ -12057,7 +12111,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -12071,7 +12125,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -12085,7 +12139,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>505</v>
       </c>
@@ -12105,7 +12159,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -12119,7 +12173,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -12133,7 +12187,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -12153,7 +12207,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>195</v>
       </c>
@@ -12167,7 +12221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -12181,7 +12235,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -12195,7 +12249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -12215,7 +12269,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -12229,7 +12283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -12243,7 +12297,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>48</v>
       </c>
@@ -12257,7 +12311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -12277,7 +12331,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -12291,7 +12345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -12305,7 +12359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -12319,7 +12373,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -12333,7 +12387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>48</v>
       </c>
@@ -12347,7 +12401,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>198</v>
       </c>
@@ -12384,17 +12438,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -12414,7 +12468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -12434,7 +12488,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12448,7 +12502,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12462,7 +12516,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12476,7 +12530,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12484,7 +12538,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -12504,7 +12558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -12518,7 +12572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -12532,7 +12586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -12549,7 +12603,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>505</v>
       </c>
@@ -12569,7 +12623,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12583,7 +12637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12597,7 +12651,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -12611,7 +12665,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>48</v>
       </c>
@@ -12625,7 +12679,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -12645,7 +12699,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -12659,7 +12713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12673,7 +12727,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -12687,7 +12741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -12701,7 +12755,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -12715,7 +12769,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>48</v>
       </c>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4965" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{534133B2-9AF9-42F1-ACE9-E4AC476D94BE}"/>
+  <xr:revisionPtr revIDLastSave="4972" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E97B303-CADB-448A-A9AB-FBC13859AEF3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="573">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1761,6 +1761,12 @@
   </si>
   <si>
     <t>7-6(4) 7-5</t>
+  </si>
+  <si>
+    <t>OPEN DE ROUEN</t>
+  </si>
+  <si>
+    <t>Martina Trevisan (ITALY)</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2268,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2797,7 +2803,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4596,17 +4602,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4626,7 +4632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>497</v>
       </c>
@@ -4646,7 +4652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -4666,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -4680,7 +4686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>511</v>
       </c>
@@ -4700,7 +4706,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -4714,7 +4720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>512</v>
       </c>
@@ -4735,7 +4741,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4750,7 +4756,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>513</v>
       </c>
@@ -4770,7 +4776,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -4785,7 +4791,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -4799,7 +4805,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -4813,7 +4819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>514</v>
       </c>
@@ -4833,7 +4839,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4847,7 +4853,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>515</v>
       </c>
@@ -4885,17 +4891,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4915,7 +4921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -4935,7 +4941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4949,7 +4955,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -4963,7 +4969,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -4977,7 +4983,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -4997,7 +5003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5011,7 +5017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5025,7 +5031,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5039,7 +5045,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -5053,7 +5059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -5067,7 +5073,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -5081,7 +5087,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5101,7 +5107,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5115,7 +5121,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5129,7 +5135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5143,7 +5149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -5163,7 +5169,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5177,7 +5183,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -5197,7 +5203,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5217,7 +5223,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -5231,7 +5237,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>491</v>
       </c>
@@ -5251,7 +5257,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -5265,7 +5271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>505</v>
       </c>
@@ -5285,7 +5291,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -5299,7 +5305,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5319,7 +5325,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>29</v>
       </c>
@@ -5333,7 +5339,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -5365,17 +5371,17 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5395,7 +5401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>544</v>
       </c>
@@ -5415,7 +5421,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5429,7 +5435,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5443,7 +5449,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5457,7 +5463,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5477,7 +5483,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5491,7 +5497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5505,7 +5511,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>543</v>
       </c>
@@ -5525,7 +5531,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5539,7 +5545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -5559,7 +5565,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -5573,7 +5579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5587,7 +5593,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5601,7 +5607,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5615,7 +5621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5629,7 +5635,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>48</v>
       </c>
@@ -5643,7 +5649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -5663,7 +5669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5677,7 +5683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5697,7 +5703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>554</v>
       </c>
@@ -5717,7 +5723,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5731,7 +5737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>556</v>
       </c>
@@ -5751,7 +5757,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>505</v>
       </c>
@@ -5771,7 +5777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5791,7 +5797,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>559</v>
       </c>
@@ -5811,7 +5817,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5842,17 +5848,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5872,7 +5878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>561</v>
       </c>
@@ -5903,23 +5909,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" activeCellId="3" sqref="E2 E9:E10 E14:E15 E18:E19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5939,7 +5945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -5959,7 +5965,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -5973,7 +5979,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -5993,7 +5999,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>565</v>
       </c>
@@ -6013,7 +6019,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>566</v>
       </c>
@@ -6033,7 +6039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6047,7 +6053,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6061,7 +6067,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6075,7 +6081,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>543</v>
       </c>
@@ -6095,7 +6101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -6109,7 +6115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -6123,7 +6129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -6143,7 +6149,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -6157,7 +6163,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6169,6 +6175,26 @@
       </c>
       <c r="F20" t="s">
         <v>570</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>571</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>572</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6188,17 +6214,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -6218,7 +6244,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -6239,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -6260,7 +6286,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -6281,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -6302,7 +6328,7 @@
         <v>0.41935483870967744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -6323,7 +6349,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -6344,7 +6370,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -6365,7 +6391,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -6386,7 +6412,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -6407,7 +6433,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -6428,7 +6454,7 @@
         <v>0.6470588235294118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -6449,7 +6475,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2023</v>
       </c>
@@ -6470,12 +6496,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2024</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -6484,20 +6510,20 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="6">
         <f>SUM(B2:B14)</f>
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="6">
         <f>SUM(C2:C14)</f>
@@ -6509,20 +6535,20 @@
       </c>
       <c r="E15" s="6">
         <f>SUM(E2:E14)</f>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F15" s="7">
         <f>(D15-E15)/D15</f>
-        <v>0.43173431734317341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.4280442804428044</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>499</v>
       </c>
       <c r="B16" s="6">
         <f>AVERAGE(B2:B14)</f>
-        <v>12.846153846153847</v>
+        <v>12.923076923076923</v>
       </c>
       <c r="C16" s="6">
         <f>AVERAGE(C2:C14)</f>
@@ -6534,11 +6560,11 @@
       </c>
       <c r="E16" s="6">
         <f>AVERAGE(E2:E14)</f>
-        <v>11.846153846153847</v>
+        <v>11.923076923076923</v>
       </c>
       <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
-        <v>0.43173431734317341</v>
+        <v>0.4280442804428044</v>
       </c>
     </row>
   </sheetData>
@@ -6567,17 +6593,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6597,7 +6623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>516</v>
       </c>
@@ -6617,7 +6643,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -6637,7 +6663,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -6651,7 +6677,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -6665,7 +6691,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>517</v>
       </c>
@@ -6685,7 +6711,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6699,7 +6725,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6713,7 +6739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6727,8 +6753,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>518</v>
       </c>
@@ -6748,7 +6774,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -6762,7 +6788,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>511</v>
       </c>
@@ -6782,7 +6808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -6796,7 +6822,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -6810,7 +6836,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>519</v>
       </c>
@@ -6830,7 +6856,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>520</v>
       </c>
@@ -6850,7 +6876,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -6864,7 +6890,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -6878,7 +6904,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -6892,7 +6918,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -6906,7 +6932,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -6920,7 +6946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -6934,7 +6960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>521</v>
       </c>
@@ -6954,7 +6980,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -6974,7 +7000,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -6988,7 +7014,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>123</v>
       </c>
@@ -7002,7 +7028,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7016,7 +7042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7030,7 +7056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>522</v>
       </c>
@@ -7050,7 +7076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -7070,7 +7096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>523</v>
       </c>
@@ -7090,7 +7116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>6</v>
       </c>
@@ -7104,7 +7130,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>123</v>
       </c>
@@ -7118,7 +7144,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -7132,7 +7158,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -7146,7 +7172,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>524</v>
       </c>
@@ -7166,7 +7192,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -7180,7 +7206,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>525</v>
       </c>
@@ -7200,7 +7226,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>527</v>
       </c>
@@ -7220,7 +7246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -7234,7 +7260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -7266,17 +7292,17 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7296,7 +7322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>528</v>
       </c>
@@ -7316,7 +7342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -7330,7 +7356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>529</v>
       </c>
@@ -7350,7 +7376,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -7364,7 +7390,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -7384,7 +7410,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -7398,7 +7424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>123</v>
       </c>
@@ -7412,7 +7438,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -7426,7 +7452,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -7446,7 +7472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>530</v>
       </c>
@@ -7466,7 +7492,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7480,7 +7506,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7494,7 +7520,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7508,7 +7534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>48</v>
       </c>
@@ -7522,7 +7548,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>531</v>
       </c>
@@ -7542,7 +7568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -7562,7 +7588,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>533</v>
       </c>
@@ -7582,7 +7608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>534</v>
       </c>
@@ -7602,7 +7628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -7616,7 +7642,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -7630,7 +7656,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>520</v>
       </c>
@@ -7650,7 +7676,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -7670,7 +7696,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>6</v>
       </c>
@@ -7684,7 +7710,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7698,7 +7724,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7712,7 +7738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -7732,7 +7758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -7752,7 +7778,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -7766,7 +7792,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>535</v>
       </c>
@@ -7786,7 +7812,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>524</v>
       </c>
@@ -7842,17 +7868,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7872,7 +7898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>509</v>
       </c>
@@ -7892,7 +7918,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7906,7 +7932,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7920,7 +7946,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>510</v>
       </c>
@@ -7940,7 +7966,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -7954,7 +7980,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -7968,7 +7994,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -7988,7 +8014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>536</v>
       </c>
@@ -8008,7 +8034,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -8022,7 +8048,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -8036,7 +8062,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -8050,7 +8076,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -8064,7 +8090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -8084,7 +8110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -8098,7 +8124,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -8118,7 +8144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -8138,7 +8164,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -8152,7 +8178,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -8166,7 +8192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -8180,7 +8206,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>48</v>
       </c>
@@ -8194,7 +8220,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>537</v>
       </c>
@@ -8214,7 +8240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -8228,7 +8254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -8242,7 +8268,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>538</v>
       </c>
@@ -8262,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -8276,7 +8302,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -8290,7 +8316,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8304,7 +8330,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>48</v>
       </c>
@@ -8318,7 +8344,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -8338,7 +8364,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>507</v>
       </c>
@@ -8358,7 +8384,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>286</v>
       </c>
@@ -8378,7 +8404,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -8398,7 +8424,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -8412,7 +8438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -8432,7 +8458,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -8446,7 +8472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>292</v>
       </c>
@@ -8466,7 +8492,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -8480,7 +8506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>123</v>
       </c>
@@ -8494,7 +8520,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8508,7 +8534,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -8528,7 +8554,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>342</v>
       </c>
@@ -8548,7 +8574,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8562,7 +8588,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8576,7 +8602,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -8590,7 +8616,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>48</v>
       </c>
@@ -8604,7 +8630,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>539</v>
       </c>
@@ -8624,7 +8650,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -8638,7 +8664,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -8652,7 +8678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8684,17 +8710,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -8714,7 +8740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -8734,7 +8760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8748,7 +8774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>123</v>
       </c>
@@ -8762,7 +8788,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -8782,7 +8808,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -8796,7 +8822,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>123</v>
       </c>
@@ -8810,7 +8836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -8824,7 +8850,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -8838,7 +8864,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -8858,7 +8884,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -8872,7 +8898,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -8886,7 +8912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>28</v>
       </c>
@@ -8900,7 +8926,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -8914,7 +8940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -8928,7 +8954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>363</v>
       </c>
@@ -8948,7 +8974,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -8968,7 +8994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -8982,7 +9008,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -8996,7 +9022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>543</v>
       </c>
@@ -9016,7 +9042,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -9030,7 +9056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -9050,7 +9076,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -9064,7 +9090,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -9078,7 +9104,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -9098,7 +9124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -9112,7 +9138,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -9126,7 +9152,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>371</v>
       </c>
@@ -9146,7 +9172,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>177</v>
       </c>
@@ -9166,7 +9192,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>6</v>
       </c>
@@ -9180,7 +9206,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -9200,7 +9226,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -9214,7 +9240,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -9228,7 +9254,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -9248,7 +9274,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -9262,7 +9288,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -9282,7 +9308,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>506</v>
       </c>
@@ -9302,7 +9328,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>382</v>
       </c>
@@ -9322,7 +9348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -9336,7 +9362,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -9350,7 +9376,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>505</v>
       </c>
@@ -9370,7 +9396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>6</v>
       </c>
@@ -9384,7 +9410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>386</v>
       </c>
@@ -9404,7 +9430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -9424,7 +9450,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -9438,7 +9464,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -9452,7 +9478,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>292</v>
       </c>
@@ -9472,7 +9498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9486,7 +9512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -9506,7 +9532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9520,7 +9546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9534,7 +9560,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9548,7 +9574,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -9562,7 +9588,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -9582,7 +9608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>392</v>
       </c>
@@ -9602,7 +9628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -9616,7 +9642,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -9648,17 +9674,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -9678,7 +9704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>394</v>
       </c>
@@ -9698,7 +9724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -9714,7 +9740,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -9730,7 +9756,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9738,7 +9764,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -9758,7 +9784,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -9772,7 +9798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -9792,7 +9818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9806,7 +9832,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>543</v>
       </c>
@@ -9826,7 +9852,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -9840,7 +9866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -9854,7 +9880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -9874,7 +9900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9888,7 +9914,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -9908,7 +9934,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9922,7 +9948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9936,7 +9962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -9956,7 +9982,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -9970,7 +9996,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>123</v>
       </c>
@@ -9984,7 +10010,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -9998,7 +10024,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -10018,7 +10044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -10038,7 +10064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -10058,7 +10084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -10078,7 +10104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -10098,7 +10124,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -10112,7 +10138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -10132,7 +10158,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -10146,7 +10172,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -10166,7 +10192,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -10180,7 +10206,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -10194,7 +10220,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -10214,7 +10240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>506</v>
       </c>
@@ -10234,7 +10260,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -10248,7 +10274,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -10262,7 +10288,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -10276,7 +10302,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -10290,7 +10316,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -10310,7 +10336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>29</v>
       </c>
@@ -10324,7 +10350,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -10338,7 +10364,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -10358,7 +10384,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -10378,7 +10404,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -10398,7 +10424,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -10418,7 +10444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>422</v>
       </c>
@@ -10438,7 +10464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -10452,7 +10478,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -10484,17 +10510,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -10514,7 +10540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -10534,10 +10560,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -10557,7 +10583,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -10571,7 +10597,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -10585,7 +10611,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -10599,7 +10625,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>425</v>
       </c>
@@ -10619,7 +10645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -10633,7 +10659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -10647,7 +10673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -10661,7 +10687,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -10681,7 +10707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10695,7 +10721,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -10709,7 +10735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>543</v>
       </c>
@@ -10729,7 +10755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -10743,7 +10769,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -10757,7 +10783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -10771,7 +10797,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -10785,7 +10811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -10799,7 +10825,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -10813,7 +10839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10833,7 +10859,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -10847,7 +10873,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -10867,7 +10893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -10881,7 +10907,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -10895,7 +10921,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -10915,7 +10941,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -10935,7 +10961,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -10949,7 +10975,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -10969,7 +10995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>29</v>
       </c>
@@ -10983,7 +11009,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -10997,7 +11023,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -11017,7 +11043,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -11031,7 +11057,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -11045,7 +11071,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -11059,7 +11085,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -11079,7 +11105,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -11093,7 +11119,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -11113,7 +11139,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -11127,7 +11153,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -11141,7 +11167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>438</v>
       </c>
@@ -11161,7 +11187,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -11175,7 +11201,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -11195,7 +11221,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -11215,7 +11241,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -11235,7 +11261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -11249,7 +11275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -11263,7 +11289,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -11277,7 +11303,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -11291,7 +11317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -11305,7 +11331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -11319,7 +11345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -11339,7 +11365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -11353,7 +11379,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -11367,7 +11393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -11381,7 +11407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -11401,7 +11427,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -11415,7 +11441,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -11429,7 +11455,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -11443,7 +11469,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -11457,7 +11483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>198</v>
       </c>
@@ -11477,7 +11503,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -11491,7 +11517,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>170</v>
       </c>
@@ -11523,17 +11549,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -11553,7 +11579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -11573,7 +11599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -11589,7 +11615,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -11605,11 +11631,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -11629,7 +11655,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -11645,7 +11671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
@@ -11661,7 +11687,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
@@ -11677,7 +11703,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
@@ -11693,7 +11719,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
@@ -11709,7 +11735,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
@@ -11725,11 +11751,11 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -11749,7 +11775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -11769,7 +11795,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11783,7 +11809,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -11797,7 +11823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -11817,7 +11843,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -11831,7 +11857,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>371</v>
       </c>
@@ -11851,7 +11877,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -11865,7 +11891,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -11879,7 +11905,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -11899,7 +11925,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -11913,7 +11939,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -11927,7 +11953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -11941,7 +11967,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -11961,7 +11987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -11975,7 +12001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -11989,7 +12015,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -12009,7 +12035,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -12023,7 +12049,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -12037,7 +12063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -12057,7 +12083,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -12071,7 +12097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -12091,7 +12117,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>506</v>
       </c>
@@ -12111,7 +12137,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -12125,7 +12151,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -12139,7 +12165,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>505</v>
       </c>
@@ -12159,7 +12185,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -12173,7 +12199,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -12187,7 +12213,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -12207,7 +12233,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>195</v>
       </c>
@@ -12221,7 +12247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -12235,7 +12261,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -12249,7 +12275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -12269,7 +12295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -12283,7 +12309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -12297,7 +12323,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>48</v>
       </c>
@@ -12311,7 +12337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -12331,7 +12357,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -12345,7 +12371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -12359,7 +12385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -12373,7 +12399,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -12387,7 +12413,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>48</v>
       </c>
@@ -12401,7 +12427,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>198</v>
       </c>
@@ -12438,17 +12464,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -12468,7 +12494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -12488,7 +12514,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12502,7 +12528,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12516,7 +12542,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12530,7 +12556,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12538,7 +12564,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -12558,7 +12584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -12572,7 +12598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -12586,7 +12612,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -12603,7 +12629,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>505</v>
       </c>
@@ -12623,7 +12649,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12637,7 +12663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12651,7 +12677,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -12665,7 +12691,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>48</v>
       </c>
@@ -12679,7 +12705,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -12699,7 +12725,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -12713,7 +12739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12727,7 +12753,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -12741,7 +12767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -12755,7 +12781,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -12769,7 +12795,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>48</v>
       </c>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4972" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E97B303-CADB-448A-A9AB-FBC13859AEF3}"/>
+  <xr:revisionPtr revIDLastSave="4983" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22BDACCB-A4C5-43B5-BF76-4C745BEE1431}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="576">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1767,6 +1767,15 @@
   </si>
   <si>
     <t>Martina Trevisan (ITALY)</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>Greet Minnen (BELGIUM)</t>
+  </si>
+  <si>
+    <t>6-2 4-6 7-5</t>
   </si>
 </sst>
 </file>
@@ -2142,7 +2151,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2268,7 +2277,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4602,17 +4611,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4632,7 +4641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>497</v>
       </c>
@@ -4652,7 +4661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -4672,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -4686,7 +4695,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>511</v>
       </c>
@@ -4706,7 +4715,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -4720,7 +4729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>512</v>
       </c>
@@ -4741,7 +4750,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4756,7 +4765,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>513</v>
       </c>
@@ -4776,7 +4785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -4791,7 +4800,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -4805,7 +4814,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -4819,7 +4828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>514</v>
       </c>
@@ -4839,7 +4848,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4853,7 +4862,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>515</v>
       </c>
@@ -4891,17 +4900,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4921,7 +4930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -4941,7 +4950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4955,7 +4964,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -4969,7 +4978,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -4983,7 +4992,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5003,7 +5012,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5017,7 +5026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5031,7 +5040,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5045,7 +5054,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -5059,7 +5068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -5073,7 +5082,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -5087,7 +5096,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5107,7 +5116,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5121,7 +5130,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5135,7 +5144,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5149,7 +5158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -5169,7 +5178,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5183,7 +5192,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -5203,7 +5212,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5223,7 +5232,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -5237,7 +5246,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>491</v>
       </c>
@@ -5257,7 +5266,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -5271,7 +5280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>505</v>
       </c>
@@ -5291,7 +5300,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -5305,7 +5314,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5325,7 +5334,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>29</v>
       </c>
@@ -5339,7 +5348,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -5371,17 +5380,17 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5401,7 +5410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>544</v>
       </c>
@@ -5421,7 +5430,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5435,7 +5444,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5449,7 +5458,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5463,7 +5472,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5483,7 +5492,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5497,7 +5506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5511,7 +5520,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>543</v>
       </c>
@@ -5531,7 +5540,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5545,7 +5554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -5565,7 +5574,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -5579,7 +5588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5593,7 +5602,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5607,7 +5616,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5621,7 +5630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5635,7 +5644,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>48</v>
       </c>
@@ -5649,7 +5658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -5669,7 +5678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5683,7 +5692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5703,7 +5712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>554</v>
       </c>
@@ -5723,7 +5732,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5737,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>556</v>
       </c>
@@ -5757,7 +5766,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>505</v>
       </c>
@@ -5777,7 +5786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5797,7 +5806,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>559</v>
       </c>
@@ -5817,7 +5826,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5848,17 +5857,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5878,7 +5887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>561</v>
       </c>
@@ -5909,23 +5918,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5945,7 +5954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -5965,7 +5974,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -5979,7 +5988,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -5999,7 +6008,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>565</v>
       </c>
@@ -6019,7 +6028,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>566</v>
       </c>
@@ -6039,7 +6048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6053,7 +6062,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6067,7 +6076,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6081,7 +6090,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>543</v>
       </c>
@@ -6101,7 +6110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -6115,7 +6124,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -6129,7 +6138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -6149,7 +6158,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -6163,7 +6172,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6177,7 +6186,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>571</v>
       </c>
@@ -6195,6 +6204,40 @@
       </c>
       <c r="F22" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>573</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>574</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>568</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -6214,17 +6257,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -6244,7 +6287,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -6265,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -6286,7 +6329,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -6307,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -6328,7 +6371,7 @@
         <v>0.41935483870967744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -6349,7 +6392,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -6370,7 +6413,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -6391,7 +6434,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -6412,7 +6455,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -6433,7 +6476,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -6454,7 +6497,7 @@
         <v>0.6470588235294118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -6475,7 +6518,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2023</v>
       </c>
@@ -6496,34 +6539,34 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2024</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="6">
         <f>SUM(B2:B14)</f>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" s="6">
         <f>SUM(C2:C14)</f>
@@ -6531,24 +6574,24 @@
       </c>
       <c r="D15" s="6">
         <f>SUM(D2:D14)</f>
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E2:E14)</f>
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F15" s="7">
         <f>(D15-E15)/D15</f>
-        <v>0.4280442804428044</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.4264705882352941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>499</v>
       </c>
       <c r="B16" s="6">
         <f>AVERAGE(B2:B14)</f>
-        <v>12.923076923076923</v>
+        <v>13</v>
       </c>
       <c r="C16" s="6">
         <f>AVERAGE(C2:C14)</f>
@@ -6556,15 +6599,15 @@
       </c>
       <c r="D16" s="6">
         <f>AVERAGE(D2:D14)</f>
-        <v>20.846153846153847</v>
+        <v>20.923076923076923</v>
       </c>
       <c r="E16" s="6">
         <f>AVERAGE(E2:E14)</f>
-        <v>11.923076923076923</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
-        <v>0.4280442804428044</v>
+        <v>0.4264705882352941</v>
       </c>
     </row>
   </sheetData>
@@ -6593,17 +6636,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6623,7 +6666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>516</v>
       </c>
@@ -6643,7 +6686,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -6663,7 +6706,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -6677,7 +6720,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -6691,7 +6734,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>517</v>
       </c>
@@ -6711,7 +6754,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6725,7 +6768,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6739,7 +6782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6753,8 +6796,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>518</v>
       </c>
@@ -6774,7 +6817,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -6788,7 +6831,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>511</v>
       </c>
@@ -6808,7 +6851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -6822,7 +6865,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -6836,7 +6879,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>519</v>
       </c>
@@ -6856,7 +6899,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>520</v>
       </c>
@@ -6876,7 +6919,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -6890,7 +6933,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -6904,7 +6947,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -6918,7 +6961,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -6932,7 +6975,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -6946,7 +6989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -6960,7 +7003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>521</v>
       </c>
@@ -6980,7 +7023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -7000,7 +7043,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -7014,7 +7057,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>123</v>
       </c>
@@ -7028,7 +7071,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7042,7 +7085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7056,7 +7099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>522</v>
       </c>
@@ -7076,7 +7119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -7096,7 +7139,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>523</v>
       </c>
@@ -7116,7 +7159,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>6</v>
       </c>
@@ -7130,7 +7173,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>123</v>
       </c>
@@ -7144,7 +7187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -7158,7 +7201,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -7172,7 +7215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>524</v>
       </c>
@@ -7192,7 +7235,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -7206,7 +7249,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>525</v>
       </c>
@@ -7226,7 +7269,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>527</v>
       </c>
@@ -7246,7 +7289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -7260,7 +7303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -7292,17 +7335,17 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7322,7 +7365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>528</v>
       </c>
@@ -7342,7 +7385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -7356,7 +7399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>529</v>
       </c>
@@ -7376,7 +7419,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -7390,7 +7433,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -7410,7 +7453,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -7424,7 +7467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>123</v>
       </c>
@@ -7438,7 +7481,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -7452,7 +7495,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -7472,7 +7515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>530</v>
       </c>
@@ -7492,7 +7535,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7506,7 +7549,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7520,7 +7563,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7534,7 +7577,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>48</v>
       </c>
@@ -7548,7 +7591,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>531</v>
       </c>
@@ -7568,7 +7611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -7588,7 +7631,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>533</v>
       </c>
@@ -7608,7 +7651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>534</v>
       </c>
@@ -7628,7 +7671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -7642,7 +7685,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -7656,7 +7699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>520</v>
       </c>
@@ -7676,7 +7719,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -7696,7 +7739,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>6</v>
       </c>
@@ -7710,7 +7753,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7724,7 +7767,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7738,7 +7781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -7758,7 +7801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -7778,7 +7821,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -7792,7 +7835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>535</v>
       </c>
@@ -7812,7 +7855,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>524</v>
       </c>
@@ -7868,17 +7911,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7898,7 +7941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>509</v>
       </c>
@@ -7918,7 +7961,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7932,7 +7975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7946,7 +7989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>510</v>
       </c>
@@ -7966,7 +8009,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -7980,7 +8023,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -7994,7 +8037,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -8014,7 +8057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>536</v>
       </c>
@@ -8034,7 +8077,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -8048,7 +8091,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -8062,7 +8105,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -8076,7 +8119,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -8090,7 +8133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -8110,7 +8153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -8124,7 +8167,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -8144,7 +8187,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -8164,7 +8207,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -8178,7 +8221,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -8192,7 +8235,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -8206,7 +8249,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>48</v>
       </c>
@@ -8220,7 +8263,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>537</v>
       </c>
@@ -8240,7 +8283,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -8254,7 +8297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -8268,7 +8311,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>538</v>
       </c>
@@ -8288,7 +8331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -8302,7 +8345,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -8316,7 +8359,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8330,7 +8373,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>48</v>
       </c>
@@ -8344,7 +8387,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -8364,7 +8407,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>507</v>
       </c>
@@ -8384,7 +8427,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>286</v>
       </c>
@@ -8404,7 +8447,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -8424,7 +8467,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -8438,7 +8481,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -8458,7 +8501,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -8472,7 +8515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>292</v>
       </c>
@@ -8492,7 +8535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -8506,7 +8549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>123</v>
       </c>
@@ -8520,7 +8563,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8534,7 +8577,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -8554,7 +8597,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>342</v>
       </c>
@@ -8574,7 +8617,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8588,7 +8631,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8602,7 +8645,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -8616,7 +8659,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>48</v>
       </c>
@@ -8630,7 +8673,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>539</v>
       </c>
@@ -8650,7 +8693,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -8664,7 +8707,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -8678,7 +8721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8710,17 +8753,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -8740,7 +8783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -8760,7 +8803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8774,7 +8817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>123</v>
       </c>
@@ -8788,7 +8831,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -8808,7 +8851,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -8822,7 +8865,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>123</v>
       </c>
@@ -8836,7 +8879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -8850,7 +8893,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -8864,7 +8907,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -8884,7 +8927,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -8898,7 +8941,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -8912,7 +8955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>28</v>
       </c>
@@ -8926,7 +8969,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -8940,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -8954,7 +8997,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>363</v>
       </c>
@@ -8974,7 +9017,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -8994,7 +9037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -9008,7 +9051,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -9022,7 +9065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>543</v>
       </c>
@@ -9042,7 +9085,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -9056,7 +9099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -9076,7 +9119,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -9090,7 +9133,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -9104,7 +9147,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -9124,7 +9167,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -9138,7 +9181,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -9152,7 +9195,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>371</v>
       </c>
@@ -9172,7 +9215,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>177</v>
       </c>
@@ -9192,7 +9235,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>6</v>
       </c>
@@ -9206,7 +9249,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -9226,7 +9269,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -9240,7 +9283,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -9254,7 +9297,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -9274,7 +9317,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -9288,7 +9331,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -9308,7 +9351,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>506</v>
       </c>
@@ -9328,7 +9371,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>382</v>
       </c>
@@ -9348,7 +9391,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -9362,7 +9405,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -9376,7 +9419,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>505</v>
       </c>
@@ -9396,7 +9439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>6</v>
       </c>
@@ -9410,7 +9453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>386</v>
       </c>
@@ -9430,7 +9473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -9450,7 +9493,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -9464,7 +9507,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -9478,7 +9521,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>292</v>
       </c>
@@ -9498,7 +9541,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9512,7 +9555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -9532,7 +9575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9546,7 +9589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9560,7 +9603,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9574,7 +9617,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -9588,7 +9631,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -9608,7 +9651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>392</v>
       </c>
@@ -9628,7 +9671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -9642,7 +9685,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -9674,17 +9717,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -9704,7 +9747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>394</v>
       </c>
@@ -9724,7 +9767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -9740,7 +9783,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -9756,7 +9799,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9764,7 +9807,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -9784,7 +9827,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -9798,7 +9841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -9818,7 +9861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9832,7 +9875,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>543</v>
       </c>
@@ -9852,7 +9895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -9866,7 +9909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -9880,7 +9923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -9900,7 +9943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9914,7 +9957,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -9934,7 +9977,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9948,7 +9991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -9962,7 +10005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -9982,7 +10025,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -9996,7 +10039,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>123</v>
       </c>
@@ -10010,7 +10053,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -10024,7 +10067,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -10044,7 +10087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -10064,7 +10107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -10084,7 +10127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -10104,7 +10147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -10124,7 +10167,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -10138,7 +10181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -10158,7 +10201,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -10172,7 +10215,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -10192,7 +10235,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -10206,7 +10249,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -10220,7 +10263,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -10240,7 +10283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>506</v>
       </c>
@@ -10260,7 +10303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -10274,7 +10317,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -10288,7 +10331,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -10302,7 +10345,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -10316,7 +10359,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -10336,7 +10379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>29</v>
       </c>
@@ -10350,7 +10393,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -10364,7 +10407,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -10384,7 +10427,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -10404,7 +10447,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -10424,7 +10467,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -10444,7 +10487,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>422</v>
       </c>
@@ -10464,7 +10507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -10478,7 +10521,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -10510,17 +10553,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -10540,7 +10583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -10560,10 +10603,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -10583,7 +10626,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -10597,7 +10640,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -10611,7 +10654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -10625,7 +10668,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>425</v>
       </c>
@@ -10645,7 +10688,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -10659,7 +10702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -10673,7 +10716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -10687,7 +10730,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -10707,7 +10750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10721,7 +10764,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -10735,7 +10778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>543</v>
       </c>
@@ -10755,7 +10798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -10769,7 +10812,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -10783,7 +10826,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -10797,7 +10840,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -10811,7 +10854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -10825,7 +10868,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -10839,7 +10882,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10859,7 +10902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -10873,7 +10916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -10893,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -10907,7 +10950,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -10921,7 +10964,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -10941,7 +10984,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -10961,7 +11004,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -10975,7 +11018,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -10995,7 +11038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>29</v>
       </c>
@@ -11009,7 +11052,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -11023,7 +11066,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -11043,7 +11086,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -11057,7 +11100,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -11071,7 +11114,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -11085,7 +11128,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -11105,7 +11148,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -11119,7 +11162,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -11139,7 +11182,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -11153,7 +11196,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -11167,7 +11210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>438</v>
       </c>
@@ -11187,7 +11230,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -11201,7 +11244,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -11221,7 +11264,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -11241,7 +11284,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -11261,7 +11304,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -11275,7 +11318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -11289,7 +11332,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -11303,7 +11346,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -11317,7 +11360,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -11331,7 +11374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -11345,7 +11388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -11365,7 +11408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -11379,7 +11422,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -11393,7 +11436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -11407,7 +11450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -11427,7 +11470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -11441,7 +11484,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -11455,7 +11498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -11469,7 +11512,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -11483,7 +11526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>198</v>
       </c>
@@ -11503,7 +11546,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -11517,7 +11560,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>170</v>
       </c>
@@ -11549,17 +11592,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -11579,7 +11622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -11599,7 +11642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -11615,7 +11658,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -11631,11 +11674,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -11655,7 +11698,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -11671,7 +11714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
@@ -11687,7 +11730,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
@@ -11703,7 +11746,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
@@ -11719,7 +11762,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
@@ -11735,7 +11778,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
@@ -11751,11 +11794,11 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -11775,7 +11818,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -11795,7 +11838,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11809,7 +11852,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -11823,7 +11866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -11843,7 +11886,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -11857,7 +11900,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>371</v>
       </c>
@@ -11877,7 +11920,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -11891,7 +11934,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -11905,7 +11948,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -11925,7 +11968,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -11939,7 +11982,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -11953,7 +11996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -11967,7 +12010,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -11987,7 +12030,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -12001,7 +12044,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -12015,7 +12058,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -12035,7 +12078,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -12049,7 +12092,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -12063,7 +12106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -12083,7 +12126,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -12097,7 +12140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -12117,7 +12160,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>506</v>
       </c>
@@ -12137,7 +12180,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -12151,7 +12194,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -12165,7 +12208,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>505</v>
       </c>
@@ -12185,7 +12228,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -12199,7 +12242,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -12213,7 +12256,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -12233,7 +12276,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>195</v>
       </c>
@@ -12247,7 +12290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -12261,7 +12304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -12275,7 +12318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -12295,7 +12338,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -12309,7 +12352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -12323,7 +12366,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>48</v>
       </c>
@@ -12337,7 +12380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -12357,7 +12400,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -12371,7 +12414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -12385,7 +12428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -12399,7 +12442,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -12413,7 +12456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>48</v>
       </c>
@@ -12427,7 +12470,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>198</v>
       </c>
@@ -12464,17 +12507,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -12494,7 +12537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -12514,7 +12557,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12528,7 +12571,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12542,7 +12585,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12556,7 +12599,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12564,7 +12607,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -12584,7 +12627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -12598,7 +12641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -12612,7 +12655,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -12629,7 +12672,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>505</v>
       </c>
@@ -12649,7 +12692,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12663,7 +12706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12677,7 +12720,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -12691,7 +12734,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>48</v>
       </c>
@@ -12705,7 +12748,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -12725,7 +12768,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -12739,7 +12782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12753,7 +12796,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -12767,7 +12810,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -12781,7 +12824,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -12795,7 +12838,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>48</v>
       </c>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4983" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22BDACCB-A4C5-43B5-BF76-4C745BEE1431}"/>
+  <xr:revisionPtr revIDLastSave="5001" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BCFC352-EC57-4865-A061-BEE7EE015757}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="578">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1776,6 +1776,12 @@
   </si>
   <si>
     <t>6-2 4-6 7-5</t>
+  </si>
+  <si>
+    <t>Clara Burel (FRANCE)</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-1</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2157,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2277,7 +2283,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2812,7 +2818,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4611,17 +4617,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4641,7 +4647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>497</v>
       </c>
@@ -4661,7 +4667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -4681,7 +4687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -4695,7 +4701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>511</v>
       </c>
@@ -4715,7 +4721,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -4729,7 +4735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>512</v>
       </c>
@@ -4750,7 +4756,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4765,7 +4771,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>513</v>
       </c>
@@ -4785,7 +4791,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -4800,7 +4806,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -4814,7 +4820,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -4828,7 +4834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>514</v>
       </c>
@@ -4848,7 +4854,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4862,7 +4868,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>515</v>
       </c>
@@ -4900,17 +4906,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4930,7 +4936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -4950,7 +4956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4964,7 +4970,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -4978,7 +4984,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -4992,7 +4998,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5012,7 +5018,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5026,7 +5032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5040,7 +5046,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5054,7 +5060,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -5068,7 +5074,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -5082,7 +5088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -5096,7 +5102,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5116,7 +5122,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5130,7 +5136,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5144,7 +5150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5158,7 +5164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -5178,7 +5184,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5192,7 +5198,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -5212,7 +5218,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5232,7 +5238,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -5246,7 +5252,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>491</v>
       </c>
@@ -5266,7 +5272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -5280,7 +5286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>505</v>
       </c>
@@ -5300,7 +5306,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -5314,7 +5320,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5334,7 +5340,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>29</v>
       </c>
@@ -5348,7 +5354,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -5380,17 +5386,17 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5410,7 +5416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>544</v>
       </c>
@@ -5430,7 +5436,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5444,7 +5450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5458,7 +5464,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5472,7 +5478,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5492,7 +5498,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5506,7 +5512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5520,7 +5526,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>543</v>
       </c>
@@ -5540,7 +5546,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5554,7 +5560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -5574,7 +5580,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -5588,7 +5594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5602,7 +5608,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5616,7 +5622,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5630,7 +5636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5644,7 +5650,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>48</v>
       </c>
@@ -5658,7 +5664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -5678,7 +5684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5692,7 +5698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5712,7 +5718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>554</v>
       </c>
@@ -5732,7 +5738,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5746,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>556</v>
       </c>
@@ -5766,7 +5772,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>505</v>
       </c>
@@ -5786,7 +5792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5806,7 +5812,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>559</v>
       </c>
@@ -5826,7 +5832,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5857,17 +5863,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5887,7 +5893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>561</v>
       </c>
@@ -5918,23 +5924,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E30" activeCellId="8" sqref="E3 E5 E7 E12 E16 E20 E22 E25 E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5954,7 +5960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -5974,7 +5980,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -5988,7 +5994,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -6008,7 +6014,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>565</v>
       </c>
@@ -6028,7 +6034,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>566</v>
       </c>
@@ -6048,7 +6054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6062,7 +6068,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6076,7 +6082,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6090,7 +6096,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>543</v>
       </c>
@@ -6110,7 +6116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -6124,7 +6130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -6138,7 +6144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -6158,7 +6164,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -6172,7 +6178,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6186,7 +6192,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>571</v>
       </c>
@@ -6206,7 +6212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>573</v>
       </c>
@@ -6226,7 +6232,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>29</v>
       </c>
@@ -6238,6 +6244,68 @@
       </c>
       <c r="F25" t="s">
         <v>575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>576</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>555</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6257,17 +6325,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -6287,7 +6355,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -6308,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -6329,7 +6397,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -6350,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -6371,7 +6439,7 @@
         <v>0.41935483870967744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -6392,7 +6460,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -6413,7 +6481,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -6434,7 +6502,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -6455,7 +6523,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -6476,7 +6544,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -6497,7 +6565,7 @@
         <v>0.6470588235294118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -6518,7 +6586,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2023</v>
       </c>
@@ -6539,34 +6607,34 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2024</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="6">
         <f>SUM(B2:B14)</f>
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C15" s="6">
         <f>SUM(C2:C14)</f>
@@ -6574,24 +6642,24 @@
       </c>
       <c r="D15" s="6">
         <f>SUM(D2:D14)</f>
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E2:E14)</f>
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F15" s="7">
         <f>(D15-E15)/D15</f>
-        <v>0.4264705882352941</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.42909090909090908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>499</v>
       </c>
       <c r="B16" s="6">
         <f>AVERAGE(B2:B14)</f>
-        <v>13</v>
+        <v>13.076923076923077</v>
       </c>
       <c r="C16" s="6">
         <f>AVERAGE(C2:C14)</f>
@@ -6599,15 +6667,15 @@
       </c>
       <c r="D16" s="6">
         <f>AVERAGE(D2:D14)</f>
-        <v>20.923076923076923</v>
+        <v>21.153846153846153</v>
       </c>
       <c r="E16" s="6">
         <f>AVERAGE(E2:E14)</f>
-        <v>12</v>
+        <v>12.076923076923077</v>
       </c>
       <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
-        <v>0.4264705882352941</v>
+        <v>0.42909090909090908</v>
       </c>
     </row>
   </sheetData>
@@ -6636,17 +6704,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6666,7 +6734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>516</v>
       </c>
@@ -6686,7 +6754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -6706,7 +6774,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -6720,7 +6788,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -6734,7 +6802,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>517</v>
       </c>
@@ -6754,7 +6822,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6768,7 +6836,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6782,7 +6850,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6796,8 +6864,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>518</v>
       </c>
@@ -6817,7 +6885,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -6831,7 +6899,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>511</v>
       </c>
@@ -6851,7 +6919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -6865,7 +6933,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -6879,7 +6947,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>519</v>
       </c>
@@ -6899,7 +6967,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>520</v>
       </c>
@@ -6919,7 +6987,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -6933,7 +7001,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -6947,7 +7015,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -6961,7 +7029,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -6975,7 +7043,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -6989,7 +7057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -7003,7 +7071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>521</v>
       </c>
@@ -7023,7 +7091,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -7043,7 +7111,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -7057,7 +7125,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>123</v>
       </c>
@@ -7071,7 +7139,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7085,7 +7153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7099,7 +7167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>522</v>
       </c>
@@ -7119,7 +7187,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -7139,7 +7207,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>523</v>
       </c>
@@ -7159,7 +7227,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>6</v>
       </c>
@@ -7173,7 +7241,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>123</v>
       </c>
@@ -7187,7 +7255,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -7201,7 +7269,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -7215,7 +7283,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>524</v>
       </c>
@@ -7235,7 +7303,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -7249,7 +7317,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>525</v>
       </c>
@@ -7269,7 +7337,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>527</v>
       </c>
@@ -7289,7 +7357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -7303,7 +7371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -7335,17 +7403,17 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7365,7 +7433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>528</v>
       </c>
@@ -7385,7 +7453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -7399,7 +7467,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>529</v>
       </c>
@@ -7419,7 +7487,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -7433,7 +7501,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -7453,7 +7521,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -7467,7 +7535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>123</v>
       </c>
@@ -7481,7 +7549,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -7495,7 +7563,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -7515,7 +7583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>530</v>
       </c>
@@ -7535,7 +7603,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7549,7 +7617,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7563,7 +7631,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7577,7 +7645,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>48</v>
       </c>
@@ -7591,7 +7659,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>531</v>
       </c>
@@ -7611,7 +7679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -7631,7 +7699,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>533</v>
       </c>
@@ -7651,7 +7719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>534</v>
       </c>
@@ -7671,7 +7739,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -7685,7 +7753,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -7699,7 +7767,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>520</v>
       </c>
@@ -7719,7 +7787,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -7739,7 +7807,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>6</v>
       </c>
@@ -7753,7 +7821,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7767,7 +7835,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7781,7 +7849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -7801,7 +7869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -7821,7 +7889,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -7835,7 +7903,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>535</v>
       </c>
@@ -7855,7 +7923,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>524</v>
       </c>
@@ -7911,17 +7979,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7941,7 +8009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>509</v>
       </c>
@@ -7961,7 +8029,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7975,7 +8043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7989,7 +8057,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>510</v>
       </c>
@@ -8009,7 +8077,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -8023,7 +8091,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -8037,7 +8105,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -8057,7 +8125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>536</v>
       </c>
@@ -8077,7 +8145,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -8091,7 +8159,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -8105,7 +8173,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -8119,7 +8187,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -8133,7 +8201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -8153,7 +8221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -8167,7 +8235,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -8187,7 +8255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -8207,7 +8275,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -8221,7 +8289,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -8235,7 +8303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -8249,7 +8317,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>48</v>
       </c>
@@ -8263,7 +8331,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>537</v>
       </c>
@@ -8283,7 +8351,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -8297,7 +8365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -8311,7 +8379,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>538</v>
       </c>
@@ -8331,7 +8399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -8345,7 +8413,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -8359,7 +8427,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8373,7 +8441,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>48</v>
       </c>
@@ -8387,7 +8455,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -8407,7 +8475,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>507</v>
       </c>
@@ -8427,7 +8495,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>286</v>
       </c>
@@ -8447,7 +8515,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -8467,7 +8535,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -8481,7 +8549,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -8501,7 +8569,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -8515,7 +8583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>292</v>
       </c>
@@ -8535,7 +8603,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -8549,7 +8617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>123</v>
       </c>
@@ -8563,7 +8631,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8577,7 +8645,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -8597,7 +8665,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>342</v>
       </c>
@@ -8617,7 +8685,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8631,7 +8699,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8645,7 +8713,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -8659,7 +8727,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>48</v>
       </c>
@@ -8673,7 +8741,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>539</v>
       </c>
@@ -8693,7 +8761,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -8707,7 +8775,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -8721,7 +8789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8753,17 +8821,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -8783,7 +8851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -8803,7 +8871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8817,7 +8885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>123</v>
       </c>
@@ -8831,7 +8899,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -8851,7 +8919,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -8865,7 +8933,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>123</v>
       </c>
@@ -8879,7 +8947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -8893,7 +8961,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -8907,7 +8975,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -8927,7 +8995,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -8941,7 +9009,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -8955,7 +9023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>28</v>
       </c>
@@ -8969,7 +9037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -8983,7 +9051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -8997,7 +9065,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>363</v>
       </c>
@@ -9017,7 +9085,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -9037,7 +9105,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -9051,7 +9119,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -9065,7 +9133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>543</v>
       </c>
@@ -9085,7 +9153,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -9099,7 +9167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -9119,7 +9187,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -9133,7 +9201,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -9147,7 +9215,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -9167,7 +9235,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -9181,7 +9249,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -9195,7 +9263,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>371</v>
       </c>
@@ -9215,7 +9283,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>177</v>
       </c>
@@ -9235,7 +9303,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>6</v>
       </c>
@@ -9249,7 +9317,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -9269,7 +9337,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -9283,7 +9351,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -9297,7 +9365,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -9317,7 +9385,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -9331,7 +9399,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -9351,7 +9419,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>506</v>
       </c>
@@ -9371,7 +9439,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>382</v>
       </c>
@@ -9391,7 +9459,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -9405,7 +9473,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -9419,7 +9487,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>505</v>
       </c>
@@ -9439,7 +9507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>6</v>
       </c>
@@ -9453,7 +9521,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>386</v>
       </c>
@@ -9473,7 +9541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -9493,7 +9561,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -9507,7 +9575,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -9521,7 +9589,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>292</v>
       </c>
@@ -9541,7 +9609,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9555,7 +9623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -9575,7 +9643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9589,7 +9657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9603,7 +9671,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9617,7 +9685,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -9631,7 +9699,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -9651,7 +9719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>392</v>
       </c>
@@ -9671,7 +9739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -9685,7 +9753,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -9717,17 +9785,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -9747,7 +9815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>394</v>
       </c>
@@ -9767,7 +9835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -9783,7 +9851,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -9799,7 +9867,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9807,7 +9875,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -9827,7 +9895,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -9841,7 +9909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -9861,7 +9929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9875,7 +9943,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>543</v>
       </c>
@@ -9895,7 +9963,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -9909,7 +9977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -9923,7 +9991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -9943,7 +10011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9957,7 +10025,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -9977,7 +10045,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9991,7 +10059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -10005,7 +10073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -10025,7 +10093,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -10039,7 +10107,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>123</v>
       </c>
@@ -10053,7 +10121,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -10067,7 +10135,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -10087,7 +10155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -10107,7 +10175,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -10127,7 +10195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -10147,7 +10215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -10167,7 +10235,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -10181,7 +10249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -10201,7 +10269,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -10215,7 +10283,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -10235,7 +10303,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -10249,7 +10317,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -10263,7 +10331,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -10283,7 +10351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>506</v>
       </c>
@@ -10303,7 +10371,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -10317,7 +10385,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -10331,7 +10399,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -10345,7 +10413,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -10359,7 +10427,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -10379,7 +10447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>29</v>
       </c>
@@ -10393,7 +10461,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -10407,7 +10475,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -10427,7 +10495,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -10447,7 +10515,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -10467,7 +10535,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -10487,7 +10555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>422</v>
       </c>
@@ -10507,7 +10575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -10521,7 +10589,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -10553,17 +10621,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -10583,7 +10651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -10603,10 +10671,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -10626,7 +10694,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -10640,7 +10708,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -10654,7 +10722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -10668,7 +10736,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>425</v>
       </c>
@@ -10688,7 +10756,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -10702,7 +10770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -10716,7 +10784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -10730,7 +10798,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -10750,7 +10818,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10764,7 +10832,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -10778,7 +10846,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>543</v>
       </c>
@@ -10798,7 +10866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -10812,7 +10880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -10826,7 +10894,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -10840,7 +10908,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -10854,7 +10922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -10868,7 +10936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -10882,7 +10950,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10902,7 +10970,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -10916,7 +10984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -10936,7 +11004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -10950,7 +11018,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -10964,7 +11032,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -10984,7 +11052,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -11004,7 +11072,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -11018,7 +11086,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -11038,7 +11106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>29</v>
       </c>
@@ -11052,7 +11120,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -11066,7 +11134,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -11086,7 +11154,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -11100,7 +11168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -11114,7 +11182,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -11128,7 +11196,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -11148,7 +11216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -11162,7 +11230,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -11182,7 +11250,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -11196,7 +11264,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -11210,7 +11278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>438</v>
       </c>
@@ -11230,7 +11298,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -11244,7 +11312,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -11264,7 +11332,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -11284,7 +11352,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -11304,7 +11372,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -11318,7 +11386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -11332,7 +11400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -11346,7 +11414,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -11360,7 +11428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -11374,7 +11442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -11388,7 +11456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -11408,7 +11476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -11422,7 +11490,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -11436,7 +11504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -11450,7 +11518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -11470,7 +11538,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -11484,7 +11552,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -11498,7 +11566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -11512,7 +11580,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -11526,7 +11594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>198</v>
       </c>
@@ -11546,7 +11614,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -11560,7 +11628,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>170</v>
       </c>
@@ -11592,17 +11660,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -11622,7 +11690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -11642,7 +11710,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -11658,7 +11726,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -11674,11 +11742,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -11698,7 +11766,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -11714,7 +11782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
@@ -11730,7 +11798,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
@@ -11746,7 +11814,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
@@ -11762,7 +11830,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
@@ -11778,7 +11846,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
@@ -11794,11 +11862,11 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -11818,7 +11886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -11838,7 +11906,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11852,7 +11920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -11866,7 +11934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -11886,7 +11954,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -11900,7 +11968,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>371</v>
       </c>
@@ -11920,7 +11988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -11934,7 +12002,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -11948,7 +12016,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -11968,7 +12036,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -11982,7 +12050,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -11996,7 +12064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -12010,7 +12078,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -12030,7 +12098,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -12044,7 +12112,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -12058,7 +12126,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -12078,7 +12146,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -12092,7 +12160,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -12106,7 +12174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -12126,7 +12194,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -12140,7 +12208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -12160,7 +12228,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>506</v>
       </c>
@@ -12180,7 +12248,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -12194,7 +12262,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -12208,7 +12276,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>505</v>
       </c>
@@ -12228,7 +12296,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -12242,7 +12310,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -12256,7 +12324,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -12276,7 +12344,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>195</v>
       </c>
@@ -12290,7 +12358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -12304,7 +12372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -12318,7 +12386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -12338,7 +12406,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -12352,7 +12420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -12366,7 +12434,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>48</v>
       </c>
@@ -12380,7 +12448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -12400,7 +12468,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -12414,7 +12482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -12428,7 +12496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -12442,7 +12510,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -12456,7 +12524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>48</v>
       </c>
@@ -12470,7 +12538,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>198</v>
       </c>
@@ -12507,17 +12575,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -12537,7 +12605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -12557,7 +12625,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12571,7 +12639,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12585,7 +12653,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12599,7 +12667,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12607,7 +12675,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -12627,7 +12695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -12641,7 +12709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -12655,7 +12723,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -12672,7 +12740,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>505</v>
       </c>
@@ -12692,7 +12760,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12706,7 +12774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12720,7 +12788,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -12734,7 +12802,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>48</v>
       </c>
@@ -12748,7 +12816,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -12768,7 +12836,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -12782,7 +12850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12796,7 +12864,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -12810,7 +12878,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -12824,7 +12892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -12838,7 +12906,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>48</v>
       </c>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5001" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BCFC352-EC57-4865-A061-BEE7EE015757}"/>
+  <xr:revisionPtr revIDLastSave="5012" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFE5951A-C8AE-4AE5-B773-CBBB48DBFFA4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="581">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1782,6 +1782,15 @@
   </si>
   <si>
     <t>7-6(2) 6-1</t>
+  </si>
+  <si>
+    <t>Lucia Bronzetti (ITALY)</t>
+  </si>
+  <si>
+    <t>6-1 4-6 7-5</t>
+  </si>
+  <si>
+    <t>7-6(1) 1-6 7-5</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2166,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2283,7 +2292,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2818,7 +2827,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.18181818181818182</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4307,10 +4316,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4617,17 +4622,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4647,7 +4652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>497</v>
       </c>
@@ -4667,7 +4672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -4687,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -4701,7 +4706,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>511</v>
       </c>
@@ -4721,7 +4726,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -4735,7 +4740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>512</v>
       </c>
@@ -4756,7 +4761,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4771,7 +4776,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>513</v>
       </c>
@@ -4791,7 +4796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -4806,7 +4811,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -4820,7 +4825,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -4834,7 +4839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>514</v>
       </c>
@@ -4854,7 +4859,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4868,7 +4873,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>515</v>
       </c>
@@ -4906,17 +4911,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4936,7 +4941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -4956,7 +4961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4970,7 +4975,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -4984,7 +4989,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -4998,7 +5003,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5018,7 +5023,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5032,7 +5037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5046,7 +5051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5060,7 +5065,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -5074,7 +5079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -5088,7 +5093,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -5102,7 +5107,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5122,7 +5127,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5136,7 +5141,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5150,7 +5155,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5164,7 +5169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -5184,7 +5189,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5198,7 +5203,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -5218,7 +5223,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5238,7 +5243,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -5252,7 +5257,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>491</v>
       </c>
@@ -5272,7 +5277,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -5286,7 +5291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>505</v>
       </c>
@@ -5306,7 +5311,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -5320,7 +5325,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5340,7 +5345,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>29</v>
       </c>
@@ -5354,7 +5359,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -5383,20 +5388,20 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5416,7 +5421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>544</v>
       </c>
@@ -5436,7 +5441,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5450,7 +5455,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5464,7 +5469,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5478,7 +5483,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5498,7 +5503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5512,7 +5517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5526,7 +5531,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>543</v>
       </c>
@@ -5546,7 +5551,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5560,7 +5565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -5580,7 +5585,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -5594,7 +5599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5608,7 +5613,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5622,7 +5627,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5636,7 +5641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5650,7 +5655,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>48</v>
       </c>
@@ -5664,7 +5669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -5684,7 +5689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5698,7 +5703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5718,7 +5723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>554</v>
       </c>
@@ -5738,7 +5743,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5752,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>556</v>
       </c>
@@ -5772,7 +5777,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>505</v>
       </c>
@@ -5792,7 +5797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5812,7 +5817,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>559</v>
       </c>
@@ -5832,7 +5837,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5863,17 +5868,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5893,7 +5898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>561</v>
       </c>
@@ -5924,23 +5929,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" activeCellId="8" sqref="E3 E5 E7 E12 E16 E20 E22 E25 E30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5960,7 +5965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -5980,7 +5985,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -5994,7 +5999,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -6014,7 +6019,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>565</v>
       </c>
@@ -6034,7 +6039,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>566</v>
       </c>
@@ -6054,7 +6059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6068,7 +6073,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6082,7 +6087,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6096,7 +6101,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>543</v>
       </c>
@@ -6116,7 +6121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -6130,7 +6135,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -6144,7 +6149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -6164,7 +6169,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -6178,7 +6183,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6192,7 +6197,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>571</v>
       </c>
@@ -6212,7 +6217,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>573</v>
       </c>
@@ -6232,7 +6237,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>29</v>
       </c>
@@ -6246,7 +6251,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>151</v>
       </c>
@@ -6266,7 +6271,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -6280,7 +6285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -6294,7 +6299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -6306,6 +6311,40 @@
       </c>
       <c r="F30" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>578</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>464</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -6325,17 +6364,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -6355,7 +6394,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -6376,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -6397,7 +6436,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -6418,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -6439,7 +6478,7 @@
         <v>0.41935483870967744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -6460,7 +6499,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -6481,7 +6520,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -6502,7 +6541,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -6523,7 +6562,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -6544,7 +6583,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -6565,7 +6604,7 @@
         <v>0.6470588235294118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -6586,7 +6625,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2023</v>
       </c>
@@ -6607,34 +6646,34 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2024</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>0.18181818181818182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="6">
         <f>SUM(B2:B14)</f>
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" s="6">
         <f>SUM(C2:C14)</f>
@@ -6642,24 +6681,24 @@
       </c>
       <c r="D15" s="6">
         <f>SUM(D2:D14)</f>
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E2:E14)</f>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F15" s="7">
         <f>(D15-E15)/D15</f>
-        <v>0.42909090909090908</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.42753623188405798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>499</v>
       </c>
       <c r="B16" s="6">
         <f>AVERAGE(B2:B14)</f>
-        <v>13.076923076923077</v>
+        <v>13.153846153846153</v>
       </c>
       <c r="C16" s="6">
         <f>AVERAGE(C2:C14)</f>
@@ -6667,15 +6706,15 @@
       </c>
       <c r="D16" s="6">
         <f>AVERAGE(D2:D14)</f>
-        <v>21.153846153846153</v>
+        <v>21.23076923076923</v>
       </c>
       <c r="E16" s="6">
         <f>AVERAGE(E2:E14)</f>
-        <v>12.076923076923077</v>
+        <v>12.153846153846153</v>
       </c>
       <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
-        <v>0.42909090909090908</v>
+        <v>0.42753623188405798</v>
       </c>
     </row>
   </sheetData>
@@ -6704,17 +6743,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6734,7 +6773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>516</v>
       </c>
@@ -6754,7 +6793,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -6774,7 +6813,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -6788,7 +6827,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -6802,7 +6841,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>517</v>
       </c>
@@ -6822,7 +6861,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6836,7 +6875,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6850,7 +6889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6864,8 +6903,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>518</v>
       </c>
@@ -6885,7 +6924,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -6899,7 +6938,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>511</v>
       </c>
@@ -6919,7 +6958,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -6933,7 +6972,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -6947,7 +6986,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>519</v>
       </c>
@@ -6967,7 +7006,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>520</v>
       </c>
@@ -6987,7 +7026,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -7001,7 +7040,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -7015,7 +7054,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -7029,7 +7068,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -7043,7 +7082,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -7057,7 +7096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -7071,7 +7110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>521</v>
       </c>
@@ -7091,7 +7130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -7111,7 +7150,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -7125,7 +7164,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>123</v>
       </c>
@@ -7139,7 +7178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7153,7 +7192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7167,7 +7206,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>522</v>
       </c>
@@ -7187,7 +7226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -7207,7 +7246,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>523</v>
       </c>
@@ -7227,7 +7266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>6</v>
       </c>
@@ -7241,7 +7280,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>123</v>
       </c>
@@ -7255,7 +7294,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -7269,7 +7308,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -7283,7 +7322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>524</v>
       </c>
@@ -7303,7 +7342,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -7317,7 +7356,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>525</v>
       </c>
@@ -7337,7 +7376,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>527</v>
       </c>
@@ -7357,7 +7396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -7371,7 +7410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -7403,17 +7442,17 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7433,7 +7472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>528</v>
       </c>
@@ -7453,7 +7492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -7467,7 +7506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>529</v>
       </c>
@@ -7487,7 +7526,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -7501,7 +7540,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>510</v>
       </c>
@@ -7521,7 +7560,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -7535,7 +7574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>123</v>
       </c>
@@ -7549,7 +7588,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -7563,7 +7602,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -7583,7 +7622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>530</v>
       </c>
@@ -7603,7 +7642,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7617,7 +7656,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7631,7 +7670,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7645,7 +7684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>48</v>
       </c>
@@ -7659,7 +7698,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>531</v>
       </c>
@@ -7679,7 +7718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -7699,7 +7738,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>533</v>
       </c>
@@ -7719,7 +7758,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>534</v>
       </c>
@@ -7739,7 +7778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -7753,7 +7792,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -7767,7 +7806,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>520</v>
       </c>
@@ -7787,7 +7826,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -7807,7 +7846,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>6</v>
       </c>
@@ -7821,7 +7860,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7835,7 +7874,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7849,7 +7888,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -7869,7 +7908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -7889,7 +7928,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -7903,7 +7942,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>535</v>
       </c>
@@ -7923,7 +7962,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>524</v>
       </c>
@@ -7979,17 +8018,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -8009,7 +8048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>509</v>
       </c>
@@ -8029,7 +8068,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8043,7 +8082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8057,7 +8096,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>510</v>
       </c>
@@ -8077,7 +8116,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -8091,7 +8130,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -8105,7 +8144,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -8125,7 +8164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>536</v>
       </c>
@@ -8145,7 +8184,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -8159,7 +8198,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -8173,7 +8212,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -8187,7 +8226,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -8201,7 +8240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -8221,7 +8260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -8235,7 +8274,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -8255,7 +8294,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>532</v>
       </c>
@@ -8275,7 +8314,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -8289,7 +8328,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -8303,7 +8342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -8317,7 +8356,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>48</v>
       </c>
@@ -8331,7 +8370,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>537</v>
       </c>
@@ -8351,7 +8390,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -8365,7 +8404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -8379,7 +8418,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>538</v>
       </c>
@@ -8399,7 +8438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -8413,7 +8452,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -8427,7 +8466,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8441,7 +8480,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>48</v>
       </c>
@@ -8455,7 +8494,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -8475,7 +8514,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>507</v>
       </c>
@@ -8495,7 +8534,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>286</v>
       </c>
@@ -8515,7 +8554,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -8535,7 +8574,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -8549,7 +8588,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -8569,7 +8608,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -8583,7 +8622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>292</v>
       </c>
@@ -8603,7 +8642,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -8617,7 +8656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>123</v>
       </c>
@@ -8631,7 +8670,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8645,7 +8684,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -8665,7 +8704,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>342</v>
       </c>
@@ -8685,7 +8724,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8699,7 +8738,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8713,7 +8752,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -8727,7 +8766,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>48</v>
       </c>
@@ -8741,7 +8780,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>539</v>
       </c>
@@ -8761,7 +8800,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -8775,7 +8814,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -8789,7 +8828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8821,17 +8860,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -8851,7 +8890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -8871,7 +8910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8885,7 +8924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>123</v>
       </c>
@@ -8899,7 +8938,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -8919,7 +8958,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -8933,7 +8972,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>123</v>
       </c>
@@ -8947,7 +8986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -8961,7 +9000,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -8975,7 +9014,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -8995,7 +9034,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -9009,7 +9048,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -9023,7 +9062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>28</v>
       </c>
@@ -9037,7 +9076,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -9051,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -9065,7 +9104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>363</v>
       </c>
@@ -9085,7 +9124,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -9105,7 +9144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -9119,7 +9158,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -9133,7 +9172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>543</v>
       </c>
@@ -9153,7 +9192,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -9167,7 +9206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -9187,7 +9226,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -9201,7 +9240,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -9215,7 +9254,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -9235,7 +9274,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -9249,7 +9288,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -9263,7 +9302,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>371</v>
       </c>
@@ -9283,7 +9322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>177</v>
       </c>
@@ -9303,7 +9342,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>6</v>
       </c>
@@ -9317,7 +9356,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -9337,7 +9376,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -9351,7 +9390,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -9365,7 +9404,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -9385,7 +9424,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -9399,7 +9438,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -9419,7 +9458,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>506</v>
       </c>
@@ -9439,7 +9478,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>382</v>
       </c>
@@ -9459,7 +9498,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -9473,7 +9512,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -9487,7 +9526,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>505</v>
       </c>
@@ -9507,7 +9546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>6</v>
       </c>
@@ -9521,7 +9560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>386</v>
       </c>
@@ -9541,7 +9580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -9561,7 +9600,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -9575,7 +9614,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -9589,7 +9628,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>292</v>
       </c>
@@ -9609,7 +9648,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9623,7 +9662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -9643,7 +9682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9657,7 +9696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9671,7 +9710,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9685,7 +9724,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -9699,7 +9738,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -9719,7 +9758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>392</v>
       </c>
@@ -9739,7 +9778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -9753,7 +9792,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -9785,17 +9824,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -9815,7 +9854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>394</v>
       </c>
@@ -9835,7 +9874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -9851,7 +9890,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -9867,7 +9906,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9875,7 +9914,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -9895,7 +9934,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -9909,7 +9948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -9929,7 +9968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9943,7 +9982,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>543</v>
       </c>
@@ -9963,7 +10002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -9977,7 +10016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -9991,7 +10030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -10011,7 +10050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -10025,7 +10064,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -10045,7 +10084,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -10059,7 +10098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -10073,7 +10112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -10093,7 +10132,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -10107,7 +10146,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>123</v>
       </c>
@@ -10121,7 +10160,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -10135,7 +10174,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -10155,7 +10194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -10175,7 +10214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -10195,7 +10234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -10215,7 +10254,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -10235,7 +10274,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -10249,7 +10288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -10269,7 +10308,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -10283,7 +10322,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -10303,7 +10342,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -10317,7 +10356,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -10331,7 +10370,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -10351,7 +10390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>506</v>
       </c>
@@ -10371,7 +10410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -10385,7 +10424,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -10399,7 +10438,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -10413,7 +10452,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -10427,7 +10466,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -10447,7 +10486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>29</v>
       </c>
@@ -10461,7 +10500,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -10475,7 +10514,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -10495,7 +10534,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -10515,7 +10554,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -10535,7 +10574,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -10555,7 +10594,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>422</v>
       </c>
@@ -10575,7 +10614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -10589,7 +10628,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -10621,17 +10660,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -10651,7 +10690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -10671,10 +10710,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -10694,7 +10733,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -10708,7 +10747,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -10722,7 +10761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -10736,7 +10775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>425</v>
       </c>
@@ -10756,7 +10795,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -10770,7 +10809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -10784,7 +10823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -10798,7 +10837,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -10818,7 +10857,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10832,7 +10871,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -10846,7 +10885,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>543</v>
       </c>
@@ -10866,7 +10905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -10880,7 +10919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -10894,7 +10933,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -10908,7 +10947,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -10922,7 +10961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -10936,7 +10975,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -10950,7 +10989,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10970,7 +11009,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -10984,7 +11023,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -11004,7 +11043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -11018,7 +11057,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -11032,7 +11071,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -11052,7 +11091,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -11072,7 +11111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -11086,7 +11125,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -11106,7 +11145,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>29</v>
       </c>
@@ -11120,7 +11159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -11134,7 +11173,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -11154,7 +11193,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -11168,7 +11207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -11182,7 +11221,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -11196,7 +11235,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -11216,7 +11255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -11230,7 +11269,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -11250,7 +11289,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -11264,7 +11303,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -11278,7 +11317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>438</v>
       </c>
@@ -11298,7 +11337,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -11312,7 +11351,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -11332,7 +11371,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -11352,7 +11391,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -11372,7 +11411,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -11386,7 +11425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -11400,7 +11439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -11414,7 +11453,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -11428,7 +11467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -11442,7 +11481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -11456,7 +11495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -11476,7 +11515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -11490,7 +11529,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -11504,7 +11543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -11518,7 +11557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -11538,7 +11577,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -11552,7 +11591,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -11566,7 +11605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -11580,7 +11619,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -11594,7 +11633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>198</v>
       </c>
@@ -11614,7 +11653,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -11628,7 +11667,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>170</v>
       </c>
@@ -11660,17 +11699,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -11690,7 +11729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -11710,7 +11749,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -11726,7 +11765,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -11742,11 +11781,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -11766,7 +11805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -11782,7 +11821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
@@ -11798,7 +11837,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
@@ -11814,7 +11853,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
@@ -11830,7 +11869,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
@@ -11846,7 +11885,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
@@ -11862,11 +11901,11 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -11886,7 +11925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -11906,7 +11945,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11920,7 +11959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -11934,7 +11973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -11954,7 +11993,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -11968,7 +12007,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>371</v>
       </c>
@@ -11988,7 +12027,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -12002,7 +12041,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -12016,7 +12055,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -12036,7 +12075,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -12050,7 +12089,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -12064,7 +12103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -12078,7 +12117,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -12098,7 +12137,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -12112,7 +12151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -12126,7 +12165,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -12146,7 +12185,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -12160,7 +12199,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -12174,7 +12213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -12194,7 +12233,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -12208,7 +12247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -12228,7 +12267,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>506</v>
       </c>
@@ -12248,7 +12287,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -12262,7 +12301,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -12276,7 +12315,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>505</v>
       </c>
@@ -12296,7 +12335,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -12310,7 +12349,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -12324,7 +12363,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -12344,7 +12383,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>195</v>
       </c>
@@ -12358,7 +12397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -12372,7 +12411,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -12386,7 +12425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -12406,7 +12445,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -12420,7 +12459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -12434,7 +12473,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>48</v>
       </c>
@@ -12448,7 +12487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -12468,7 +12507,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -12482,7 +12521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -12496,7 +12535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -12510,7 +12549,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -12524,7 +12563,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>48</v>
       </c>
@@ -12538,7 +12577,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>198</v>
       </c>
@@ -12575,17 +12614,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -12605,7 +12644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -12625,7 +12664,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12639,7 +12678,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12653,7 +12692,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12667,7 +12706,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12675,7 +12714,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -12695,7 +12734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -12709,7 +12748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -12723,7 +12762,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -12740,7 +12779,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>505</v>
       </c>
@@ -12760,7 +12799,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12774,7 +12813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12788,7 +12827,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -12802,7 +12841,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>48</v>
       </c>
@@ -12816,7 +12855,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -12836,7 +12875,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -12850,7 +12889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12864,7 +12903,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -12878,7 +12917,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -12892,7 +12931,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -12906,7 +12945,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>48</v>
       </c>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5012" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFE5951A-C8AE-4AE5-B773-CBBB48DBFFA4}"/>
+  <xr:revisionPtr revIDLastSave="5029" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{875E7924-7BBD-4254-A812-773C62541CDD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="583">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1466,9 +1466,6 @@
     <t>Viktoriya Tomova (BULGARIA)</t>
   </si>
   <si>
-    <t>Ashleigh Barty</t>
-  </si>
-  <si>
     <t>5-7 6-3 6-4</t>
   </si>
   <si>
@@ -1791,6 +1788,15 @@
   </si>
   <si>
     <t>7-6(1) 1-6 7-5</t>
+  </si>
+  <si>
+    <t>LIBEMA OPEN</t>
+  </si>
+  <si>
+    <t>Suzan Lamens (NETHERLANDS)</t>
+  </si>
+  <si>
+    <t>6-4 3-6 7-6(3)</t>
   </si>
 </sst>
 </file>
@@ -2166,7 +2172,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,7 +2298,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2827,7 +2833,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.21428571428571427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4316,6 +4322,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4622,17 +4632,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4652,9 +4662,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -4672,9 +4682,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -4692,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -4706,9 +4716,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -4726,7 +4736,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -4740,9 +4750,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -4761,7 +4771,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4776,9 +4786,9 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -4796,7 +4806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -4811,7 +4821,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -4825,7 +4835,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -4839,9 +4849,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -4859,7 +4869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4873,9 +4883,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -4911,17 +4921,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4941,9 +4951,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -4961,7 +4971,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4972,15 +4982,15 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
@@ -4989,7 +4999,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5000,10 +5010,10 @@
         <v>455</v>
       </c>
       <c r="F5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5014,7 +5024,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
@@ -5023,7 +5033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5037,7 +5047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5051,7 +5061,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5062,10 +5072,10 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -5079,7 +5089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -5093,7 +5103,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -5107,7 +5117,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5118,7 +5128,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
@@ -5127,21 +5137,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
+        <v>488</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
         <v>489</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5155,7 +5165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5169,7 +5179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -5189,7 +5199,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5203,7 +5213,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -5223,7 +5233,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5234,32 +5244,32 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
+        <v>491</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
         <v>492</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>455</v>
       </c>
       <c r="F26" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>490</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>491</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
@@ -5268,7 +5278,7 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>21</v>
@@ -5277,12 +5287,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>20</v>
@@ -5291,9 +5301,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -5311,21 +5321,21 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
       <c r="D32" t="s">
+        <v>499</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
         <v>500</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5345,32 +5355,32 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
+        <v>540</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
         <v>541</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" t="s">
-        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -5391,17 +5401,17 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5421,9 +5431,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -5438,15 +5448,15 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
@@ -5455,7 +5465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5469,21 +5479,21 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>455</v>
       </c>
       <c r="F5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5494,7 +5504,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
@@ -5503,7 +5513,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5517,23 +5527,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -5551,12 +5561,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
@@ -5565,7 +5575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -5576,7 +5586,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -5585,7 +5595,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -5599,7 +5609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5610,10 +5620,10 @@
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5627,7 +5637,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5641,7 +5651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5655,7 +5665,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>48</v>
       </c>
@@ -5669,7 +5679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -5680,7 +5690,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
@@ -5689,7 +5699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5703,7 +5713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5714,7 +5724,7 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>20</v>
@@ -5723,9 +5733,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -5734,7 +5744,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>21</v>
@@ -5743,7 +5753,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5757,9 +5767,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -5774,12 +5784,12 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
@@ -5797,7 +5807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5814,12 +5824,12 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>558</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>559</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
@@ -5828,16 +5838,16 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5848,7 +5858,7 @@
         <v>455</v>
       </c>
       <c r="F37" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -5868,17 +5878,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5898,24 +5908,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -5929,23 +5939,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5965,7 +5975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -5976,16 +5986,16 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>562</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -5996,10 +6006,10 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -6019,9 +6029,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -6039,9 +6049,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -6059,7 +6069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6070,10 +6080,10 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6084,10 +6094,10 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6098,12 +6108,12 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -6121,12 +6131,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
@@ -6135,7 +6145,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -6149,7 +6159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -6160,7 +6170,7 @@
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
@@ -6169,7 +6179,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -6183,7 +6193,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6194,12 +6204,12 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>570</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>571</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -6208,7 +6218,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>20</v>
@@ -6217,9 +6227,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -6228,7 +6238,7 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>21</v>
@@ -6237,21 +6247,21 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>151</v>
       </c>
@@ -6262,16 +6272,16 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
+        <v>575</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
         <v>576</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -6285,7 +6295,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -6299,12 +6309,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>20</v>
@@ -6313,7 +6323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -6324,16 +6334,16 @@
         <v>28</v>
       </c>
       <c r="D32" t="s">
+        <v>577</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
         <v>578</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -6344,7 +6354,55 @@
         <v>20</v>
       </c>
       <c r="F33" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>580</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>581</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -6364,25 +6422,25 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>101</v>
@@ -6394,7 +6452,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -6415,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -6436,7 +6494,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -6457,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -6478,7 +6536,7 @@
         <v>0.41935483870967744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -6499,7 +6557,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -6520,7 +6578,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -6541,7 +6599,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -6562,7 +6620,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -6583,7 +6641,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -6604,7 +6662,7 @@
         <v>0.6470588235294118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -6625,7 +6683,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2023</v>
       </c>
@@ -6646,34 +6704,34 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2024</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="6">
         <f>SUM(B2:B14)</f>
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="6">
         <f>SUM(C2:C14)</f>
@@ -6681,24 +6739,24 @@
       </c>
       <c r="D15" s="6">
         <f>SUM(D2:D14)</f>
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E2:E14)</f>
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F15" s="7">
         <f>(D15-E15)/D15</f>
-        <v>0.42753623188405798</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.42805755395683454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B16" s="6">
         <f>AVERAGE(B2:B14)</f>
-        <v>13.153846153846153</v>
+        <v>13.23076923076923</v>
       </c>
       <c r="C16" s="6">
         <f>AVERAGE(C2:C14)</f>
@@ -6706,15 +6764,15 @@
       </c>
       <c r="D16" s="6">
         <f>AVERAGE(D2:D14)</f>
-        <v>21.23076923076923</v>
+        <v>21.384615384615383</v>
       </c>
       <c r="E16" s="6">
         <f>AVERAGE(E2:E14)</f>
-        <v>12.153846153846153</v>
+        <v>12.23076923076923</v>
       </c>
       <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
-        <v>0.42753623188405798</v>
+        <v>0.42805755395683454</v>
       </c>
     </row>
   </sheetData>
@@ -6743,17 +6801,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6773,9 +6831,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -6793,9 +6851,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -6813,7 +6871,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -6827,7 +6885,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -6841,9 +6899,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -6861,7 +6919,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6875,7 +6933,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6889,7 +6947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6903,10 +6961,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -6924,7 +6982,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -6938,9 +6996,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -6958,7 +7016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -6972,7 +7030,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -6986,9 +7044,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -7006,9 +7064,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -7026,7 +7084,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -7040,7 +7098,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -7054,7 +7112,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -7068,7 +7126,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -7082,7 +7140,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -7096,7 +7154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -7110,9 +7168,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -7130,7 +7188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -7150,7 +7208,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -7164,7 +7222,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>123</v>
       </c>
@@ -7178,7 +7236,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7192,7 +7250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7206,9 +7264,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -7226,7 +7284,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -7246,9 +7304,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -7266,7 +7324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>6</v>
       </c>
@@ -7280,7 +7338,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>123</v>
       </c>
@@ -7294,7 +7352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -7308,7 +7366,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -7322,9 +7380,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
@@ -7342,7 +7400,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -7356,9 +7414,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
@@ -7376,9 +7434,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -7396,7 +7454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -7410,12 +7468,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>20</v>
@@ -7442,17 +7500,17 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7472,9 +7530,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -7492,7 +7550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -7506,9 +7564,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -7526,7 +7584,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -7540,9 +7598,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -7560,7 +7618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -7574,7 +7632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>123</v>
       </c>
@@ -7588,7 +7646,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -7602,7 +7660,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -7622,9 +7680,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -7642,7 +7700,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7656,7 +7714,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7670,7 +7728,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7684,7 +7742,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>48</v>
       </c>
@@ -7698,9 +7756,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -7718,9 +7776,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -7738,9 +7796,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -7758,9 +7816,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
@@ -7778,7 +7836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -7792,7 +7850,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -7806,9 +7864,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -7826,7 +7884,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -7846,7 +7904,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>6</v>
       </c>
@@ -7860,7 +7918,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7874,7 +7932,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7888,7 +7946,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -7908,7 +7966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -7928,7 +7986,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -7942,9 +8000,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B43" t="s">
         <v>19</v>
@@ -7962,9 +8020,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -8018,17 +8076,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -8048,9 +8106,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -8068,7 +8126,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8082,7 +8140,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8096,9 +8154,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -8116,7 +8174,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -8130,7 +8188,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -8144,7 +8202,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -8164,9 +8222,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -8184,7 +8242,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -8198,7 +8256,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -8212,7 +8270,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -8226,7 +8284,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -8240,7 +8298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -8260,7 +8318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -8274,7 +8332,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -8294,9 +8352,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -8314,7 +8372,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -8328,7 +8386,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -8342,7 +8400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -8356,7 +8414,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>48</v>
       </c>
@@ -8370,9 +8428,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -8390,7 +8448,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -8404,7 +8462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -8418,9 +8476,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
@@ -8438,7 +8496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -8452,7 +8510,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -8466,7 +8524,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8480,7 +8538,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>48</v>
       </c>
@@ -8494,7 +8552,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -8514,9 +8572,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
@@ -8534,7 +8592,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>286</v>
       </c>
@@ -8554,9 +8612,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -8574,7 +8632,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -8588,7 +8646,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -8608,7 +8666,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -8622,7 +8680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>292</v>
       </c>
@@ -8642,7 +8700,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -8656,7 +8714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>123</v>
       </c>
@@ -8670,7 +8728,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8684,7 +8742,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -8704,7 +8762,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>342</v>
       </c>
@@ -8724,7 +8782,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8738,7 +8796,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8752,7 +8810,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -8766,7 +8824,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>48</v>
       </c>
@@ -8780,9 +8838,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
@@ -8800,7 +8858,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -8814,7 +8872,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -8828,7 +8886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8860,17 +8918,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -8890,7 +8948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -8910,7 +8968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8924,7 +8982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>123</v>
       </c>
@@ -8938,7 +8996,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -8958,7 +9016,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -8972,7 +9030,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>123</v>
       </c>
@@ -8986,7 +9044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -9000,7 +9058,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -9014,7 +9072,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -9034,7 +9092,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -9048,7 +9106,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -9062,7 +9120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>28</v>
       </c>
@@ -9076,7 +9134,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -9090,7 +9148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -9104,7 +9162,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>363</v>
       </c>
@@ -9124,7 +9182,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -9144,7 +9202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -9158,7 +9216,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -9172,9 +9230,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -9192,7 +9250,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -9206,7 +9264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -9226,7 +9284,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -9240,7 +9298,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -9254,7 +9312,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -9274,7 +9332,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -9288,7 +9346,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -9302,7 +9360,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>371</v>
       </c>
@@ -9322,7 +9380,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>177</v>
       </c>
@@ -9342,7 +9400,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>6</v>
       </c>
@@ -9356,7 +9414,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -9376,7 +9434,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -9390,7 +9448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -9404,7 +9462,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -9424,7 +9482,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -9438,7 +9496,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -9458,9 +9516,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -9478,7 +9536,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>382</v>
       </c>
@@ -9498,7 +9556,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -9512,7 +9570,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -9526,9 +9584,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
@@ -9546,12 +9604,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>20</v>
@@ -9560,7 +9618,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>386</v>
       </c>
@@ -9580,7 +9638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -9600,7 +9658,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -9614,7 +9672,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -9628,7 +9686,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>292</v>
       </c>
@@ -9648,7 +9706,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9662,7 +9720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -9682,7 +9740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9696,7 +9754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9710,7 +9768,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9724,7 +9782,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -9738,7 +9796,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -9758,7 +9816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>392</v>
       </c>
@@ -9778,7 +9836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -9792,7 +9850,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -9824,17 +9882,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -9854,7 +9912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>394</v>
       </c>
@@ -9874,7 +9932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -9887,10 +9945,10 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -9906,7 +9964,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9914,7 +9972,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -9934,7 +9992,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -9948,7 +10006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -9968,7 +10026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -9982,9 +10040,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -10002,7 +10060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -10016,7 +10074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -10030,7 +10088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -10050,7 +10108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -10064,7 +10122,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -10084,7 +10142,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -10098,7 +10156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -10112,7 +10170,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -10132,7 +10190,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -10146,7 +10204,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>123</v>
       </c>
@@ -10160,7 +10218,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -10174,7 +10232,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -10194,7 +10252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -10214,7 +10272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -10234,7 +10292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -10254,7 +10312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -10274,7 +10332,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -10288,7 +10346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -10308,7 +10366,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -10322,7 +10380,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -10342,7 +10400,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -10356,7 +10414,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -10370,7 +10428,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -10390,9 +10448,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
@@ -10410,7 +10468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -10424,7 +10482,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -10438,7 +10496,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -10452,7 +10510,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -10466,7 +10524,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -10486,7 +10544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>29</v>
       </c>
@@ -10500,7 +10558,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -10514,7 +10572,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -10534,7 +10592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -10554,7 +10612,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -10574,7 +10632,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -10594,7 +10652,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>422</v>
       </c>
@@ -10614,7 +10672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -10628,12 +10686,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>20</v>
@@ -10660,17 +10718,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -10690,7 +10748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -10710,10 +10768,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -10733,7 +10791,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -10747,7 +10805,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -10761,7 +10819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -10775,7 +10833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>425</v>
       </c>
@@ -10795,7 +10853,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -10809,7 +10867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -10823,7 +10881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -10837,7 +10895,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -10857,7 +10915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10871,7 +10929,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -10885,9 +10943,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -10905,7 +10963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -10919,7 +10977,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -10933,7 +10991,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -10947,7 +11005,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -10961,7 +11019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -10975,7 +11033,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -10989,7 +11047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -11009,7 +11067,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -11023,7 +11081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -11043,7 +11101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -11057,7 +11115,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -11071,7 +11129,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -11091,7 +11149,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -11111,7 +11169,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -11125,7 +11183,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -11145,7 +11203,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>29</v>
       </c>
@@ -11159,7 +11217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -11173,7 +11231,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -11193,7 +11251,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -11207,7 +11265,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -11221,7 +11279,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -11235,7 +11293,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -11255,7 +11313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -11269,7 +11327,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -11289,7 +11347,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -11303,7 +11361,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -11317,7 +11375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>438</v>
       </c>
@@ -11337,7 +11395,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -11351,7 +11409,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -11371,7 +11429,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -11391,7 +11449,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -11411,7 +11469,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -11425,7 +11483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -11439,7 +11497,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -11453,7 +11511,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -11467,7 +11525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -11481,7 +11539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -11495,7 +11553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -11515,7 +11573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -11529,7 +11587,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -11543,7 +11601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -11557,7 +11615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -11577,7 +11635,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -11591,7 +11649,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -11605,7 +11663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -11619,7 +11677,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -11633,7 +11691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>198</v>
       </c>
@@ -11653,7 +11711,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -11667,7 +11725,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>170</v>
       </c>
@@ -11696,20 +11754,20 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -11729,7 +11787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -11749,7 +11807,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -11765,7 +11823,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -11781,11 +11839,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -11805,7 +11863,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -11821,7 +11879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
@@ -11837,7 +11895,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
@@ -11853,7 +11911,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
@@ -11869,7 +11927,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
@@ -11885,7 +11943,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
@@ -11901,11 +11959,11 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -11925,9 +11983,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -11945,7 +12003,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -11959,7 +12017,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -11973,7 +12031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -11993,7 +12051,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12007,7 +12065,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>371</v>
       </c>
@@ -12027,7 +12085,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -12041,7 +12099,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -12052,10 +12110,10 @@
         <v>455</v>
       </c>
       <c r="F25" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -12075,7 +12133,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -12089,7 +12147,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -12103,7 +12161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -12117,7 +12175,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -12137,7 +12195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -12151,7 +12209,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -12162,10 +12220,10 @@
         <v>455</v>
       </c>
       <c r="F34" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -12185,7 +12243,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -12199,7 +12257,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -12213,7 +12271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -12233,7 +12291,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -12247,7 +12305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -12267,9 +12325,9 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -12287,7 +12345,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -12301,7 +12359,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -12315,9 +12373,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
@@ -12335,7 +12393,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -12349,7 +12407,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -12363,7 +12421,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -12383,7 +12441,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>195</v>
       </c>
@@ -12397,7 +12455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -12411,7 +12469,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -12425,7 +12483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -12445,7 +12503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -12459,7 +12517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -12473,12 +12531,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>48</v>
       </c>
       <c r="D61" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>21</v>
@@ -12487,7 +12545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -12507,7 +12565,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -12521,7 +12579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -12535,7 +12593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -12546,10 +12604,10 @@
         <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -12563,12 +12621,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>48</v>
       </c>
       <c r="D68" t="s">
-        <v>472</v>
+        <v>273</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>21</v>
@@ -12577,7 +12635,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>198</v>
       </c>
@@ -12594,7 +12652,7 @@
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -12614,17 +12672,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -12644,7 +12702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -12661,10 +12719,10 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12675,10 +12733,10 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12692,7 +12750,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12703,10 +12761,10 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12714,7 +12772,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -12734,7 +12792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -12748,7 +12806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -12762,7 +12820,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -12779,9 +12837,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -12796,10 +12854,10 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12813,7 +12871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12824,10 +12882,10 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -12841,7 +12899,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>48</v>
       </c>
@@ -12852,10 +12910,10 @@
         <v>455</v>
       </c>
       <c r="F17" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -12872,10 +12930,10 @@
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -12889,7 +12947,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12900,10 +12958,10 @@
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -12917,7 +12975,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -12931,7 +12989,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -12942,10 +13000,10 @@
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>48</v>
       </c>
@@ -12956,7 +13014,7 @@
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5029" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{875E7924-7BBD-4254-A812-773C62541CDD}"/>
+  <xr:revisionPtr revIDLastSave="5040" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6FAC1BE-2EAB-4BE2-8C20-40C678E25FBB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="586">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1797,6 +1797,15 @@
   </si>
   <si>
     <t>6-4 3-6 7-6(3)</t>
+  </si>
+  <si>
+    <t>Diane Parry (FRANCE)</t>
+  </si>
+  <si>
+    <t>6-1 1-6 6-4</t>
+  </si>
+  <si>
+    <t>Emma Navarro (USA)</t>
   </si>
 </sst>
 </file>
@@ -2172,7 +2181,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2298,7 +2307,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2833,7 +2842,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.21428571428571427</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4322,10 +4331,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4632,17 +4637,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4662,7 +4667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>496</v>
       </c>
@@ -4682,7 +4687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>497</v>
       </c>
@@ -4702,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -4716,7 +4721,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>510</v>
       </c>
@@ -4736,7 +4741,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -4750,7 +4755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>511</v>
       </c>
@@ -4771,7 +4776,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4786,7 +4791,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>512</v>
       </c>
@@ -4806,7 +4811,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -4821,7 +4826,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -4835,7 +4840,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -4849,7 +4854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>513</v>
       </c>
@@ -4869,7 +4874,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4883,7 +4888,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>514</v>
       </c>
@@ -4921,17 +4926,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4951,7 +4956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>483</v>
       </c>
@@ -4971,7 +4976,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4985,7 +4990,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -4999,7 +5004,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5013,7 +5018,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5033,7 +5038,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5047,7 +5052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5061,7 +5066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5075,7 +5080,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -5089,7 +5094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -5103,7 +5108,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -5117,7 +5122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5137,7 +5142,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5151,7 +5156,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5165,7 +5170,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5179,7 +5184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -5199,7 +5204,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5213,7 +5218,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -5233,7 +5238,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5253,7 +5258,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -5267,7 +5272,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>490</v>
       </c>
@@ -5287,7 +5292,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -5301,7 +5306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>504</v>
       </c>
@@ -5321,7 +5326,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -5335,7 +5340,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5355,7 +5360,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>29</v>
       </c>
@@ -5369,7 +5374,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -5401,17 +5406,17 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5431,7 +5436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>543</v>
       </c>
@@ -5451,7 +5456,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5465,7 +5470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5479,7 +5484,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5493,7 +5498,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5513,7 +5518,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5527,7 +5532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5541,7 +5546,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>542</v>
       </c>
@@ -5561,7 +5566,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5575,7 +5580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -5595,7 +5600,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -5609,7 +5614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5623,7 +5628,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5637,7 +5642,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5651,7 +5656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5665,7 +5670,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>48</v>
       </c>
@@ -5679,7 +5684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -5699,7 +5704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5713,7 +5718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5733,7 +5738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>553</v>
       </c>
@@ -5753,7 +5758,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5767,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>555</v>
       </c>
@@ -5787,7 +5792,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>504</v>
       </c>
@@ -5807,7 +5812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5827,7 +5832,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>558</v>
       </c>
@@ -5847,7 +5852,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5878,17 +5883,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5908,7 +5913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>560</v>
       </c>
@@ -5939,23 +5944,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35:F37"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5975,7 +5980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -5995,7 +6000,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -6009,7 +6014,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -6029,7 +6034,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>564</v>
       </c>
@@ -6049,7 +6054,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>565</v>
       </c>
@@ -6069,7 +6074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6083,7 +6088,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6097,7 +6102,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6111,7 +6116,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>542</v>
       </c>
@@ -6131,7 +6136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -6145,7 +6150,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -6159,7 +6164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -6179,7 +6184,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -6193,7 +6198,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6207,7 +6212,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>570</v>
       </c>
@@ -6227,7 +6232,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>572</v>
       </c>
@@ -6247,7 +6252,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>29</v>
       </c>
@@ -6261,7 +6266,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>151</v>
       </c>
@@ -6281,7 +6286,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -6295,7 +6300,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -6309,7 +6314,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -6323,7 +6328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -6343,7 +6348,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -6357,7 +6362,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>580</v>
       </c>
@@ -6377,7 +6382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -6391,7 +6396,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -6403,6 +6408,40 @@
       </c>
       <c r="F37" t="s">
         <v>582</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s">
+        <v>583</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>585</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -6422,17 +6461,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -6452,7 +6491,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -6473,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -6494,7 +6533,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -6515,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -6536,7 +6575,7 @@
         <v>0.41935483870967744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -6557,7 +6596,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -6578,7 +6617,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -6599,7 +6638,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -6620,7 +6659,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -6641,7 +6680,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -6662,7 +6701,7 @@
         <v>0.6470588235294118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -6683,7 +6722,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2023</v>
       </c>
@@ -6704,34 +6743,34 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2024</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>0.21428571428571427</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="6">
         <f>SUM(B2:B14)</f>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="6">
         <f>SUM(C2:C14)</f>
@@ -6739,24 +6778,24 @@
       </c>
       <c r="D15" s="6">
         <f>SUM(D2:D14)</f>
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E2:E14)</f>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F15" s="7">
         <f>(D15-E15)/D15</f>
-        <v>0.42805755395683454</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.4265232974910394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>498</v>
       </c>
       <c r="B16" s="6">
         <f>AVERAGE(B2:B14)</f>
-        <v>13.23076923076923</v>
+        <v>13.307692307692308</v>
       </c>
       <c r="C16" s="6">
         <f>AVERAGE(C2:C14)</f>
@@ -6764,15 +6803,15 @@
       </c>
       <c r="D16" s="6">
         <f>AVERAGE(D2:D14)</f>
-        <v>21.384615384615383</v>
+        <v>21.46153846153846</v>
       </c>
       <c r="E16" s="6">
         <f>AVERAGE(E2:E14)</f>
-        <v>12.23076923076923</v>
+        <v>12.307692307692308</v>
       </c>
       <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
-        <v>0.42805755395683454</v>
+        <v>0.42652329749103934</v>
       </c>
     </row>
   </sheetData>
@@ -6801,17 +6840,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6831,7 +6870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>515</v>
       </c>
@@ -6851,7 +6890,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>497</v>
       </c>
@@ -6871,7 +6910,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -6885,7 +6924,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -6899,7 +6938,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>516</v>
       </c>
@@ -6919,7 +6958,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6933,7 +6972,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6947,7 +6986,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6961,8 +7000,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>517</v>
       </c>
@@ -6982,7 +7021,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -6996,7 +7035,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>510</v>
       </c>
@@ -7016,7 +7055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -7030,7 +7069,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -7044,7 +7083,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>518</v>
       </c>
@@ -7064,7 +7103,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>519</v>
       </c>
@@ -7084,7 +7123,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -7098,7 +7137,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -7112,7 +7151,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -7126,7 +7165,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -7140,7 +7179,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -7154,7 +7193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -7168,7 +7207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>520</v>
       </c>
@@ -7188,7 +7227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -7208,7 +7247,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -7222,7 +7261,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>123</v>
       </c>
@@ -7236,7 +7275,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7250,7 +7289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7264,7 +7303,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>521</v>
       </c>
@@ -7284,7 +7323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -7304,7 +7343,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>522</v>
       </c>
@@ -7324,7 +7363,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>6</v>
       </c>
@@ -7338,7 +7377,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>123</v>
       </c>
@@ -7352,7 +7391,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -7366,7 +7405,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -7380,7 +7419,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>523</v>
       </c>
@@ -7400,7 +7439,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -7414,7 +7453,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>524</v>
       </c>
@@ -7434,7 +7473,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>526</v>
       </c>
@@ -7454,7 +7493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -7468,7 +7507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -7500,17 +7539,17 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7530,7 +7569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>527</v>
       </c>
@@ -7550,7 +7589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -7564,7 +7603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>528</v>
       </c>
@@ -7584,7 +7623,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -7598,7 +7637,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>509</v>
       </c>
@@ -7618,7 +7657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -7632,7 +7671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>123</v>
       </c>
@@ -7646,7 +7685,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -7660,7 +7699,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -7680,7 +7719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>529</v>
       </c>
@@ -7700,7 +7739,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7714,7 +7753,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7728,7 +7767,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7742,7 +7781,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>48</v>
       </c>
@@ -7756,7 +7795,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>530</v>
       </c>
@@ -7776,7 +7815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>531</v>
       </c>
@@ -7796,7 +7835,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>532</v>
       </c>
@@ -7816,7 +7855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>533</v>
       </c>
@@ -7836,7 +7875,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -7850,7 +7889,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -7864,7 +7903,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>519</v>
       </c>
@@ -7884,7 +7923,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -7904,7 +7943,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>6</v>
       </c>
@@ -7918,7 +7957,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7932,7 +7971,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7946,7 +7985,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -7966,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -7986,7 +8025,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8000,7 +8039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>534</v>
       </c>
@@ -8020,7 +8059,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>523</v>
       </c>
@@ -8076,17 +8115,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -8106,7 +8145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>508</v>
       </c>
@@ -8126,7 +8165,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8140,7 +8179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8154,7 +8193,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>509</v>
       </c>
@@ -8174,7 +8213,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -8188,7 +8227,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -8202,7 +8241,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -8222,7 +8261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>535</v>
       </c>
@@ -8242,7 +8281,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -8256,7 +8295,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -8270,7 +8309,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -8284,7 +8323,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -8298,7 +8337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -8318,7 +8357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -8332,7 +8371,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -8352,7 +8391,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>531</v>
       </c>
@@ -8372,7 +8411,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -8386,7 +8425,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -8400,7 +8439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -8414,7 +8453,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>48</v>
       </c>
@@ -8428,7 +8467,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>536</v>
       </c>
@@ -8448,7 +8487,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -8462,7 +8501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -8476,7 +8515,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>537</v>
       </c>
@@ -8496,7 +8535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -8510,7 +8549,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -8524,7 +8563,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8538,7 +8577,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>48</v>
       </c>
@@ -8552,7 +8591,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -8572,7 +8611,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>506</v>
       </c>
@@ -8592,7 +8631,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>286</v>
       </c>
@@ -8612,7 +8651,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>507</v>
       </c>
@@ -8632,7 +8671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -8646,7 +8685,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -8666,7 +8705,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -8680,7 +8719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>292</v>
       </c>
@@ -8700,7 +8739,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -8714,7 +8753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>123</v>
       </c>
@@ -8728,7 +8767,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -8742,7 +8781,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -8762,7 +8801,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>342</v>
       </c>
@@ -8782,7 +8821,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8796,7 +8835,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8810,7 +8849,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -8824,7 +8863,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>48</v>
       </c>
@@ -8838,7 +8877,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>538</v>
       </c>
@@ -8858,7 +8897,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -8872,7 +8911,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -8886,7 +8925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8918,17 +8957,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -8948,7 +8987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -8968,7 +9007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8982,7 +9021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>123</v>
       </c>
@@ -8996,7 +9035,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -9016,7 +9055,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -9030,7 +9069,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>123</v>
       </c>
@@ -9044,7 +9083,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -9058,7 +9097,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -9072,7 +9111,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -9092,7 +9131,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -9106,7 +9145,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>123</v>
       </c>
@@ -9120,7 +9159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>28</v>
       </c>
@@ -9134,7 +9173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -9148,7 +9187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -9162,7 +9201,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>363</v>
       </c>
@@ -9182,7 +9221,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -9202,7 +9241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -9216,7 +9255,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -9230,7 +9269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>542</v>
       </c>
@@ -9250,7 +9289,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -9264,7 +9303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -9284,7 +9323,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -9298,7 +9337,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -9312,7 +9351,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -9332,7 +9371,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -9346,7 +9385,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -9360,7 +9399,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>371</v>
       </c>
@@ -9380,7 +9419,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>177</v>
       </c>
@@ -9400,7 +9439,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>6</v>
       </c>
@@ -9414,7 +9453,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -9434,7 +9473,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -9448,7 +9487,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -9462,7 +9501,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -9482,7 +9521,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>6</v>
       </c>
@@ -9496,7 +9535,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -9516,7 +9555,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>505</v>
       </c>
@@ -9536,7 +9575,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>382</v>
       </c>
@@ -9556,7 +9595,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -9570,7 +9609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -9584,7 +9623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>504</v>
       </c>
@@ -9604,7 +9643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>6</v>
       </c>
@@ -9618,7 +9657,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>386</v>
       </c>
@@ -9638,7 +9677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -9658,7 +9697,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -9672,7 +9711,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -9686,7 +9725,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>292</v>
       </c>
@@ -9706,7 +9745,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -9720,7 +9759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -9740,7 +9779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -9754,7 +9793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -9768,7 +9807,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9782,7 +9821,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -9796,7 +9835,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -9816,7 +9855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>392</v>
       </c>
@@ -9836,7 +9875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -9850,7 +9889,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -9882,17 +9921,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -9912,7 +9951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>394</v>
       </c>
@@ -9932,7 +9971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -9948,7 +9987,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -9964,7 +10003,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9972,7 +10011,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -9992,7 +10031,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>29</v>
       </c>
@@ -10006,7 +10045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -10026,7 +10065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -10040,7 +10079,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>542</v>
       </c>
@@ -10060,7 +10099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -10074,7 +10113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -10088,7 +10127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -10108,7 +10147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -10122,7 +10161,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -10142,7 +10181,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -10156,7 +10195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -10170,7 +10209,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>401</v>
       </c>
@@ -10190,7 +10229,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -10204,7 +10243,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>123</v>
       </c>
@@ -10218,7 +10257,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -10232,7 +10271,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -10252,7 +10291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -10272,7 +10311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -10292,7 +10331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -10312,7 +10351,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -10332,7 +10371,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -10346,7 +10385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -10366,7 +10405,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -10380,7 +10419,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -10400,7 +10439,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -10414,7 +10453,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -10428,7 +10467,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -10448,7 +10487,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>505</v>
       </c>
@@ -10468,7 +10507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -10482,7 +10521,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -10496,7 +10535,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -10510,7 +10549,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -10524,7 +10563,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -10544,7 +10583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>29</v>
       </c>
@@ -10558,7 +10597,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -10572,7 +10611,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -10592,7 +10631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -10612,7 +10651,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -10632,7 +10671,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -10652,7 +10691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>422</v>
       </c>
@@ -10672,7 +10711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -10686,7 +10725,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -10718,17 +10757,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -10748,7 +10787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -10768,10 +10807,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -10791,7 +10830,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -10805,7 +10844,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -10819,7 +10858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -10833,7 +10872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>425</v>
       </c>
@@ -10853,7 +10892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -10867,7 +10906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -10881,7 +10920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -10895,7 +10934,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -10915,7 +10954,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10929,7 +10968,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -10943,7 +10982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>542</v>
       </c>
@@ -10963,7 +11002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -10977,7 +11016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -10991,7 +11030,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11005,7 +11044,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -11019,7 +11058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -11033,7 +11072,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -11047,7 +11086,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -11067,7 +11106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -11081,7 +11120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -11101,7 +11140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -11115,7 +11154,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -11129,7 +11168,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -11149,7 +11188,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -11169,7 +11208,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -11183,7 +11222,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -11203,7 +11242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>29</v>
       </c>
@@ -11217,7 +11256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>4</v>
       </c>
@@ -11231,7 +11270,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -11251,7 +11290,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -11265,7 +11304,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -11279,7 +11318,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -11293,7 +11332,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -11313,7 +11352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -11327,7 +11366,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -11347,7 +11386,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -11361,7 +11400,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>4</v>
       </c>
@@ -11375,7 +11414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>438</v>
       </c>
@@ -11395,7 +11434,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -11409,7 +11448,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -11429,7 +11468,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -11449,7 +11488,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -11469,7 +11508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -11483,7 +11522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -11497,7 +11536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -11511,7 +11550,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -11525,7 +11564,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -11539,7 +11578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -11553,7 +11592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -11573,7 +11612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -11587,7 +11626,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -11601,7 +11640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>48</v>
       </c>
@@ -11615,7 +11654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -11635,7 +11674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -11649,7 +11688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -11663,7 +11702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -11677,7 +11716,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -11691,7 +11730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>198</v>
       </c>
@@ -11711,7 +11750,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -11725,7 +11764,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>170</v>
       </c>
@@ -11757,17 +11796,17 @@
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -11787,7 +11826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -11807,7 +11846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -11823,7 +11862,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -11839,11 +11878,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -11863,7 +11902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -11879,7 +11918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
@@ -11895,7 +11934,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
@@ -11911,7 +11950,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
@@ -11927,7 +11966,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
@@ -11943,7 +11982,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" t="s">
@@ -11959,11 +11998,11 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -11983,7 +12022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>542</v>
       </c>
@@ -12003,7 +12042,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -12017,7 +12056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -12031,7 +12070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -12051,7 +12090,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12065,7 +12104,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>371</v>
       </c>
@@ -12085,7 +12124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -12099,7 +12138,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -12113,7 +12152,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -12133,7 +12172,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -12147,7 +12186,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -12161,7 +12200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -12175,7 +12214,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -12195,7 +12234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -12209,7 +12248,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -12223,7 +12262,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -12243,7 +12282,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -12257,7 +12296,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -12271,7 +12310,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -12291,7 +12330,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -12305,7 +12344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -12325,7 +12364,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>505</v>
       </c>
@@ -12345,7 +12384,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -12359,7 +12398,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -12373,7 +12412,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>504</v>
       </c>
@@ -12393,7 +12432,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -12407,7 +12446,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -12421,7 +12460,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -12441,7 +12480,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>195</v>
       </c>
@@ -12455,7 +12494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -12469,7 +12508,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -12483,7 +12522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -12503,7 +12542,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -12517,7 +12556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -12531,7 +12570,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>48</v>
       </c>
@@ -12545,7 +12584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -12565,7 +12604,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -12579,7 +12618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -12593,7 +12632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -12607,7 +12646,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -12621,7 +12660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>48</v>
       </c>
@@ -12635,7 +12674,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>198</v>
       </c>
@@ -12672,17 +12711,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -12702,7 +12741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -12722,7 +12761,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -12736,7 +12775,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -12750,7 +12789,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12764,7 +12803,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12772,7 +12811,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -12792,7 +12831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -12806,7 +12845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -12820,7 +12859,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -12837,7 +12876,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>504</v>
       </c>
@@ -12857,7 +12896,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -12871,7 +12910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -12885,7 +12924,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -12899,7 +12938,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>48</v>
       </c>
@@ -12913,7 +12952,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -12933,7 +12972,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -12947,7 +12986,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -12961,7 +13000,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -12975,7 +13014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -12989,7 +13028,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -13003,7 +13042,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>48</v>
       </c>

--- a/Tennis/WTA Tour/Naomi Osaka.xlsx
+++ b/Tennis/WTA Tour/Naomi Osaka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5040" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6FAC1BE-2EAB-4BE2-8C20-40C678E25FBB}"/>
+  <xr:revisionPtr revIDLastSave="5100" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FA357BF-5485-4A61-9EBC-2DEE40D88452}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="18" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="591">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1806,6 +1806,21 @@
   </si>
   <si>
     <t>Emma Navarro (USA)</t>
+  </si>
+  <si>
+    <t>Ashlyn Krueger (USA)</t>
+  </si>
+  <si>
+    <t>6-3 2-6 6-3</t>
+  </si>
+  <si>
+    <t>3-6 6-4 6-2</t>
+  </si>
+  <si>
+    <t>3-6 6-4 RETIRED</t>
+  </si>
+  <si>
+    <t>Katie Volynets (USA)</t>
   </si>
 </sst>
 </file>
@@ -2181,7 +2196,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2307,7 +2322,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2842,7 +2857,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2</c:v>
+                  <c:v>0.19047619047619047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4634,20 +4649,20 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4667,7 +4682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>496</v>
       </c>
@@ -4687,7 +4702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>497</v>
       </c>
@@ -4707,7 +4722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -4721,7 +4736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>510</v>
       </c>
@@ -4741,7 +4756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -4755,7 +4770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>511</v>
       </c>
@@ -4776,7 +4791,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4791,7 +4806,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>512</v>
       </c>
@@ -4811,7 +4826,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -4826,7 +4841,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -4840,7 +4855,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -4854,7 +4869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>513</v>
       </c>
@@ -4874,7 +4889,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4888,7 +4903,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>514</v>
       </c>
@@ -4922,21 +4937,21 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -4956,7 +4971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>483</v>
       </c>
@@ -4976,7 +4991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4990,7 +5005,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5004,7 +5019,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5018,7 +5033,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5038,7 +5053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5052,7 +5067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5066,7 +5081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5080,7 +5095,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -5094,7 +5109,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -5108,7 +5123,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -5122,7 +5137,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5142,7 +5157,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5156,7 +5171,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5170,7 +5185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5184,7 +5199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -5204,7 +5219,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -5218,7 +5233,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -5238,7 +5253,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5258,7 +5273,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -5272,7 +5287,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>490</v>
       </c>
@@ -5292,7 +5307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -5306,7 +5321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>504</v>
       </c>
@@ -5326,7 +5341,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>3</v>
       </c>
@@ -5340,7 +5355,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5360,7 +5375,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>29</v>
       </c>
@@ -5374,7 +5389,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -5403,20 +5418,20 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5436,7 +5451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>543</v>
       </c>
@@ -5456,7 +5471,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -5470,7 +5485,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -5484,7 +5499,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -5498,7 +5513,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5518,7 +5533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -5532,7 +5547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5546,7 +5561,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>542</v>
       </c>
@@ -5566,7 +5581,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5580,7 +5595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -5600,7 +5615,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -5614,7 +5629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -5628,7 +5643,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5642,7 +5657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5656,7 +5671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5670,7 +5685,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>48</v>
       </c>
@@ -5684,7 +5699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -5704,7 +5719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -5718,7 +5733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5738,7 +5753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>553</v>
       </c>
@@ -5758,7 +5773,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5772,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>555</v>
       </c>
@@ -5792,7 +5807,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>504</v>
       </c>
@@ -5812,7 +5827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -5832,7 +5847,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>558</v>
       </c>
@@ -5852,7 +5867,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5880,20 +5895,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5913,7 +5928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>560</v>
       </c>
@@ -5944,23 +5959,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53:E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -5980,7 +5995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -6000,7 +6015,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -6014,7 +6029,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -6034,7 +6049,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>564</v>
       </c>
@@ -6054,7 +6069,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>565</v>
       </c>
@@ -6074,7 +6089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6088,7 +6103,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6102,7 +6117,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6116,7 +6131,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>542</v>
       </c>
@@ -6136,7 +6151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -6150,7 +6165,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -6164,7 +6179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -6184,7 +6199,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -6198,7 +6213,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6212,7 +6227,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>570</v>
       </c>
@@ -6232,7 +6247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>572</v>
       </c>
@@ -6252,7 +6267,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>29</v>
       </c>
@@ -6266,7 +6281,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>151</v>
       </c>
@@ -6286,7 +6301,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -6300,7 +6315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -6314,7 +6329,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -6328,7 +6343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -6348,7 +6363,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -6362,7 +6377,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>580</v>
       </c>
@@ -6382,7 +6397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -6396,7 +6411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -6410,7 +6425,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -6430,7 +6445,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -6444,7 +6459,192 @@
         <v>140</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>490</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>555</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>504</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>469</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>586</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>577</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>590</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>470</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" t="s">
+        <v>589</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -6461,17 +6661,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -6491,7 +6691,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -6512,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -6533,7 +6733,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -6554,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -6575,7 +6775,7 @@
         <v>0.41935483870967744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -6596,7 +6796,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -6617,7 +6817,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -6638,7 +6838,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -6659,7 +6859,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -6680,7 +6880,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -6701,7 +6901,7 @@
         <v>0.6470588235294118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -6722,7 +6922,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2023</v>
       </c>
@@ -6743,34 +6943,34 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2024</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.19047619047619047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="6">
         <f>SUM(B2:B14)</f>
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C15" s="6">
         <f>SUM(C2:C14)</f>
@@ -6778,24 +6978,24 @@
       </c>
       <c r="D15" s="6">
         <f>SUM(D2:D14)</f>
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E2:E14)</f>
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F15" s="7">
         <f>(D15-E15)/D15</f>
-        <v>0.4265232974910394</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>498</v>
       </c>
       <c r="B16" s="6">
         <f>AVERAGE(B2:B14)</f>
-        <v>13.307692307692308</v>
+        <v>13.692307692307692</v>
       </c>
       <c r="C16" s="6">
         <f>AVERAGE(C2:C14)</f>
@@ -6803,15 +7003,15 @@
       </c>
       <c r="D16" s="6">
         <f>AVERAGE(D2:D14)</f>
-        <v>21.46153846153846</v>
+        <v>21.923076923076923</v>
       </c>
       <c r="E16" s="6">
         <f>AVERAGE(E2:E14)</f>
-        <v>12.307692307692308</v>
+        <v>12.692307692307692</v>
       </c>
       <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
-        <v>0.42652329749103934</v>
+        <v>0.4210526315789474</v>
       </c>
     </row>
   </sheetData>
@@ -6837,20 +7037,20 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -6870,7 +7070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>515</v>
       </c>
@@ -6890,7 +7090,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>497</v>
       </c>
@@ -6910,7 +7110,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -6924,7 +7124,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -6938,7 +7138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>516</v>
       </c>
@@ -6958,7 +7158,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -6972,7 +7172,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6986,7 +7186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -7000,8 +7200,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>517</v>
       </c>
@@ -7021,7 +7221,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -7035,7 +7235,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>510</v>
       </c>
@@ -7055,7 +7255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -7069,7 +7269,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -7083,7 +7283,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>518</v>
       </c>
@@ -7103,7 +7303,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>519</v>
       </c>
@@ -7123,7 +7323,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -7137,7 +7337,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -7151,7 +7351,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -7165,7 +7365,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -7179,7 +7379,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>0</v>
       </c>
@@ -7193,7 +7393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -7207,7 +7407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>520</v>
       </c>
@@ -7227,7 +7427,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -7247,7 +7447,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -7261,7 +7461,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>123</v>
       </c>
@@ -7275,7 +7475,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7289,7 +7489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7303,7 +7503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>521</v>
       </c>
@@ -7323,7 +7523,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -7343,7 +7543,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>522</v>
       </c>
@@ -7363,7 +7563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>6</v>
       </c>
@@ -7377,7 +7577,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>123</v>
       </c>
@@ -7391,7 +7591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -7405,7 +7605,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -7419,7 +7619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>523</v>
       </c>
@@ -7439,7 +7639,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -7453,7 +7653,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>524</v>
       </c>
@@ -7473,7 +7673,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>526</v>
       </c>
@@ -7493,7 +7693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -7507,7 +7707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -7536,20 +7736,20 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -7569,7 +7769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>527</v>
       </c>
@@ -7589,7 +7789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -7603,7 +7803,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>528</v>
       </c>
@@ -7623,7 +7823,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -7637,7 +7837,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>509</v>
       </c>
@@ -7657,7 +7857,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -7671,7 +7871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>123</v>
       </c>
@@ -7685,7 +7885,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -7699,7 +7899,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -7719,7 +7919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>529</v>
       </c>
@@ -7739,7 +7939,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -7753,7 +7953,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -7767,7 +7967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -7781,7 +7981,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>48</v>
       </c>
@@ -7795,7 +7995,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>530</v>
       </c>
@@ -7815,7 +8015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>531</v>
       </c>
@@ -7835,7 +8035,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>532</v>
       </c>
@@ -7855,7 +8055,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>533</v>
       </c>
@@ -7875,7 +8075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -7889,7 +8089,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -7903,7 +8103,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>519</v>
       </c>
@@ -7923,7 +8123,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -7943,7 +8143,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>6</v>
       </c>
@@ -7957,7 +8157,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -7971,7 +8171,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -7985,7 +8185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -8005,7 +8205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>292</v>
       </c>
@@ -8025,7 +8225,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -8039,7 +8239,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>534</v>
       </c>
@@ -8059,7 +8259,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>523</v>
       </c>
@@ -8112,20 +8312,20 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9